--- a/testcases/timeseries/EVDay01_mix10.xlsx
+++ b/testcases/timeseries/EVDay01_mix10.xlsx
@@ -1868,7 +1868,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1883,7 +1883,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1955,36 +1955,36 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="B2" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>37.8112976</v>
+        <v>58.5194072</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2016006216</v>
+        <v>2015001332</v>
       </c>
       <c r="B3" t="n">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="D3" t="n">
-        <v>37.8112976</v>
+        <v>58.5194072</v>
       </c>
       <c r="E3" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">

--- a/testcases/timeseries/EVDay01_mix10.xlsx
+++ b/testcases/timeseries/EVDay01_mix10.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="12" autoFilterDateGrouping="1" firstSheet="5" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="691" visibility="visible" windowHeight="15000" windowWidth="19440" xWindow="-19320" yWindow="2610"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-19320" yWindow="2610" windowWidth="19440" windowHeight="15000" tabRatio="691" firstSheet="5" activeTab="12" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="bus" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="demand" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="branch" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="transformer" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="shunt" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="generator" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="genseries" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="genmin" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="baseMVA" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="timeseries" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="EVs" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="EVsTravelDiary" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="timeseriesGen" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bus" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="demand" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="branch" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="transformer" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="shunt" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="generator" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="genseries" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="genmin" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="baseMVA" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timeseries" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EVs" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EVsTravelDiary" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timeseriesGen" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -28,8 +28,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="0.0" numFmtId="164"/>
-    <numFmt formatCode="0.000" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -125,101 +125,33 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -599,7 +531,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1782,7 +1714,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1800,7 +1732,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="5" width="12.85546875"/>
+    <col width="12.85546875" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1868,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1883,7 +1815,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1905,7 +1837,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1923,7 +1855,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="15.85546875"/>
+    <col width="15.85546875" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1955,37 +1887,23 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2015001332</v>
+        <v>2016004776</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D2" t="n">
-        <v>58.5194072</v>
+        <v>23.17925198327788</v>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>74.77244348380634</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="n">
-        <v>2015001332</v>
-      </c>
-      <c r="B3" t="n">
-        <v>15</v>
-      </c>
-      <c r="C3" t="n">
-        <v>94</v>
-      </c>
-      <c r="D3" t="n">
-        <v>58.5194072</v>
-      </c>
-      <c r="E3" t="n">
-        <v>60</v>
-      </c>
+      <c r="A3" s="7" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n"/>
@@ -2066,7 +1984,7 @@
       <c r="A29" s="7" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2084,8 +2002,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="11.7109375"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="17.42578125"/>
+    <col width="11.7109375" customWidth="1" min="2" max="2"/>
+    <col width="17.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4986,7 +4904,7 @@
       <c r="D289" s="4" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5061,7 +4979,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5147,7 +5065,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5258,7 +5176,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5304,7 +5222,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5623,7 +5541,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5641,10 +5559,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="18.28515625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="8.42578125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="15.85546875"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="15.85546875"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="8.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="15.85546875" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="15.85546875" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5665,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>35.45771464304154</v>
+        <v>46.29228410349347</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -5674,7 +5592,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>35.01994065806596</v>
+        <v>46.29559401134718</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -5683,7 +5601,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>35.12776593554243</v>
+        <v>46.46394548675575</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -5692,7 +5610,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>35.03329205399446</v>
+        <v>46.4099945475778</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -5701,7 +5619,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>35.45045504210617</v>
+        <v>46.30517673275784</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -5710,7 +5628,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>34.81115632920542</v>
+        <v>46.20644816777593</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -5719,7 +5637,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>34.5125651876992</v>
+        <v>46.21190913268785</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -5728,7 +5646,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>35.03021033786284</v>
+        <v>46.25059257327513</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -5737,7 +5655,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>35.05053025682635</v>
+        <v>46.38438576130642</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -5746,7 +5664,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>35.00760808598717</v>
+        <v>46.40551474520846</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -5755,7 +5673,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>35.06039419925781</v>
+        <v>46.5158550314319</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -5764,7 +5682,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>34.96225727518768</v>
+        <v>46.42579039798817</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -5773,7 +5691,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>35.03396528609971</v>
+        <v>46.63252166278905</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -5782,7 +5700,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>34.95430704788326</v>
+        <v>46.57758389907946</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -5791,7 +5709,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>35.25104093080427</v>
+        <v>46.65271124574814</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -5800,7 +5718,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>35.71062464464148</v>
+        <v>46.61380371637588</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -5809,7 +5727,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>35.12086620531863</v>
+        <v>46.43010908289468</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -5818,7 +5736,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>35.08794932445539</v>
+        <v>46.20220372234384</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -5827,7 +5745,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>35.0927682028318</v>
+        <v>46.26881093053528</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -5836,7 +5754,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>35.06601077638583</v>
+        <v>46.09615904012455</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -5845,7 +5763,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>35.03556376170128</v>
+        <v>46.07420911131913</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -5854,7 +5772,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>35.0739125881532</v>
+        <v>46.1364223139344</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -5863,7 +5781,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>35.00371864833633</v>
+        <v>46.61868739697884</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -5872,7 +5790,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>34.98369114351989</v>
+        <v>45.78448723285014</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -5881,7 +5799,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>34.62813521213984</v>
+        <v>45.59894169623889</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -5890,7 +5808,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>34.96579117230755</v>
+        <v>45.11888301427616</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -5899,7 +5817,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>34.94425781163639</v>
+        <v>45.38847969295693</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -5908,7 +5826,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>34.79980335530509</v>
+        <v>45.53434205344566</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -5917,7 +5835,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>34.51981611250521</v>
+        <v>45.71030526767194</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -5926,7 +5844,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>34.32882665233456</v>
+        <v>45.82450903772727</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -5935,7 +5853,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>34.83695931329062</v>
+        <v>45.8887343951546</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -5944,7 +5862,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>34.80071850037061</v>
+        <v>45.69439828367276</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -5953,7 +5871,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>34.57147203586879</v>
+        <v>45.77125701584105</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -5962,7 +5880,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>34.55113438087727</v>
+        <v>45.70027114075702</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -5971,7 +5889,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>34.33460928966862</v>
+        <v>45.87054632806467</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -5980,7 +5898,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>34.78099375671501</v>
+        <v>45.91110557629398</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -5989,7 +5907,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>34.52316904505854</v>
+        <v>45.843654655249</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -5998,7 +5916,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>34.45702196210797</v>
+        <v>45.69322382119493</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -6007,7 +5925,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>34.24552424114466</v>
+        <v>45.86317299860158</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -6016,7 +5934,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>34.85028422726124</v>
+        <v>45.63011674176439</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -6025,7 +5943,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>34.82654436957775</v>
+        <v>45.71828760768676</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -6034,7 +5952,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>34.81708260375893</v>
+        <v>45.68819426548593</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -6043,7 +5961,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>34.46428264031971</v>
+        <v>45.65923697141868</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -6052,7 +5970,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>34.21645086651966</v>
+        <v>45.85229932459568</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -6061,7 +5979,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>34.1180623076996</v>
+        <v>45.80197281585658</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -6070,7 +5988,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>34.61774700483257</v>
+        <v>45.80703051839663</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -6079,7 +5997,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>34.82645758660537</v>
+        <v>45.8776383278898</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -6088,7 +6006,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>34.78035267383601</v>
+        <v>45.85023167851586</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -6097,7 +6015,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>34.1680554800471</v>
+        <v>45.95527798504037</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -6106,7 +6024,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>34.33876456869371</v>
+        <v>45.59718096431772</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -6115,7 +6033,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>34.16168074323361</v>
+        <v>45.72562444272057</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -6124,7 +6042,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>34.11191561140157</v>
+        <v>45.7526616638562</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -6133,7 +6051,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>34.14070896769751</v>
+        <v>45.52768219292146</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -6142,7 +6060,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>34.29117225937637</v>
+        <v>45.62013255150248</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -6151,7 +6069,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>34.11266693665507</v>
+        <v>45.42632347489798</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -6160,7 +6078,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>34.1417606380347</v>
+        <v>44.31618739300564</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -6169,7 +6087,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>34.17522539482373</v>
+        <v>44.33166481970914</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -6178,7 +6096,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>34.32445548663268</v>
+        <v>44.321271071666</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -6187,7 +6105,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>34.41294898393723</v>
+        <v>44.64747124672391</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -6196,7 +6114,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>34.76546852668956</v>
+        <v>44.59600822074059</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -6205,7 +6123,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>34.36579790011666</v>
+        <v>44.63820307401855</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -6214,7 +6132,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>34.28803954762603</v>
+        <v>45.98308149556697</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -6223,7 +6141,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>34.39291529410989</v>
+        <v>45.83545749696492</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -6232,7 +6150,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>34.82473686828352</v>
+        <v>45.9092154671233</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -6241,7 +6159,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>34.82535458959768</v>
+        <v>45.95689517362969</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -6250,7 +6168,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>34.65829556222988</v>
+        <v>46.04242549821754</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -6259,7 +6177,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>34.76190894317159</v>
+        <v>45.94270556605481</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -6268,7 +6186,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>34.9267023086619</v>
+        <v>46.08763241578993</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -6277,7 +6195,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>34.86611666071205</v>
+        <v>46.1163127414374</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -6286,7 +6204,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>34.74632995197882</v>
+        <v>46.12604483442823</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -6295,7 +6213,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>34.84638593558378</v>
+        <v>46.09001748008171</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -6304,7 +6222,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>34.89461628742216</v>
+        <v>45.8053169867713</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -6313,7 +6231,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>34.12954586603414</v>
+        <v>45.99929801535663</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -6322,7 +6240,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>31.39099396729741</v>
+        <v>46.06317486199673</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -6331,7 +6249,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>31.28517472129141</v>
+        <v>46.48899534406128</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -6340,7 +6258,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>31.24113958983086</v>
+        <v>46.66594363375971</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -6349,7 +6267,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>31.25135471432571</v>
+        <v>47.14077018168584</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -6358,7 +6276,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>31.19589552854283</v>
+        <v>46.36660191372795</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -6367,7 +6285,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>31.25723442702301</v>
+        <v>45.98038924908724</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -6376,7 +6294,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>34.83136921747769</v>
+        <v>45.6295468546403</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -6385,7 +6303,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>34.91096856177326</v>
+        <v>47.07600009810049</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -6394,7 +6312,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>34.87408395663797</v>
+        <v>47.35185294530731</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -6403,7 +6321,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>34.8272878147551</v>
+        <v>47.27216224343528</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -6412,7 +6330,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>34.87947091854781</v>
+        <v>46.89574025041306</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -6421,7 +6339,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>34.95317264307273</v>
+        <v>46.614933132156</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -6430,7 +6348,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>34.9065427188221</v>
+        <v>46.06324301193084</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -6439,7 +6357,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>34.90260653343854</v>
+        <v>45.46350076730628</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -6448,7 +6366,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>35.08589099835261</v>
+        <v>46.19244312975876</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -6457,7 +6375,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>34.9285898698952</v>
+        <v>46.55394664956356</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -6466,7 +6384,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>34.88975517436819</v>
+        <v>46.77315155537688</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -6475,7 +6393,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>34.96118280679698</v>
+        <v>46.79041485634207</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -6484,7 +6402,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>34.95289822914714</v>
+        <v>46.87558559908173</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -6493,7 +6411,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>34.87184288358441</v>
+        <v>46.84929941422273</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -6502,7 +6420,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>34.87875062749075</v>
+        <v>46.8096520875492</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -6511,7 +6429,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>34.86294594915064</v>
+        <v>46.8984873443985</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -6520,7 +6438,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>34.85701190211402</v>
+        <v>46.90087311931878</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -6529,7 +6447,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>34.94994450707556</v>
+        <v>46.83426633033678</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -6538,7 +6456,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>34.9846084589723</v>
+        <v>46.62043143836391</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -6547,7 +6465,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>34.94916305877421</v>
+        <v>46.70232685845938</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -6556,7 +6474,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>34.83770479718207</v>
+        <v>46.62761306559446</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -6565,7 +6483,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>34.90877933317724</v>
+        <v>46.64218686234503</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -6574,7 +6492,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>34.89671571617396</v>
+        <v>46.61122827088988</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -6583,7 +6501,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>35.03096529763216</v>
+        <v>46.64953247899797</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -6592,7 +6510,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>34.9685239237378</v>
+        <v>46.58704387479345</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -6601,7 +6519,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>34.93140751489825</v>
+        <v>46.68490676979025</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -6610,7 +6528,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>34.91856911763278</v>
+        <v>46.59837263157685</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -6619,7 +6537,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>34.85986865009809</v>
+        <v>46.65724857165945</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -6628,7 +6546,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>34.92554438355993</v>
+        <v>46.62644871993218</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -6637,7 +6555,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>35.02287970345205</v>
+        <v>46.66670250258483</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -6646,7 +6564,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>35.05133840871369</v>
+        <v>46.72800068636734</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -6655,7 +6573,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>34.86889659769319</v>
+        <v>46.74113638764935</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -6664,7 +6582,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>34.65023976696947</v>
+        <v>46.6245999440595</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -6673,7 +6591,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>34.8275712933197</v>
+        <v>46.52533961126699</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -6682,7 +6600,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>34.8532163413757</v>
+        <v>46.45715703310934</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -6691,7 +6609,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>34.70781801846223</v>
+        <v>46.46851130788308</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -6700,7 +6618,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>34.33337639924355</v>
+        <v>46.41866274824592</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -6709,7 +6627,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>34.24872735578057</v>
+        <v>46.42290673401017</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -6718,7 +6636,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>34.13085097178281</v>
+        <v>46.47547954917587</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -6727,7 +6645,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>34.07224740531942</v>
+        <v>46.44150342834482</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -6736,7 +6654,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>34.16413179338573</v>
+        <v>46.43938194631653</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -6745,7 +6663,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>34.06756141115136</v>
+        <v>46.42977392031959</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -6754,7 +6672,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>33.96748511812988</v>
+        <v>46.61398597707226</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -6763,7 +6681,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>33.89699453373102</v>
+        <v>46.71392306001222</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -6772,7 +6690,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>34.02743905028382</v>
+        <v>46.64427158271356</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -6781,7 +6699,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>34.17004996074118</v>
+        <v>46.64142186957156</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -6790,7 +6708,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>34.35102550408615</v>
+        <v>46.62886727050002</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -6799,7 +6717,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>34.18464748860082</v>
+        <v>46.62439446066975</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -6808,7 +6726,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>34.28514972092628</v>
+        <v>46.41473033799655</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -6817,7 +6735,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>34.51554041719475</v>
+        <v>46.40952249091968</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -6826,7 +6744,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>34.67295755443286</v>
+        <v>46.42064880059824</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -6835,7 +6753,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>34.18613163933271</v>
+        <v>46.51592209447776</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -6844,7 +6762,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>34.42651931681134</v>
+        <v>46.4982027464827</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -6853,7 +6771,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>34.413910756105</v>
+        <v>46.57033484772911</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -6862,7 +6780,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>34.96093364009273</v>
+        <v>46.06790280938179</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -6871,7 +6789,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>34.71304732016342</v>
+        <v>46.43702347061924</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -6880,7 +6798,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>34.83759965923039</v>
+        <v>46.48725138033026</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -6889,7 +6807,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>34.78180504122657</v>
+        <v>46.19715827717646</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -6898,7 +6816,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>34.7256349834889</v>
+        <v>46.33266126798483</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -6907,7 +6825,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>35.03772945769746</v>
+        <v>46.41103663652532</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -6916,7 +6834,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>35.07558440234239</v>
+        <v>46.38741258206187</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -6925,7 +6843,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>35.32936795462813</v>
+        <v>46.28310776246802</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -6934,7 +6852,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>34.98817284011594</v>
+        <v>46.40373603510451</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -6943,7 +6861,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>34.84813572910691</v>
+        <v>46.46947469743009</v>
       </c>
     </row>
     <row r="145">
@@ -6951,14 +6869,14 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>34.94113279405293</v>
+        <v>46.34953602417481</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6976,8 +6894,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="18.28515625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="8.42578125"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="8.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6998,7 +6916,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-37.24242607342072</v>
+        <v>-51.39845627135572</v>
       </c>
     </row>
     <row r="3">
@@ -7006,7 +6924,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-37.23455311101127</v>
+        <v>-51.51434561904853</v>
       </c>
     </row>
     <row r="4">
@@ -7014,7 +6932,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-37.23627627440127</v>
+        <v>-51.35215854392409</v>
       </c>
     </row>
     <row r="5">
@@ -7022,7 +6940,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-37.32633099323008</v>
+        <v>-51.06810856754716</v>
       </c>
     </row>
     <row r="6">
@@ -7030,7 +6948,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-37.28519700015707</v>
+        <v>-50.71109439059052</v>
       </c>
     </row>
     <row r="7">
@@ -7038,7 +6956,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-37.23893514592147</v>
+        <v>-51.22014695797225</v>
       </c>
     </row>
     <row r="8">
@@ -7046,7 +6964,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-37.06447468958292</v>
+        <v>-51.1861506994125</v>
       </c>
     </row>
     <row r="9">
@@ -7054,7 +6972,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-37.05900194674285</v>
+        <v>-51.30175465756982</v>
       </c>
     </row>
     <row r="10">
@@ -7062,7 +6980,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-37.06188427179051</v>
+        <v>-51.28420701732389</v>
       </c>
     </row>
     <row r="11">
@@ -7070,7 +6988,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-37.05799848998337</v>
+        <v>-51.30251357264272</v>
       </c>
     </row>
     <row r="12">
@@ -7078,7 +6996,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-37.33230475013529</v>
+        <v>-51.30759001807237</v>
       </c>
     </row>
     <row r="13">
@@ -7086,7 +7004,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-37.40131309354328</v>
+        <v>-50.47094492768178</v>
       </c>
     </row>
     <row r="14">
@@ -7094,7 +7012,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-37.25833582942654</v>
+        <v>-51.23601836713546</v>
       </c>
     </row>
     <row r="15">
@@ -7102,7 +7020,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-37.46834574899387</v>
+        <v>-51.27457469178881</v>
       </c>
     </row>
     <row r="16">
@@ -7110,7 +7028,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-37.42577949141757</v>
+        <v>-50.7592700506107</v>
       </c>
     </row>
     <row r="17">
@@ -7118,7 +7036,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-37.34540180624165</v>
+        <v>-50.69496587661838</v>
       </c>
     </row>
     <row r="18">
@@ -7126,7 +7044,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-37.33447546714648</v>
+        <v>-51.28942015593022</v>
       </c>
     </row>
     <row r="19">
@@ -7134,7 +7052,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-37.33237342628393</v>
+        <v>-52.03160027070901</v>
       </c>
     </row>
     <row r="20">
@@ -7142,7 +7060,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-37.39025326053596</v>
+        <v>-51.67535404523491</v>
       </c>
     </row>
     <row r="21">
@@ -7150,7 +7068,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-37.6903800808701</v>
+        <v>-51.51107253015866</v>
       </c>
     </row>
     <row r="22">
@@ -7158,7 +7076,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-37.68453692781993</v>
+        <v>-50.58523462819095</v>
       </c>
     </row>
     <row r="23">
@@ -7166,7 +7084,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-37.6321944308126</v>
+        <v>-50.6625228634465</v>
       </c>
     </row>
     <row r="24">
@@ -7174,7 +7092,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-37.87393083422992</v>
+        <v>-50.35182583370636</v>
       </c>
     </row>
     <row r="25">
@@ -7182,7 +7100,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-37.87988753720068</v>
+        <v>-51.6610824240549</v>
       </c>
     </row>
     <row r="26">
@@ -7190,7 +7108,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-37.87405500289859</v>
+        <v>-50.56020455870911</v>
       </c>
     </row>
     <row r="27">
@@ -7198,7 +7116,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-38.05045893898518</v>
+        <v>-50.81941347866181</v>
       </c>
     </row>
     <row r="28">
@@ -7206,7 +7124,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-38.16936062698369</v>
+        <v>-51.57178856442339</v>
       </c>
     </row>
     <row r="29">
@@ -7214,7 +7132,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-38.21294610177543</v>
+        <v>-51.57156551615448</v>
       </c>
     </row>
     <row r="30">
@@ -7222,7 +7140,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-38.20585673228192</v>
+        <v>-51.83570636769221</v>
       </c>
     </row>
     <row r="31">
@@ -7230,7 +7148,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-38.19750204376152</v>
+        <v>-52.01310937762647</v>
       </c>
     </row>
     <row r="32">
@@ -7238,7 +7156,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-38.20795892066721</v>
+        <v>-51.81344937712539</v>
       </c>
     </row>
     <row r="33">
@@ -7246,7 +7164,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-38.20777659898357</v>
+        <v>-51.78748403628676</v>
       </c>
     </row>
     <row r="34">
@@ -7254,7 +7172,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-38.20522965251816</v>
+        <v>-51.51301318199548</v>
       </c>
     </row>
     <row r="35">
@@ -7262,7 +7180,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-38.19941734831653</v>
+        <v>-51.62679933527135</v>
       </c>
     </row>
     <row r="36">
@@ -7270,7 +7188,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-38.21083806322662</v>
+        <v>-51.75674244381343</v>
       </c>
     </row>
     <row r="37">
@@ -7278,7 +7196,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-38.20951445388313</v>
+        <v>-51.71310001371105</v>
       </c>
     </row>
     <row r="38">
@@ -7286,7 +7204,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-38.2136340116169</v>
+        <v>-51.71309676092553</v>
       </c>
     </row>
     <row r="39">
@@ -7294,7 +7212,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-38.21436279086258</v>
+        <v>-52.01129870662808</v>
       </c>
     </row>
     <row r="40">
@@ -7302,7 +7220,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-38.20883849949985</v>
+        <v>-52.15176437457352</v>
       </c>
     </row>
     <row r="41">
@@ -7310,7 +7228,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-38.20718499006472</v>
+        <v>-52.1207770273836</v>
       </c>
     </row>
     <row r="42">
@@ -7318,7 +7236,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-38.20864774182282</v>
+        <v>-52.08900099980615</v>
       </c>
     </row>
     <row r="43">
@@ -7326,7 +7244,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-38.21046643466288</v>
+        <v>-52.33888854980994</v>
       </c>
     </row>
     <row r="44">
@@ -7334,7 +7252,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-38.21174671504788</v>
+        <v>-52.17641718858822</v>
       </c>
     </row>
     <row r="45">
@@ -7342,7 +7260,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-38.21119802399272</v>
+        <v>-52.26243949796793</v>
       </c>
     </row>
     <row r="46">
@@ -7350,7 +7268,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-38.2113385522151</v>
+        <v>-51.63327805832836</v>
       </c>
     </row>
     <row r="47">
@@ -7358,7 +7276,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-38.21198928948867</v>
+        <v>-51.9535762484353</v>
       </c>
     </row>
     <row r="48">
@@ -7366,7 +7284,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-38.21056135920885</v>
+        <v>-52.16320973033628</v>
       </c>
     </row>
     <row r="49">
@@ -7374,7 +7292,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-38.20964213433395</v>
+        <v>-52.31068533322548</v>
       </c>
     </row>
     <row r="50">
@@ -7382,7 +7300,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-38.2128137115367</v>
+        <v>-52.29649603397875</v>
       </c>
     </row>
     <row r="51">
@@ -7390,7 +7308,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-38.21363111315647</v>
+        <v>-51.52946503930255</v>
       </c>
     </row>
     <row r="52">
@@ -7398,7 +7316,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-38.2133148293177</v>
+        <v>-51.96291749705482</v>
       </c>
     </row>
     <row r="53">
@@ -7406,7 +7324,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-38.21295481387021</v>
+        <v>-51.47000152675706</v>
       </c>
     </row>
     <row r="54">
@@ -7414,7 +7332,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-38.21227890639072</v>
+        <v>-51.03522052732183</v>
       </c>
     </row>
     <row r="55">
@@ -7422,7 +7340,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-38.21266374058342</v>
+        <v>-51.03614798432218</v>
       </c>
     </row>
     <row r="56">
@@ -7430,7 +7348,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-38.21583791553931</v>
+        <v>-51.02489689555924</v>
       </c>
     </row>
     <row r="57">
@@ -7438,7 +7356,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-38.21581919779612</v>
+        <v>-51.1918110792209</v>
       </c>
     </row>
     <row r="58">
@@ -7446,7 +7364,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-38.2153034387727</v>
+        <v>-51.13913596211964</v>
       </c>
     </row>
     <row r="59">
@@ -7454,7 +7372,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-38.21476768886454</v>
+        <v>-51.11385858792232</v>
       </c>
     </row>
     <row r="60">
@@ -7462,7 +7380,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-38.21583274102487</v>
+        <v>-51.02646889780988</v>
       </c>
     </row>
     <row r="61">
@@ -7470,7 +7388,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-38.21297350031749</v>
+        <v>-51.03597308414251</v>
       </c>
     </row>
     <row r="62">
@@ -7478,7 +7396,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-38.21399498029045</v>
+        <v>-50.9888359638006</v>
       </c>
     </row>
     <row r="63">
@@ -7486,7 +7404,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-38.21504981447066</v>
+        <v>-50.94315766509589</v>
       </c>
     </row>
     <row r="64">
@@ -7494,7 +7412,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-38.21703506511886</v>
+        <v>-50.93627364913699</v>
       </c>
     </row>
     <row r="65">
@@ -7502,7 +7420,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-38.21267559241839</v>
+        <v>-50.94997512965902</v>
       </c>
     </row>
     <row r="66">
@@ -7510,7 +7428,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-38.21259059858867</v>
+        <v>-50.98143314937621</v>
       </c>
     </row>
     <row r="67">
@@ -7518,7 +7436,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-38.21207102064199</v>
+        <v>-50.97481679847643</v>
       </c>
     </row>
     <row r="68">
@@ -7526,7 +7444,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-38.21471121821726</v>
+        <v>-51.05321599887335</v>
       </c>
     </row>
     <row r="69">
@@ -7534,7 +7452,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-38.21020430029201</v>
+        <v>-51.09256284007364</v>
       </c>
     </row>
     <row r="70">
@@ -7542,7 +7460,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-38.21436236573525</v>
+        <v>-50.9347751417594</v>
       </c>
     </row>
     <row r="71">
@@ -7550,7 +7468,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-38.20912309098583</v>
+        <v>-50.95525140189576</v>
       </c>
     </row>
     <row r="72">
@@ -7558,7 +7476,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-38.20842365190287</v>
+        <v>-51.08781812218392</v>
       </c>
     </row>
     <row r="73">
@@ -7566,7 +7484,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-38.20796683638608</v>
+        <v>-51.8730321856202</v>
       </c>
     </row>
     <row r="74">
@@ -7574,7 +7492,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-38.21267266704523</v>
+        <v>-51.60659700391881</v>
       </c>
     </row>
     <row r="75">
@@ -7582,7 +7500,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-38.20864818454832</v>
+        <v>-51.54729842034472</v>
       </c>
     </row>
     <row r="76">
@@ -7590,7 +7508,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-38.20563146424868</v>
+        <v>-51.04389547695222</v>
       </c>
     </row>
     <row r="77">
@@ -7598,7 +7516,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-38.20929613785082</v>
+        <v>-50.61202578847661</v>
       </c>
     </row>
     <row r="78">
@@ -7606,7 +7524,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-38.20952839913082</v>
+        <v>-50.3096734539687</v>
       </c>
     </row>
     <row r="79">
@@ -7614,7 +7532,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-38.2095212323207</v>
+        <v>-51.58009530206124</v>
       </c>
     </row>
     <row r="80">
@@ -7622,7 +7540,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-38.20795844444224</v>
+        <v>-50.69398381998252</v>
       </c>
     </row>
     <row r="81">
@@ -7630,7 +7548,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-38.20737676665519</v>
+        <v>-51.40822632239176</v>
       </c>
     </row>
     <row r="82">
@@ -7638,7 +7556,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-38.20624341373834</v>
+        <v>-51.43502448791274</v>
       </c>
     </row>
     <row r="83">
@@ -7646,7 +7564,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-38.20982378896004</v>
+        <v>-50.07448632884755</v>
       </c>
     </row>
     <row r="84">
@@ -7654,7 +7572,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-38.20902443319555</v>
+        <v>-50.1086552984937</v>
       </c>
     </row>
     <row r="85">
@@ -7662,7 +7580,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-38.21043468965534</v>
+        <v>-50.10168072300668</v>
       </c>
     </row>
     <row r="86">
@@ -7670,7 +7588,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-38.20864865666137</v>
+        <v>-50.07582993758686</v>
       </c>
     </row>
     <row r="87">
@@ -7678,7 +7596,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-38.20714326852202</v>
+        <v>-50.23193770000097</v>
       </c>
     </row>
     <row r="88">
@@ -7686,7 +7604,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-38.20736755958991</v>
+        <v>-51.23330789453965</v>
       </c>
     </row>
     <row r="89">
@@ -7694,7 +7612,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-38.20714449682577</v>
+        <v>-51.44411684268392</v>
       </c>
     </row>
     <row r="90">
@@ -7702,7 +7620,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-38.20783979588711</v>
+        <v>-51.26275905674038</v>
       </c>
     </row>
     <row r="91">
@@ -7710,7 +7628,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-38.20947310980502</v>
+        <v>-51.35949826251275</v>
       </c>
     </row>
     <row r="92">
@@ -7718,7 +7636,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-38.21144396029192</v>
+        <v>-51.25833966371299</v>
       </c>
     </row>
     <row r="93">
@@ -7726,7 +7644,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-38.20654963884034</v>
+        <v>-51.21823762033247</v>
       </c>
     </row>
     <row r="94">
@@ -7734,7 +7652,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-38.20832209377346</v>
+        <v>-51.36688069517619</v>
       </c>
     </row>
     <row r="95">
@@ -7742,7 +7660,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-38.20654868703858</v>
+        <v>-51.2234574026438</v>
       </c>
     </row>
     <row r="96">
@@ -7750,7 +7668,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-38.20789863303453</v>
+        <v>-51.06925536560116</v>
       </c>
     </row>
     <row r="97">
@@ -7758,7 +7676,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-38.20971901054804</v>
+        <v>-51.28399149857177</v>
       </c>
     </row>
     <row r="98">
@@ -7766,7 +7684,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-38.20796367969017</v>
+        <v>-51.22579925597763</v>
       </c>
     </row>
     <row r="99">
@@ -7774,7 +7692,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-38.2057510983515</v>
+        <v>-51.30656820047188</v>
       </c>
     </row>
     <row r="100">
@@ -7782,7 +7700,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-38.20297570917276</v>
+        <v>-51.24226505571354</v>
       </c>
     </row>
     <row r="101">
@@ -7790,7 +7708,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-38.20236126876338</v>
+        <v>-51.33241500752915</v>
       </c>
     </row>
     <row r="102">
@@ -7798,7 +7716,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-38.20654924587782</v>
+        <v>-51.30152262699388</v>
       </c>
     </row>
     <row r="103">
@@ -7806,7 +7724,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-38.20683278043362</v>
+        <v>-51.24384099716568</v>
       </c>
     </row>
     <row r="104">
@@ -7814,7 +7732,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-38.20549503451362</v>
+        <v>-51.25295386548781</v>
       </c>
     </row>
     <row r="105">
@@ -7822,7 +7740,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-38.20969145368802</v>
+        <v>-51.2347721009272</v>
       </c>
     </row>
     <row r="106">
@@ -7830,7 +7748,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-38.20876686132532</v>
+        <v>-51.30068380944552</v>
       </c>
     </row>
     <row r="107">
@@ -7838,7 +7756,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-38.2078840125089</v>
+        <v>-51.35686744575182</v>
       </c>
     </row>
     <row r="108">
@@ -7846,7 +7764,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-38.20655524261242</v>
+        <v>-51.30456189109331</v>
       </c>
     </row>
     <row r="109">
@@ -7854,7 +7772,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-38.20969406381697</v>
+        <v>-51.31579482399702</v>
       </c>
     </row>
     <row r="110">
@@ -7862,7 +7780,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-38.20796720222926</v>
+        <v>-51.33072246831955</v>
       </c>
     </row>
     <row r="111">
@@ -7870,7 +7788,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-38.20682283751087</v>
+        <v>-51.34967196967008</v>
       </c>
     </row>
     <row r="112">
@@ -7878,7 +7796,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-38.20759486534499</v>
+        <v>-51.31407776299742</v>
       </c>
     </row>
     <row r="113">
@@ -7886,7 +7804,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-38.20997408073492</v>
+        <v>-51.41883573778364</v>
       </c>
     </row>
     <row r="114">
@@ -7894,7 +7812,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-38.22604331723882</v>
+        <v>-51.60699073441065</v>
       </c>
     </row>
     <row r="115">
@@ -7902,7 +7820,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-38.21789396599128</v>
+        <v>-51.6511117115713</v>
       </c>
     </row>
     <row r="116">
@@ -7910,7 +7828,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-38.21527922979924</v>
+        <v>-51.53139096201085</v>
       </c>
     </row>
     <row r="117">
@@ -7918,7 +7836,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-38.21363454303876</v>
+        <v>-51.65176796340394</v>
       </c>
     </row>
     <row r="118">
@@ -7926,7 +7844,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-38.21104218745258</v>
+        <v>-51.78373467449905</v>
       </c>
     </row>
     <row r="119">
@@ -7934,7 +7852,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-38.2175254088066</v>
+        <v>-51.51556747363141</v>
       </c>
     </row>
     <row r="120">
@@ -7942,7 +7860,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-38.21930350556812</v>
+        <v>-51.94723099582895</v>
       </c>
     </row>
     <row r="121">
@@ -7950,7 +7868,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-38.21489948747374</v>
+        <v>-51.63238205490879</v>
       </c>
     </row>
     <row r="122">
@@ -7958,7 +7876,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-38.209425885685</v>
+        <v>-51.79116709364809</v>
       </c>
     </row>
     <row r="123">
@@ -7966,7 +7884,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-38.19975107156054</v>
+        <v>-51.8491751128259</v>
       </c>
     </row>
     <row r="124">
@@ -7974,7 +7892,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-38.20089559445628</v>
+        <v>-51.61281560227211</v>
       </c>
     </row>
     <row r="125">
@@ -7982,7 +7900,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-38.20092201164321</v>
+        <v>-51.86533834863937</v>
       </c>
     </row>
     <row r="126">
@@ -7990,7 +7908,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-38.21247022717387</v>
+        <v>-51.59255147653425</v>
       </c>
     </row>
     <row r="127">
@@ -7998,7 +7916,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-38.17950853042826</v>
+        <v>-51.66236966122585</v>
       </c>
     </row>
     <row r="128">
@@ -8006,7 +7924,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-38.19175161523457</v>
+        <v>-51.7185719597676</v>
       </c>
     </row>
     <row r="129">
@@ -8014,7 +7932,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-38.05644010065335</v>
+        <v>-51.76553057517468</v>
       </c>
     </row>
     <row r="130">
@@ -8022,7 +7940,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-37.9994036515197</v>
+        <v>-51.76896908873282</v>
       </c>
     </row>
     <row r="131">
@@ -8030,7 +7948,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-37.98216474626042</v>
+        <v>-51.74519205410974</v>
       </c>
     </row>
     <row r="132">
@@ -8038,7 +7956,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-37.88621121548967</v>
+        <v>-51.78789901625109</v>
       </c>
     </row>
     <row r="133">
@@ -8046,7 +7964,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-37.87040202779212</v>
+        <v>-51.67420437636268</v>
       </c>
     </row>
     <row r="134">
@@ -8054,7 +7972,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-37.8466090796899</v>
+        <v>-51.71927353785552</v>
       </c>
     </row>
     <row r="135">
@@ -8062,7 +7980,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-37.63467578708494</v>
+        <v>-51.60663439736288</v>
       </c>
     </row>
     <row r="136">
@@ -8070,7 +7988,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-37.63905050564295</v>
+        <v>-51.90201431606548</v>
       </c>
     </row>
     <row r="137">
@@ -8078,7 +7996,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-37.66606697944169</v>
+        <v>-51.36769305924661</v>
       </c>
     </row>
     <row r="138">
@@ -8086,7 +8004,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-37.49018338582368</v>
+        <v>-51.39065660452615</v>
       </c>
     </row>
     <row r="139">
@@ -8094,7 +8012,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-37.51653515298372</v>
+        <v>-51.66005561847965</v>
       </c>
     </row>
     <row r="140">
@@ -8102,7 +8020,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-37.5279319149564</v>
+        <v>-51.41159654021286</v>
       </c>
     </row>
     <row r="141">
@@ -8110,7 +8028,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-37.39463741210068</v>
+        <v>-51.40976658397284</v>
       </c>
     </row>
     <row r="142">
@@ -8118,7 +8036,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-37.37777871183511</v>
+        <v>-50.49920390982254</v>
       </c>
     </row>
     <row r="143">
@@ -8126,7 +8044,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-37.33351073657556</v>
+        <v>-50.75505981525302</v>
       </c>
     </row>
     <row r="144">
@@ -8134,7 +8052,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-37.21093334370532</v>
+        <v>-51.16664922033642</v>
       </c>
     </row>
     <row r="145">
@@ -8142,14 +8060,14 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-37.24749471908777</v>
+        <v>-51.57420461696864</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8180,6 +8098,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testcases/timeseries/EVDay01_mix10.xlsx
+++ b/testcases/timeseries/EVDay01_mix10.xlsx
@@ -1800,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1887,19 +1887,19 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2016004776</v>
+        <v>2014008306</v>
       </c>
       <c r="B2" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="D2" t="n">
-        <v>23.17925198327788</v>
+        <v>23.22661515398081</v>
       </c>
       <c r="E2" t="n">
-        <v>74.77244348380634</v>
+        <v>23.99999999824407</v>
       </c>
     </row>
     <row r="3">
@@ -5583,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>46.29228410349347</v>
+        <v>36.18777006027825</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -5592,7 +5592,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>46.29559401134718</v>
+        <v>36.19347695326518</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -5601,7 +5601,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>46.46394548675575</v>
+        <v>36.35957662248422</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -5610,7 +5610,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>46.4099945475778</v>
+        <v>36.3065727098323</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -5619,7 +5619,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>46.30517673275784</v>
+        <v>36.20284291101047</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -5628,7 +5628,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>46.20644816777593</v>
+        <v>36.10323948902723</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -5637,7 +5637,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>46.21190913268785</v>
+        <v>36.10775166095189</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -5646,7 +5646,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>46.25059257327513</v>
+        <v>36.14837592137901</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -5655,7 +5655,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>46.38438576130642</v>
+        <v>36.28255650444822</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -5664,7 +5664,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>46.40551474520846</v>
+        <v>36.30335620994434</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -5673,7 +5673,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>46.5158550314319</v>
+        <v>36.41369998882701</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -5682,7 +5682,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>46.42579039798817</v>
+        <v>36.32197003224296</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -5691,7 +5691,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>46.63252166278905</v>
+        <v>36.53031397055924</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -5700,7 +5700,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>46.57758389907946</v>
+        <v>36.47490745503156</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -5709,7 +5709,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>46.65271124574814</v>
+        <v>36.54944630304414</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -5718,7 +5718,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>46.61380371637588</v>
+        <v>36.50908510997968</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -5727,7 +5727,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>46.43010908289468</v>
+        <v>36.3269906683237</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -5736,7 +5736,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>46.20220372234384</v>
+        <v>36.09778272362814</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -5745,7 +5745,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>46.26881093053528</v>
+        <v>36.16484154587749</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -5754,7 +5754,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>46.09615904012455</v>
+        <v>35.99351622252502</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -5763,7 +5763,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>46.07420911131913</v>
+        <v>35.97029505313354</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -5772,7 +5772,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>46.1364223139344</v>
+        <v>36.03334397805075</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -5781,7 +5781,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>46.61868739697884</v>
+        <v>36.51468766704978</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -5790,7 +5790,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>45.78448723285014</v>
+        <v>35.68063167723366</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -5799,7 +5799,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>45.59894169623889</v>
+        <v>35.49519385456752</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -5808,7 +5808,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>45.11888301427616</v>
+        <v>35.01519036200181</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -5817,7 +5817,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>45.38847969295693</v>
+        <v>35.28460419928675</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -5826,7 +5826,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>45.53434205344566</v>
+        <v>35.43075976563107</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -5835,7 +5835,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>45.71030526767194</v>
+        <v>35.60661261539759</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -5844,7 +5844,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>45.82450903772727</v>
+        <v>35.7210346998114</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -5853,7 +5853,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>45.8887343951546</v>
+        <v>35.78515671892833</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -5862,7 +5862,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>45.69439828367276</v>
+        <v>35.59070515579031</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -5871,7 +5871,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>45.77125701584105</v>
+        <v>35.6675643635667</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -5880,7 +5880,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>45.70027114075702</v>
+        <v>35.59657794233416</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -5889,7 +5889,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>45.87054632806467</v>
+        <v>35.76685367579031</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -5898,7 +5898,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>45.91110557629398</v>
+        <v>35.80741292401963</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -5907,7 +5907,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>45.843654655249</v>
+        <v>35.73996200297465</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -5916,7 +5916,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>45.69322382119493</v>
+        <v>35.58953116892057</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -5925,7 +5925,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>45.86317299860158</v>
+        <v>35.75948034632722</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -5934,7 +5934,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>45.63011674176439</v>
+        <v>35.52642408949004</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -5943,7 +5943,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>45.71828760768676</v>
+        <v>35.6145949554124</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -5952,7 +5952,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>45.68819426548593</v>
+        <v>35.58450161321157</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -5961,7 +5961,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>45.65923697141868</v>
+        <v>35.55554431914432</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -5970,7 +5970,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>45.85229932459568</v>
+        <v>35.74860667232132</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -5979,7 +5979,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>45.80197281585658</v>
+        <v>35.69828016358223</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -5988,7 +5988,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>45.80703051839663</v>
+        <v>35.70333786612227</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -5997,7 +5997,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>45.8776383278898</v>
+        <v>35.77394567561544</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -6006,7 +6006,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>45.85023167851586</v>
+        <v>35.74653902624151</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -6015,7 +6015,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>45.95527798504037</v>
+        <v>35.85158533276601</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -6024,7 +6024,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>45.59718096431772</v>
+        <v>35.49348831204336</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -6033,7 +6033,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>45.72562444272057</v>
+        <v>35.62193179044621</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -6042,7 +6042,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>45.7526616638562</v>
+        <v>35.64896901158184</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -6051,7 +6051,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>45.52768219292146</v>
+        <v>35.42398954064711</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -6060,7 +6060,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>45.62013255150248</v>
+        <v>35.51643989922813</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -6069,7 +6069,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>45.42632347489798</v>
+        <v>35.32263082262363</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -6078,7 +6078,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>44.31618739300564</v>
+        <v>34.21249474073129</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -6087,7 +6087,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>44.33166481970914</v>
+        <v>34.22797216743478</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -6096,7 +6096,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>44.321271071666</v>
+        <v>34.21757841939164</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -6105,7 +6105,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>44.64747124672391</v>
+        <v>34.54377859444955</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -6114,7 +6114,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>44.59600822074059</v>
+        <v>34.49231556846623</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -6123,7 +6123,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>44.63820307401855</v>
+        <v>34.53451042174419</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -6132,7 +6132,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>45.98308149556697</v>
+        <v>35.87938884329262</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -6141,7 +6141,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>45.83545749696492</v>
+        <v>35.73176484469057</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -6150,7 +6150,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>45.9092154671233</v>
+        <v>35.80552281484893</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -6159,7 +6159,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>45.95689517362969</v>
+        <v>35.85320252135534</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -6168,7 +6168,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>46.04242549821754</v>
+        <v>35.93873284594318</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -6177,7 +6177,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>45.94270556605481</v>
+        <v>35.83901291378045</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -6186,7 +6186,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>46.08763241578993</v>
+        <v>35.98393976351556</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -6195,7 +6195,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>46.1163127414374</v>
+        <v>36.01262008916304</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -6204,7 +6204,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>46.12604483442823</v>
+        <v>36.02235218215387</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -6213,7 +6213,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>46.09001748008171</v>
+        <v>35.98632482780735</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -6222,7 +6222,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>45.8053169867713</v>
+        <v>35.70162433449694</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -6231,7 +6231,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>45.99929801535663</v>
+        <v>35.89560536308228</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -6240,7 +6240,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>46.06317486199673</v>
+        <v>35.95948220972237</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -6249,7 +6249,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>46.48899534406128</v>
+        <v>36.38530269178693</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -6258,7 +6258,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>46.66594363375971</v>
+        <v>36.56225098148536</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -6267,7 +6267,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>47.14077018168584</v>
+        <v>37.03707752941148</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -6276,7 +6276,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>46.36660191372795</v>
+        <v>36.26290926145359</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -6285,7 +6285,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>45.98038924908724</v>
+        <v>35.87669659681288</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -6294,7 +6294,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>45.6295468546403</v>
+        <v>35.52585420236595</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -6303,7 +6303,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>47.07600009810049</v>
+        <v>36.97230744582614</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -6312,7 +6312,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>47.35185294530731</v>
+        <v>37.24816029303295</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -6321,7 +6321,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>47.27216224343528</v>
+        <v>37.16846959116093</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -6330,7 +6330,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>46.89574025041306</v>
+        <v>36.7920475981387</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -6339,7 +6339,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>46.614933132156</v>
+        <v>36.51124047988165</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -6348,7 +6348,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>46.06324301193084</v>
+        <v>35.95955035965648</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -6357,7 +6357,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>45.46350076730628</v>
+        <v>35.35980811503192</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -6366,7 +6366,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>46.19244312975876</v>
+        <v>36.08875047748441</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -6375,7 +6375,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>46.55394664956356</v>
+        <v>36.45025399728921</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -6384,7 +6384,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>46.77315155537688</v>
+        <v>36.66945890310253</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -6393,7 +6393,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>46.79041485634207</v>
+        <v>36.68672220406771</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -6402,7 +6402,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>46.87558559908173</v>
+        <v>36.77189294680737</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -6411,7 +6411,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>46.84929941422273</v>
+        <v>36.74560676194837</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -6420,7 +6420,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>46.8096520875492</v>
+        <v>36.70595943527485</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -6429,7 +6429,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>46.8984873443985</v>
+        <v>36.79479469212415</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -6438,7 +6438,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>46.90087311931878</v>
+        <v>36.79718046704443</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -6447,7 +6447,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>46.83426633033678</v>
+        <v>36.73057367806243</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -6456,7 +6456,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>46.62043143836391</v>
+        <v>36.51673878608955</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -6465,7 +6465,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>46.70232685845938</v>
+        <v>36.59863420618503</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -6474,7 +6474,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>46.62761306559446</v>
+        <v>36.52392041332011</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -6483,7 +6483,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>46.64218686234503</v>
+        <v>36.53849421007067</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -6492,7 +6492,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>46.61122827088988</v>
+        <v>36.50753561861553</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -6501,7 +6501,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>46.64953247899797</v>
+        <v>36.54583982672361</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -6510,7 +6510,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>46.58704387479345</v>
+        <v>36.4833512225191</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -6519,7 +6519,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>46.68490676979025</v>
+        <v>36.58121411751589</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -6528,7 +6528,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>46.59837263157685</v>
+        <v>36.4946799793025</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -6537,7 +6537,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>46.65724857165945</v>
+        <v>36.55355591938509</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -6546,7 +6546,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>46.62644871993218</v>
+        <v>36.52275606765783</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -6555,7 +6555,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>46.66670250258483</v>
+        <v>36.56300985031048</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -6564,7 +6564,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>46.72800068636734</v>
+        <v>36.62430803409298</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -6573,7 +6573,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>46.74113638764935</v>
+        <v>36.63744373537499</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -6582,7 +6582,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>46.6245999440595</v>
+        <v>36.52090729178514</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -6591,7 +6591,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>46.52533961126699</v>
+        <v>36.42164695899264</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -6600,7 +6600,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>46.45715703310934</v>
+        <v>36.35346438083499</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -6609,7 +6609,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>46.46851130788308</v>
+        <v>36.36481865560873</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -6618,7 +6618,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>46.41866274824592</v>
+        <v>36.31497009597157</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -6627,7 +6627,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>46.42290673401017</v>
+        <v>36.31921408173582</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -6636,7 +6636,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>46.47547954917587</v>
+        <v>36.37178689690152</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -6645,7 +6645,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>46.44150342834482</v>
+        <v>36.33780992773335</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -6654,7 +6654,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>46.43938194631653</v>
+        <v>36.33568929404217</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -6663,7 +6663,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>46.42977392031959</v>
+        <v>36.32608064957059</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -6672,7 +6672,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>46.61398597707226</v>
+        <v>36.51026089594097</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -6681,7 +6681,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>46.71392306001222</v>
+        <v>36.61027134614964</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -6690,7 +6690,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>46.64427158271356</v>
+        <v>36.54055907287128</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -6699,7 +6699,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>46.64142186957156</v>
+        <v>36.53766017977402</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -6708,7 +6708,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>46.62886727050002</v>
+        <v>36.5252034620691</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -6717,7 +6717,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>46.62439446066975</v>
+        <v>36.52074574249639</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -6726,7 +6726,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>46.41473033799655</v>
+        <v>36.31121870357484</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -6735,7 +6735,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>46.40952249091968</v>
+        <v>36.30613419654708</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -6744,7 +6744,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>46.42064880059824</v>
+        <v>36.31725966489547</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -6753,7 +6753,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>46.51592209447776</v>
+        <v>36.41250257319091</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -6762,7 +6762,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>46.4982027464827</v>
+        <v>36.39499917587355</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -6771,7 +6771,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>46.57033484772911</v>
+        <v>36.46731779403608</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -6780,7 +6780,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>46.06790280938179</v>
+        <v>35.96443348809771</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -6789,7 +6789,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>46.43702347061924</v>
+        <v>36.3329114577684</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -6798,7 +6798,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>46.48725138033026</v>
+        <v>36.38358008288008</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -6807,7 +6807,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>46.19715827717646</v>
+        <v>36.09387789111751</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -6816,7 +6816,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>46.33266126798483</v>
+        <v>36.2287925889872</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -6825,7 +6825,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>46.41103663652532</v>
+        <v>36.30726888653833</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -6834,7 +6834,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>46.38741258206187</v>
+        <v>36.28299026890669</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -6843,7 +6843,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>46.28310776246802</v>
+        <v>36.18046553280123</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -6852,7 +6852,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>46.40373603510451</v>
+        <v>36.29943605904418</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -6861,7 +6861,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>46.46947469743009</v>
+        <v>36.3657399495453</v>
       </c>
     </row>
     <row r="145">
@@ -6869,7 +6869,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>46.34953602417481</v>
+        <v>36.24691716412175</v>
       </c>
     </row>
     <row r="146">
@@ -6916,7 +6916,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-51.39845627135572</v>
+        <v>-41.29461240182155</v>
       </c>
     </row>
     <row r="3">
@@ -6924,7 +6924,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-51.51434561904853</v>
+        <v>-41.40965595414535</v>
       </c>
     </row>
     <row r="4">
@@ -6932,7 +6932,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-51.35215854392409</v>
+        <v>-41.24846602620579</v>
       </c>
     </row>
     <row r="5">
@@ -6940,7 +6940,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-51.06810856754716</v>
+        <v>-40.96462062457393</v>
       </c>
     </row>
     <row r="6">
@@ -6948,7 +6948,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-50.71109439059052</v>
+        <v>-40.60684483247428</v>
       </c>
     </row>
     <row r="7">
@@ -6956,7 +6956,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-51.22014695797225</v>
+        <v>-41.11645760093084</v>
       </c>
     </row>
     <row r="8">
@@ -6964,7 +6964,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-51.1861506994125</v>
+        <v>-41.08232281770077</v>
       </c>
     </row>
     <row r="9">
@@ -6972,7 +6972,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-51.30175465756982</v>
+        <v>-41.1975688616301</v>
       </c>
     </row>
     <row r="10">
@@ -6980,7 +6980,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-51.28420701732389</v>
+        <v>-41.17959642090192</v>
       </c>
     </row>
     <row r="11">
@@ -6988,7 +6988,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-51.30251357264272</v>
+        <v>-41.19832976453375</v>
       </c>
     </row>
     <row r="12">
@@ -6996,7 +6996,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-51.30759001807237</v>
+        <v>-41.20283684763714</v>
       </c>
     </row>
     <row r="13">
@@ -7004,7 +7004,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-50.47094492768178</v>
+        <v>-40.367975707893</v>
       </c>
     </row>
     <row r="14">
@@ -7012,7 +7012,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-51.23601836713546</v>
+        <v>-41.13296078796056</v>
       </c>
     </row>
     <row r="15">
@@ -7020,7 +7020,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-51.27457469178881</v>
+        <v>-41.17047272867352</v>
       </c>
     </row>
     <row r="16">
@@ -7028,7 +7028,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-50.7592700506107</v>
+        <v>-40.65638082245339</v>
       </c>
     </row>
     <row r="17">
@@ -7036,7 +7036,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-50.69496587661838</v>
+        <v>-40.59162563280195</v>
       </c>
     </row>
     <row r="18">
@@ -7044,7 +7044,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-51.28942015593022</v>
+        <v>-41.1868366511284</v>
       </c>
     </row>
     <row r="19">
@@ -7052,7 +7052,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-52.03160027070901</v>
+        <v>-41.92792108951675</v>
       </c>
     </row>
     <row r="20">
@@ -7060,7 +7060,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-51.67535404523491</v>
+        <v>-41.57276461020733</v>
       </c>
     </row>
     <row r="21">
@@ -7068,7 +7068,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-51.51107253015866</v>
+        <v>-41.40680695250459</v>
       </c>
     </row>
     <row r="22">
@@ -7076,7 +7076,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-50.58523462819095</v>
+        <v>-40.48197408488985</v>
       </c>
     </row>
     <row r="23">
@@ -7084,7 +7084,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-50.6625228634465</v>
+        <v>-40.55930387003539</v>
       </c>
     </row>
     <row r="24">
@@ -7092,7 +7092,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-50.35182583370636</v>
+        <v>-40.24812253836048</v>
       </c>
     </row>
     <row r="25">
@@ -7100,7 +7100,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-51.6610824240549</v>
+        <v>-41.55692953183397</v>
       </c>
     </row>
     <row r="26">
@@ -7108,7 +7108,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-50.56020455870911</v>
+        <v>-40.45695290777796</v>
       </c>
     </row>
     <row r="27">
@@ -7116,7 +7116,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-50.81941347866181</v>
+        <v>-40.71543935816549</v>
       </c>
     </row>
     <row r="28">
@@ -7124,7 +7124,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-51.57178856442339</v>
+        <v>-41.4681270217872</v>
       </c>
     </row>
     <row r="29">
@@ -7132,7 +7132,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-51.57156551615448</v>
+        <v>-41.46788899048923</v>
       </c>
     </row>
     <row r="30">
@@ -7140,7 +7140,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-51.83570636769221</v>
+        <v>-41.73201371541786</v>
       </c>
     </row>
     <row r="31">
@@ -7148,7 +7148,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-52.01310937762647</v>
+        <v>-41.90941672535212</v>
       </c>
     </row>
     <row r="32">
@@ -7156,7 +7156,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-51.81344937712539</v>
+        <v>-41.70975672485103</v>
       </c>
     </row>
     <row r="33">
@@ -7164,7 +7164,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-51.78748403628676</v>
+        <v>-41.6837506974779</v>
       </c>
     </row>
     <row r="34">
@@ -7172,7 +7172,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-51.51301318199548</v>
+        <v>-41.40932102338988</v>
       </c>
     </row>
     <row r="35">
@@ -7180,7 +7180,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-51.62679933527135</v>
+        <v>-41.52308578081998</v>
       </c>
     </row>
     <row r="36">
@@ -7188,7 +7188,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-51.75674244381343</v>
+        <v>-41.65304979153908</v>
       </c>
     </row>
     <row r="37">
@@ -7196,7 +7196,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-51.71310001371105</v>
+        <v>-41.60940736143669</v>
       </c>
     </row>
     <row r="38">
@@ -7204,7 +7204,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-51.71309676092553</v>
+        <v>-41.60940410865118</v>
       </c>
     </row>
     <row r="39">
@@ -7212,7 +7212,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-52.01129870662808</v>
+        <v>-41.90760605435374</v>
       </c>
     </row>
     <row r="40">
@@ -7220,7 +7220,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-52.15176437457352</v>
+        <v>-42.04807172229916</v>
       </c>
     </row>
     <row r="41">
@@ -7228,7 +7228,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-52.1207770273836</v>
+        <v>-42.01708437510923</v>
       </c>
     </row>
     <row r="42">
@@ -7236,7 +7236,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-52.08900099980615</v>
+        <v>-41.98530834753178</v>
       </c>
     </row>
     <row r="43">
@@ -7244,7 +7244,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-52.33888854980994</v>
+        <v>-42.23519589753558</v>
       </c>
     </row>
     <row r="44">
@@ -7252,7 +7252,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-52.17641718858822</v>
+        <v>-42.07272453631387</v>
       </c>
     </row>
     <row r="45">
@@ -7260,7 +7260,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-52.26243949796793</v>
+        <v>-42.15874684569357</v>
       </c>
     </row>
     <row r="46">
@@ -7268,7 +7268,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-51.63327805832836</v>
+        <v>-41.52958540605401</v>
       </c>
     </row>
     <row r="47">
@@ -7276,7 +7276,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-51.9535762484353</v>
+        <v>-41.84988359616095</v>
       </c>
     </row>
     <row r="48">
@@ -7284,7 +7284,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-52.16320973033628</v>
+        <v>-42.05951707806192</v>
       </c>
     </row>
     <row r="49">
@@ -7292,7 +7292,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-52.31068533322548</v>
+        <v>-42.20699268095112</v>
       </c>
     </row>
     <row r="50">
@@ -7300,7 +7300,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-52.29649603397875</v>
+        <v>-42.19280338170439</v>
       </c>
     </row>
     <row r="51">
@@ -7308,7 +7308,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-51.52946503930255</v>
+        <v>-41.4257723870282</v>
       </c>
     </row>
     <row r="52">
@@ -7316,7 +7316,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-51.96291749705482</v>
+        <v>-41.85922484478046</v>
       </c>
     </row>
     <row r="53">
@@ -7324,7 +7324,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-51.47000152675706</v>
+        <v>-41.36630887448271</v>
       </c>
     </row>
     <row r="54">
@@ -7332,7 +7332,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-51.03522052732183</v>
+        <v>-40.93152787504748</v>
       </c>
     </row>
     <row r="55">
@@ -7340,7 +7340,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-51.03614798432218</v>
+        <v>-40.93245533204782</v>
       </c>
     </row>
     <row r="56">
@@ -7348,7 +7348,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-51.02489689555924</v>
+        <v>-40.92120424328488</v>
       </c>
     </row>
     <row r="57">
@@ -7356,7 +7356,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-51.1918110792209</v>
+        <v>-41.08811842694655</v>
       </c>
     </row>
     <row r="58">
@@ -7364,7 +7364,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-51.13913596211964</v>
+        <v>-41.03544330984528</v>
       </c>
     </row>
     <row r="59">
@@ -7372,7 +7372,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-51.11385858792232</v>
+        <v>-41.01016593564797</v>
       </c>
     </row>
     <row r="60">
@@ -7380,7 +7380,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-51.02646889780988</v>
+        <v>-40.92277624553552</v>
       </c>
     </row>
     <row r="61">
@@ -7388,7 +7388,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-51.03597308414251</v>
+        <v>-40.93228043186815</v>
       </c>
     </row>
     <row r="62">
@@ -7396,7 +7396,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-50.9888359638006</v>
+        <v>-40.88514331152625</v>
       </c>
     </row>
     <row r="63">
@@ -7404,7 +7404,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-50.94315766509589</v>
+        <v>-40.83946501282153</v>
       </c>
     </row>
     <row r="64">
@@ -7412,7 +7412,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-50.93627364913699</v>
+        <v>-40.83258099686264</v>
       </c>
     </row>
     <row r="65">
@@ -7420,7 +7420,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-50.94997512965902</v>
+        <v>-40.84628247738466</v>
       </c>
     </row>
     <row r="66">
@@ -7428,7 +7428,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-50.98143314937621</v>
+        <v>-40.87774049710186</v>
       </c>
     </row>
     <row r="67">
@@ -7436,7 +7436,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-50.97481679847643</v>
+        <v>-40.87112414620206</v>
       </c>
     </row>
     <row r="68">
@@ -7444,7 +7444,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-51.05321599887335</v>
+        <v>-40.94952334659899</v>
       </c>
     </row>
     <row r="69">
@@ -7452,7 +7452,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-51.09256284007364</v>
+        <v>-40.98887018779929</v>
       </c>
     </row>
     <row r="70">
@@ -7460,7 +7460,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-50.9347751417594</v>
+        <v>-40.83108248948506</v>
       </c>
     </row>
     <row r="71">
@@ -7468,7 +7468,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-50.95525140189576</v>
+        <v>-40.85155874962141</v>
       </c>
     </row>
     <row r="72">
@@ -7476,7 +7476,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-51.08781812218392</v>
+        <v>-40.98412546990957</v>
       </c>
     </row>
     <row r="73">
@@ -7484,7 +7484,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-51.8730321856202</v>
+        <v>-41.76933953334584</v>
       </c>
     </row>
     <row r="74">
@@ -7492,7 +7492,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-51.60659700391881</v>
+        <v>-41.50290435164445</v>
       </c>
     </row>
     <row r="75">
@@ -7500,7 +7500,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-51.54729842034472</v>
+        <v>-41.44360576807036</v>
       </c>
     </row>
     <row r="76">
@@ -7508,7 +7508,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-51.04389547695222</v>
+        <v>-40.94020282467787</v>
       </c>
     </row>
     <row r="77">
@@ -7516,7 +7516,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-50.61202578847661</v>
+        <v>-40.50833313620227</v>
       </c>
     </row>
     <row r="78">
@@ -7524,7 +7524,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-50.3096734539687</v>
+        <v>-40.20598080169434</v>
       </c>
     </row>
     <row r="79">
@@ -7532,7 +7532,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-51.58009530206124</v>
+        <v>-41.47640264978688</v>
       </c>
     </row>
     <row r="80">
@@ -7540,7 +7540,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-50.69398381998252</v>
+        <v>-40.59029116770817</v>
       </c>
     </row>
     <row r="81">
@@ -7548,7 +7548,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-51.40822632239176</v>
+        <v>-41.30453367011739</v>
       </c>
     </row>
     <row r="82">
@@ -7556,7 +7556,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-51.43502448791274</v>
+        <v>-41.33133183563838</v>
       </c>
     </row>
     <row r="83">
@@ -7564,7 +7564,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-50.07448632884755</v>
+        <v>-39.97079367657319</v>
       </c>
     </row>
     <row r="84">
@@ -7572,7 +7572,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-50.1086552984937</v>
+        <v>-40.00496264621935</v>
       </c>
     </row>
     <row r="85">
@@ -7580,7 +7580,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-50.10168072300668</v>
+        <v>-39.99798807073233</v>
       </c>
     </row>
     <row r="86">
@@ -7588,7 +7588,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-50.07582993758686</v>
+        <v>-39.97213728531251</v>
       </c>
     </row>
     <row r="87">
@@ -7596,7 +7596,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-50.23193770000097</v>
+        <v>-40.12824504772661</v>
       </c>
     </row>
     <row r="88">
@@ -7604,7 +7604,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-51.23330789453965</v>
+        <v>-41.1296152422653</v>
       </c>
     </row>
     <row r="89">
@@ -7612,7 +7612,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-51.44411684268392</v>
+        <v>-41.34042419040956</v>
       </c>
     </row>
     <row r="90">
@@ -7620,7 +7620,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-51.26275905674038</v>
+        <v>-41.15906640446602</v>
       </c>
     </row>
     <row r="91">
@@ -7628,7 +7628,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-51.35949826251275</v>
+        <v>-41.2558056102384</v>
       </c>
     </row>
     <row r="92">
@@ -7636,7 +7636,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-51.25833966371299</v>
+        <v>-41.15464701143863</v>
       </c>
     </row>
     <row r="93">
@@ -7644,7 +7644,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-51.21823762033247</v>
+        <v>-41.11454496805812</v>
       </c>
     </row>
     <row r="94">
@@ -7652,7 +7652,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-51.36688069517619</v>
+        <v>-41.26318804290183</v>
       </c>
     </row>
     <row r="95">
@@ -7660,7 +7660,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-51.2234574026438</v>
+        <v>-41.11976475036946</v>
       </c>
     </row>
     <row r="96">
@@ -7668,7 +7668,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-51.06925536560116</v>
+        <v>-40.9655627133268</v>
       </c>
     </row>
     <row r="97">
@@ -7676,7 +7676,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-51.28399149857177</v>
+        <v>-41.18029884629741</v>
       </c>
     </row>
     <row r="98">
@@ -7684,7 +7684,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-51.22579925597763</v>
+        <v>-41.12210660370328</v>
       </c>
     </row>
     <row r="99">
@@ -7692,7 +7692,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-51.30656820047188</v>
+        <v>-41.20287554819753</v>
       </c>
     </row>
     <row r="100">
@@ -7700,7 +7700,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-51.24226505571354</v>
+        <v>-41.13857240343918</v>
       </c>
     </row>
     <row r="101">
@@ -7708,7 +7708,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-51.33241500752915</v>
+        <v>-41.2287223552548</v>
       </c>
     </row>
     <row r="102">
@@ -7716,7 +7716,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-51.30152262699388</v>
+        <v>-41.19782997471953</v>
       </c>
     </row>
     <row r="103">
@@ -7724,7 +7724,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-51.24384099716568</v>
+        <v>-41.14014834489133</v>
       </c>
     </row>
     <row r="104">
@@ -7732,7 +7732,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-51.25295386548781</v>
+        <v>-41.14926121321345</v>
       </c>
     </row>
     <row r="105">
@@ -7740,7 +7740,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-51.2347721009272</v>
+        <v>-41.13107944865285</v>
       </c>
     </row>
     <row r="106">
@@ -7748,7 +7748,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-51.30068380944552</v>
+        <v>-41.19699115717117</v>
       </c>
     </row>
     <row r="107">
@@ -7756,7 +7756,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-51.35686744575182</v>
+        <v>-41.25317479347746</v>
       </c>
     </row>
     <row r="108">
@@ -7764,7 +7764,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-51.30456189109331</v>
+        <v>-41.20086923881895</v>
       </c>
     </row>
     <row r="109">
@@ -7772,7 +7772,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-51.31579482399702</v>
+        <v>-41.21210217172267</v>
       </c>
     </row>
     <row r="110">
@@ -7780,7 +7780,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-51.33072246831955</v>
+        <v>-41.22702981604519</v>
       </c>
     </row>
     <row r="111">
@@ -7788,7 +7788,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-51.34967196967008</v>
+        <v>-41.24597931739574</v>
       </c>
     </row>
     <row r="112">
@@ -7796,7 +7796,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-51.31407776299742</v>
+        <v>-41.21038511072307</v>
       </c>
     </row>
     <row r="113">
@@ -7804,7 +7804,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-51.41883573778364</v>
+        <v>-41.31514308550929</v>
       </c>
     </row>
     <row r="114">
@@ -7812,7 +7812,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-51.60699073441065</v>
+        <v>-41.5032980821363</v>
       </c>
     </row>
     <row r="115">
@@ -7820,7 +7820,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-51.6511117115713</v>
+        <v>-41.54741905929694</v>
       </c>
     </row>
     <row r="116">
@@ -7828,7 +7828,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-51.53139096201085</v>
+        <v>-41.4276983097365</v>
       </c>
     </row>
     <row r="117">
@@ -7836,7 +7836,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-51.65176796340394</v>
+        <v>-41.54807531112958</v>
       </c>
     </row>
     <row r="118">
@@ -7844,7 +7844,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-51.78373467449905</v>
+        <v>-41.6800420222247</v>
       </c>
     </row>
     <row r="119">
@@ -7852,7 +7852,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-51.51556747363141</v>
+        <v>-41.41187482135705</v>
       </c>
     </row>
     <row r="120">
@@ -7860,7 +7860,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-51.94723099582895</v>
+        <v>-41.84353092022238</v>
       </c>
     </row>
     <row r="121">
@@ -7868,7 +7868,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-51.63238205490879</v>
+        <v>-41.52868940263444</v>
       </c>
     </row>
     <row r="122">
@@ -7876,7 +7876,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-51.79116709364809</v>
+        <v>-41.68747444137374</v>
       </c>
     </row>
     <row r="123">
@@ -7884,7 +7884,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-51.8491751128259</v>
+        <v>-41.7451295463678</v>
       </c>
     </row>
     <row r="124">
@@ -7892,7 +7892,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-51.61281560227211</v>
+        <v>-41.50911329127839</v>
       </c>
     </row>
     <row r="125">
@@ -7900,7 +7900,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-51.86533834863937</v>
+        <v>-41.76164583713214</v>
       </c>
     </row>
     <row r="126">
@@ -7908,7 +7908,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-51.59255147653425</v>
+        <v>-41.48885888605254</v>
       </c>
     </row>
     <row r="127">
@@ -7916,7 +7916,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-51.66236966122585</v>
+        <v>-41.55869076935965</v>
       </c>
     </row>
     <row r="128">
@@ -7924,7 +7924,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-51.7185719597676</v>
+        <v>-41.61489597631856</v>
       </c>
     </row>
     <row r="129">
@@ -7932,7 +7932,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-51.76553057517468</v>
+        <v>-41.66177157274917</v>
       </c>
     </row>
     <row r="130">
@@ -7940,7 +7940,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-51.76896908873282</v>
+        <v>-41.66527643645847</v>
       </c>
     </row>
     <row r="131">
@@ -7948,7 +7948,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-51.74519205410974</v>
+        <v>-41.64150442513841</v>
       </c>
     </row>
     <row r="132">
@@ -7956,7 +7956,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-51.78789901625109</v>
+        <v>-41.68385686251005</v>
       </c>
     </row>
     <row r="133">
@@ -7964,7 +7964,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-51.67420437636268</v>
+        <v>-41.56998527368103</v>
       </c>
     </row>
     <row r="134">
@@ -7972,7 +7972,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-51.71927353785552</v>
+        <v>-41.61519990143888</v>
       </c>
     </row>
     <row r="135">
@@ -7980,7 +7980,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-51.60663439736288</v>
+        <v>-41.50264671068771</v>
       </c>
     </row>
     <row r="136">
@@ -7988,7 +7988,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-51.90201431606548</v>
+        <v>-41.79738839639256</v>
       </c>
     </row>
     <row r="137">
@@ -7996,7 +7996,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-51.36769305924661</v>
+        <v>-41.26347337296073</v>
       </c>
     </row>
     <row r="138">
@@ -8004,7 +8004,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-51.39065660452615</v>
+        <v>-41.28608836825686</v>
       </c>
     </row>
     <row r="139">
@@ -8012,7 +8012,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-51.66005561847965</v>
+        <v>-41.5563629662053</v>
       </c>
     </row>
     <row r="140">
@@ -8020,7 +8020,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-51.41159654021286</v>
+        <v>-41.30702524226214</v>
       </c>
     </row>
     <row r="141">
@@ -8028,7 +8028,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-51.40976658397284</v>
+        <v>-41.30555988503015</v>
       </c>
     </row>
     <row r="142">
@@ -8036,7 +8036,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-50.49920390982254</v>
+        <v>-40.39386958997864</v>
       </c>
     </row>
     <row r="143">
@@ -8044,7 +8044,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-50.75505981525302</v>
+        <v>-40.65061163939454</v>
       </c>
     </row>
     <row r="144">
@@ -8052,7 +8052,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-51.16664922033642</v>
+        <v>-41.06278987180529</v>
       </c>
     </row>
     <row r="145">
@@ -8060,7 +8060,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-51.57420461696864</v>
+        <v>-41.47100252761646</v>
       </c>
     </row>
     <row r="146">

--- a/testcases/timeseries/EVDay01_mix10.xlsx
+++ b/testcases/timeseries/EVDay01_mix10.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-19320" yWindow="2610" windowWidth="19440" windowHeight="15000" tabRatio="691" firstSheet="5" activeTab="12" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="12" autoFilterDateGrouping="1" firstSheet="5" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="691" visibility="visible" windowHeight="15000" windowWidth="19440" xWindow="-19320" yWindow="2610"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bus" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="demand" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="branch" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="transformer" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="shunt" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="generator" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="genseries" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="genmin" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="baseMVA" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timeseries" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EVs" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EVsTravelDiary" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timeseriesGen" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="bus" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="demand" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="branch" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="transformer" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="shunt" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="generator" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="genseries" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="genmin" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="baseMVA" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="timeseries" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="EVs" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="EVsTravelDiary" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="timeseriesGen" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -28,8 +28,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt formatCode="0.0" numFmtId="164"/>
+    <numFmt formatCode="0.000" numFmtId="165"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -125,33 +125,101 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -531,7 +599,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -1714,7 +1782,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -1732,7 +1800,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="12.85546875" customWidth="1" min="5" max="5"/>
+    <col customWidth="1" max="5" min="5" width="12.85546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1800,7 +1868,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1815,7 +1883,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1837,7 +1905,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -1855,7 +1923,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="15.85546875" customWidth="1" min="1" max="1"/>
+    <col customWidth="1" max="1" min="1" width="15.85546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1887,23 +1955,37 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2014008306</v>
+        <v>2012001353</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
+        <v>120</v>
+      </c>
+      <c r="D2" t="n">
+        <v>40.88104079566241</v>
+      </c>
+      <c r="E2" t="n">
+        <v>59.45733332899574</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="n">
+        <v>2012001353</v>
+      </c>
+      <c r="B3" t="n">
+        <v>142</v>
+      </c>
+      <c r="C3" t="n">
         <v>143</v>
       </c>
-      <c r="D2" t="n">
-        <v>23.22661515398081</v>
-      </c>
-      <c r="E2" t="n">
-        <v>23.99999999824407</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="n"/>
+      <c r="D3" t="n">
+        <v>34.50805439566241</v>
+      </c>
+      <c r="E3" t="n">
+        <v>35.59338772899574</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n"/>
@@ -1984,7 +2066,7 @@
       <c r="A29" s="7" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -2002,8 +2084,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="11.7109375" customWidth="1" min="2" max="2"/>
-    <col width="17.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col customWidth="1" max="2" min="2" width="11.7109375"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="17.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4904,7 +4986,7 @@
       <c r="D289" s="4" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -4979,7 +5061,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -5065,7 +5147,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -5176,7 +5258,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -5222,7 +5304,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -5541,7 +5623,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -5559,10 +5641,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="18.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="8.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="15.85546875" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="15.85546875" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="18.28515625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="8.42578125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="15.85546875"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="15.85546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5583,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>36.18777006027825</v>
+        <v>24.93624130471241</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -5592,7 +5674,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>36.19347695326518</v>
+        <v>24.94166285304999</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -5601,7 +5683,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>36.35957662248422</v>
+        <v>25.09945753880807</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -5610,7 +5692,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>36.3065727098323</v>
+        <v>25.04910382178875</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -5619,7 +5701,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>36.20284291101047</v>
+        <v>24.95056051290801</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -5628,7 +5710,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>36.10323948902723</v>
+        <v>24.85593726202394</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -5637,7 +5719,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>36.10775166095189</v>
+        <v>24.86022382535236</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -5646,7 +5728,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>36.14837592137901</v>
+        <v>24.89881687275813</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -5655,7 +5737,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>36.28255650444822</v>
+        <v>25.02628842667387</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -5664,7 +5746,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>36.30335620994434</v>
+        <v>25.04604814689519</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -5673,7 +5755,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>36.41369998882701</v>
+        <v>25.15087473683372</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -5682,7 +5764,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>36.32197003224296</v>
+        <v>25.06373127807888</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -5691,7 +5773,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>36.53031397055924</v>
+        <v>25.26165801947934</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -5700,7 +5782,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>36.47490745503156</v>
+        <v>25.20902182972805</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -5709,7 +5791,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>36.54944630304414</v>
+        <v>25.27983373534</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -5718,7 +5800,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>36.50908510997968</v>
+        <v>25.24149060192876</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -5727,7 +5809,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>36.3269906683237</v>
+        <v>25.06850088235558</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -5736,7 +5818,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>36.09778272362814</v>
+        <v>24.8507533348948</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -5745,7 +5827,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>36.16484154587749</v>
+        <v>24.91445921603168</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -5754,7 +5836,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>35.99351622252502</v>
+        <v>24.75170015884684</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -5763,7 +5845,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>35.97029505313354</v>
+        <v>24.72964004792493</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -5772,7 +5854,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>36.03334397805075</v>
+        <v>24.78953652659628</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -5781,7 +5863,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>36.51468766704978</v>
+        <v>25.24681303114536</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -5790,7 +5872,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>35.68063167723366</v>
+        <v>24.45445984082004</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -5799,7 +5881,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>35.49519385456752</v>
+        <v>24.2782939092872</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -5808,7 +5890,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>35.01519036200181</v>
+        <v>23.82229059134979</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -5817,7 +5899,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>35.28460419928675</v>
+        <v>24.07823373677047</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -5826,7 +5908,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>35.43075976563107</v>
+        <v>24.21708152479759</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -5835,7 +5917,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>35.60661261539759</v>
+        <v>24.38414173207578</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -5844,7 +5926,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>35.7210346998114</v>
+        <v>24.4928427122689</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -5853,7 +5935,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>35.78515671892833</v>
+        <v>24.55375863042998</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -5862,7 +5944,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>35.59070515579031</v>
+        <v>24.36902964544886</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -5871,7 +5953,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>35.6675643635667</v>
+        <v>24.44204589283643</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -5880,7 +5962,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>35.59657794233416</v>
+        <v>24.37460879266552</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -5889,7 +5971,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>35.76685367579031</v>
+        <v>24.53637073944886</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -5898,7 +5980,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>35.80741292401963</v>
+        <v>24.57490202526672</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -5907,7 +5989,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>35.73996200297465</v>
+        <v>24.51082365027398</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -5916,7 +5998,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>35.58953116892057</v>
+        <v>24.36791435792262</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -5925,7 +6007,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>35.75948034632722</v>
+        <v>24.52936607645893</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -5934,7 +6016,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>35.52642408949004</v>
+        <v>24.3079626324636</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -5943,7 +6025,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>35.6145949554124</v>
+        <v>24.39172495508985</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -5952,7 +6034,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>35.58450161321157</v>
+        <v>24.36313627999906</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -5961,7 +6043,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>35.55554431914432</v>
+        <v>24.33562685063518</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -5970,7 +6052,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>35.74860667232132</v>
+        <v>24.51903608615332</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -5979,7 +6061,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>35.69828016358223</v>
+        <v>24.47122590285118</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -5988,7 +6070,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>35.70333786612227</v>
+        <v>24.47603072026423</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -5997,7 +6079,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>35.77394567561544</v>
+        <v>24.54310813928274</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -6006,7 +6088,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>35.74653902624151</v>
+        <v>24.5170718223775</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -6015,7 +6097,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>35.85158533276601</v>
+        <v>24.61686581357577</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -6024,7 +6106,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>35.49348831204336</v>
+        <v>24.27667364388926</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -6033,7 +6115,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>35.62193179044621</v>
+        <v>24.39869494837198</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -6042,7 +6124,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>35.64896901158184</v>
+        <v>24.42438030845081</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -6051,7 +6133,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>35.42398954064711</v>
+        <v>24.21064981106282</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -6060,7 +6142,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>35.51643989922813</v>
+        <v>24.29847765171479</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -6069,7 +6151,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>35.32263082262363</v>
+        <v>24.11435902894052</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -6078,7 +6160,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>34.21249474073129</v>
+        <v>23.05972975114279</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -6087,7 +6169,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>34.22797216743478</v>
+        <v>23.07443330651111</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -6096,7 +6178,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>34.21757841939164</v>
+        <v>23.06455924587013</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -6105,7 +6187,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>34.54377859444955</v>
+        <v>23.37444941217514</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -6114,7 +6196,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>34.49231556846623</v>
+        <v>23.32555953749099</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -6123,7 +6205,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>34.53451042174419</v>
+        <v>23.36564464810504</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -6132,7 +6214,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>35.87938884329262</v>
+        <v>24.64327914857605</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -6141,7 +6223,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>35.73176484469057</v>
+        <v>24.50303634990411</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -6150,7 +6232,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>35.80552281484893</v>
+        <v>24.57310642155456</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -6159,7 +6241,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>35.85320252135534</v>
+        <v>24.61840214273564</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -6168,7 +6250,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>35.93873284594318</v>
+        <v>24.69965595109409</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -6177,7 +6259,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>35.83901291378045</v>
+        <v>24.60492201553949</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -6186,7 +6268,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>35.98393976351556</v>
+        <v>24.74260252278785</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -6195,7 +6277,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>36.01262008916304</v>
+        <v>24.76984883215295</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -6204,7 +6286,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>36.02235218215387</v>
+        <v>24.77909432049425</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -6213,7 +6295,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>35.98632482780735</v>
+        <v>24.74486833386505</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -6222,7 +6304,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>35.70162433449694</v>
+        <v>24.47440286522016</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -6231,7 +6313,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>35.89560536308228</v>
+        <v>24.65868484237623</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -6240,7 +6322,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>35.95948220972237</v>
+        <v>24.71936784668432</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -6249,7 +6331,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>36.38530269178693</v>
+        <v>25.12389730464565</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -6258,7 +6340,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>36.56225098148536</v>
+        <v>25.29199817985916</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -6267,7 +6349,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>37.03707752941148</v>
+        <v>25.74308340038898</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -6276,7 +6358,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>36.26290926145359</v>
+        <v>25.00762354582898</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -6285,7 +6367,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>35.87669659681288</v>
+        <v>24.64072151442031</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -6294,7 +6376,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>35.52585420236595</v>
+        <v>24.30742123969572</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -6303,7 +6385,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>36.97230744582614</v>
+        <v>25.6815518209829</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -6312,7 +6394,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>37.24816029303295</v>
+        <v>25.94361202582937</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -6321,7 +6403,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>37.16846959116093</v>
+        <v>25.86790585905095</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -6330,7 +6412,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>36.7920475981387</v>
+        <v>25.51030496567984</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -6339,7 +6421,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>36.51124047988165</v>
+        <v>25.24353820333563</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -6348,7 +6430,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>35.95955035965648</v>
+        <v>24.71943258912173</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -6357,7 +6439,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>35.35980811503192</v>
+        <v>24.14967745672839</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -6366,7 +6448,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>36.08875047748441</v>
+        <v>24.84217270105826</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -6375,7 +6457,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>36.45025399728921</v>
+        <v>25.18560104487281</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -6384,7 +6466,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>36.66945890310253</v>
+        <v>25.39384570539548</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -6393,7 +6475,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>36.68672220406771</v>
+        <v>25.4102458413124</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -6402,7 +6484,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>36.77189294680737</v>
+        <v>25.49115804691507</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -6411,7 +6493,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>36.74560676194837</v>
+        <v>25.46618617129902</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -6420,7 +6502,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>36.70595943527485</v>
+        <v>25.42852121095917</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -6429,7 +6511,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>36.79479469212415</v>
+        <v>25.51291470496601</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -6438,7 +6520,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>36.79718046704443</v>
+        <v>25.51518119114027</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -6447,7 +6529,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>36.73057367806243</v>
+        <v>25.45190474160737</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -6456,7 +6538,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>36.51673878608955</v>
+        <v>25.24876159423314</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -6465,7 +6547,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>36.59863420618503</v>
+        <v>25.32656224332384</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -6474,7 +6556,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>36.52392041332011</v>
+        <v>25.25558414010217</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -6483,7 +6565,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>36.53849421007067</v>
+        <v>25.2694292470152</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -6492,7 +6574,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>36.50753561861553</v>
+        <v>25.24001858513281</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -6501,7 +6583,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>36.54583982672361</v>
+        <v>25.27640758283551</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -6510,7 +6592,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>36.4833512225191</v>
+        <v>25.21704340884121</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -6519,7 +6601,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>36.58121411751589</v>
+        <v>25.31001315908817</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -6528,7 +6610,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>36.4946799793025</v>
+        <v>25.22780572778544</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -6537,7 +6619,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>36.55355591938509</v>
+        <v>25.28373787086391</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -6546,7 +6628,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>36.52275606765783</v>
+        <v>25.25447801172301</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -6555,7 +6637,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>36.56300985031048</v>
+        <v>25.29271910524302</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -6564,7 +6646,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>36.62430803409298</v>
+        <v>25.35095237983639</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -6573,7 +6655,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>36.63744373537499</v>
+        <v>25.36343129605431</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -6582,7 +6664,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>36.52090729178514</v>
+        <v>25.25272167464395</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -6591,7 +6673,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>36.42164695899264</v>
+        <v>25.15842435849107</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -6600,7 +6682,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>36.35346438083499</v>
+        <v>25.0936509092413</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -6609,7 +6691,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>36.36481865560873</v>
+        <v>25.10443747027636</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -6618,7 +6700,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>36.31497009597157</v>
+        <v>25.05708133862106</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -6627,7 +6709,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>36.31921408173582</v>
+        <v>25.06111312509709</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -6636,7 +6718,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>36.37178689690152</v>
+        <v>25.1110572995045</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -6645,7 +6727,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>36.33780992773335</v>
+        <v>25.07877917879475</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -6654,7 +6736,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>36.33568929404217</v>
+        <v>25.07676457678813</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -6663,7 +6745,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>36.32608064957059</v>
+        <v>25.06763636454012</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -6672,7 +6754,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>36.51026089594097</v>
+        <v>25.24260759859199</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -6681,7 +6763,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>36.61027134614964</v>
+        <v>25.33761752629023</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -6690,7 +6772,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>36.54055907287128</v>
+        <v>25.27139086667578</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -6699,7 +6781,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>36.53766017977402</v>
+        <v>25.26863691823339</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -6708,7 +6790,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>36.5252034620691</v>
+        <v>25.25680303641371</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -6717,7 +6799,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>36.52074574249639</v>
+        <v>25.25256820281964</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -6726,7 +6808,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>36.31121870357484</v>
+        <v>25.05351751584417</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -6735,7 +6817,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>36.30613419654708</v>
+        <v>25.04868723416778</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -6744,7 +6826,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>36.31725966489547</v>
+        <v>25.05925642909876</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -6753,7 +6835,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>36.41250257319091</v>
+        <v>25.14973719197943</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -6762,7 +6844,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>36.39499917587355</v>
+        <v>25.13310896452794</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -6771,7 +6853,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>36.46731779403608</v>
+        <v>25.20181165178235</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -6780,7 +6862,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>35.96443348809771</v>
+        <v>24.72407156114089</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -6789,7 +6871,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>36.3329114577684</v>
+        <v>25.07412563232806</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -6798,7 +6880,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>36.38358008288008</v>
+        <v>25.12226082618414</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -6807,7 +6889,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>36.09387789111751</v>
+        <v>24.84704374400971</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -6816,7 +6898,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>36.2287925889872</v>
+        <v>24.9752127069859</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -6825,7 +6907,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>36.30726888653833</v>
+        <v>25.04976518965948</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -6834,7 +6916,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>36.28299026890669</v>
+        <v>25.02670050290943</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -6843,7 +6925,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>36.18046553280123</v>
+        <v>24.92930200360923</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -6852,7 +6934,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>36.29943605904418</v>
+        <v>25.04232400354003</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -6861,7 +6943,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>36.3657399495453</v>
+        <v>25.1053126995161</v>
       </c>
     </row>
     <row r="145">
@@ -6869,14 +6951,14 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>36.24691716412175</v>
+        <v>24.99243105336373</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -6894,8 +6976,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="18.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="8.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="18.28515625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="8.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6916,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-41.29461240182155</v>
+        <v>-20.85141907042498</v>
       </c>
     </row>
     <row r="3">
@@ -6924,7 +7006,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-41.40965595414535</v>
+        <v>-20.92792303272031</v>
       </c>
     </row>
     <row r="4">
@@ -6932,7 +7014,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-41.24846602620579</v>
+        <v>-20.8207317306405</v>
       </c>
     </row>
     <row r="5">
@@ -6940,7 +7022,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-40.96462062457393</v>
+        <v>-20.63197453855531</v>
       </c>
     </row>
     <row r="6">
@@ -6948,7 +7030,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-40.60684483247428</v>
+        <v>-20.39405363680904</v>
       </c>
     </row>
     <row r="7">
@@ -6956,7 +7038,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-41.11645760093084</v>
+        <v>-20.73294612783265</v>
       </c>
     </row>
     <row r="8">
@@ -6964,7 +7046,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-41.08232281770077</v>
+        <v>-20.71024649698466</v>
       </c>
     </row>
     <row r="9">
@@ -6972,7 +7054,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-41.1975688616301</v>
+        <v>-20.78688511619766</v>
       </c>
     </row>
     <row r="10">
@@ -6980,7 +7062,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-41.17959642090192</v>
+        <v>-20.77493344311342</v>
       </c>
     </row>
     <row r="11">
@@ -6988,7 +7070,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-41.19832976453375</v>
+        <v>-20.78739111662859</v>
       </c>
     </row>
     <row r="12">
@@ -6996,7 +7078,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-41.20283684763714</v>
+        <v>-20.79038832689234</v>
       </c>
     </row>
     <row r="13">
@@ -7004,7 +7086,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-40.367975707893</v>
+        <v>-20.23520566896249</v>
       </c>
     </row>
     <row r="14">
@@ -7012,7 +7094,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-41.13296078796056</v>
+        <v>-20.74392074720742</v>
       </c>
     </row>
     <row r="15">
@@ -7020,7 +7102,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-41.17047272867352</v>
+        <v>-20.76886618778154</v>
       </c>
     </row>
     <row r="16">
@@ -7028,7 +7110,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-40.65638082245339</v>
+        <v>-20.42699507014515</v>
       </c>
     </row>
     <row r="17">
@@ -7036,7 +7118,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-40.59162563280195</v>
+        <v>-20.38393286902694</v>
       </c>
     </row>
     <row r="18">
@@ -7044,7 +7126,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-41.1868366511284</v>
+        <v>-20.77974819621403</v>
       </c>
     </row>
     <row r="19">
@@ -7052,7 +7134,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-41.92792108951675</v>
+        <v>-21.27256934774228</v>
       </c>
     </row>
     <row r="20">
@@ -7060,7 +7142,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-41.57276461020733</v>
+        <v>-21.03639028900152</v>
       </c>
     </row>
     <row r="21">
@@ -7068,7 +7150,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-41.40680695250459</v>
+        <v>-20.9260284466292</v>
       </c>
     </row>
     <row r="22">
@@ -7076,7 +7158,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-40.48197408488985</v>
+        <v>-20.3110145896654</v>
       </c>
     </row>
     <row r="23">
@@ -7084,7 +7166,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-40.55930387003539</v>
+        <v>-20.36243889678719</v>
       </c>
     </row>
     <row r="24">
@@ -7092,7 +7174,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-40.24812253836048</v>
+        <v>-20.15550331122336</v>
       </c>
     </row>
     <row r="25">
@@ -7100,7 +7182,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-41.55692953183397</v>
+        <v>-21.02585996188324</v>
       </c>
     </row>
     <row r="26">
@@ -7108,7 +7190,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-40.45695290777796</v>
+        <v>-20.29437550688599</v>
       </c>
     </row>
     <row r="27">
@@ -7116,7 +7198,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-40.71543935816549</v>
+        <v>-20.4662689963937</v>
       </c>
     </row>
     <row r="28">
@@ -7124,7 +7206,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-41.4681270217872</v>
+        <v>-20.96680629270213</v>
       </c>
     </row>
     <row r="29">
@@ -7132,7 +7214,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-41.46788899048923</v>
+        <v>-20.96664800188898</v>
       </c>
     </row>
     <row r="30">
@@ -7140,7 +7222,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-41.73201371541786</v>
+        <v>-21.14229094396652</v>
       </c>
     </row>
     <row r="31">
@@ -7148,7 +7230,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-41.90941672535212</v>
+        <v>-21.26026394557281</v>
       </c>
     </row>
     <row r="32">
@@ -7156,7 +7238,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-41.70975672485103</v>
+        <v>-21.12749004523958</v>
       </c>
     </row>
     <row r="33">
@@ -7164,7 +7246,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-41.6837506974779</v>
+        <v>-21.11019603703646</v>
       </c>
     </row>
     <row r="34">
@@ -7172,7 +7254,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-41.40932102338988</v>
+        <v>-20.92770030376792</v>
       </c>
     </row>
     <row r="35">
@@ -7180,7 +7262,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-41.52308578081998</v>
+        <v>-21.00335386745893</v>
       </c>
     </row>
     <row r="36">
@@ -7188,7 +7270,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-41.65304979153908</v>
+        <v>-21.08977993458713</v>
       </c>
     </row>
     <row r="37">
@@ -7196,7 +7278,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-41.60940736143669</v>
+        <v>-21.06075771856905</v>
       </c>
     </row>
     <row r="38">
@@ -7204,7 +7286,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-41.60940410865118</v>
+        <v>-21.06075555546668</v>
       </c>
     </row>
     <row r="39">
@@ -7212,7 +7294,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-41.90760605435374</v>
+        <v>-21.25905984935888</v>
       </c>
     </row>
     <row r="40">
@@ -7220,7 +7302,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-42.04807172229916</v>
+        <v>-21.35246951854259</v>
       </c>
     </row>
     <row r="41">
@@ -7228,7 +7310,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-42.01708437510923</v>
+        <v>-21.33186293266129</v>
       </c>
     </row>
     <row r="42">
@@ -7236,7 +7318,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-41.98530834753178</v>
+        <v>-21.31073187432228</v>
       </c>
     </row>
     <row r="43">
@@ -7244,7 +7326,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-42.23519589753558</v>
+        <v>-21.47690709507481</v>
       </c>
     </row>
     <row r="44">
@@ -7252,7 +7334,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-42.07272453631387</v>
+        <v>-21.36886363986237</v>
       </c>
     </row>
     <row r="45">
@@ -7260,7 +7342,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-42.15874684569357</v>
+        <v>-21.42606847559987</v>
       </c>
     </row>
     <row r="46">
@@ -7268,7 +7350,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-41.52958540605401</v>
+        <v>-21.00767611823956</v>
       </c>
     </row>
     <row r="47">
@@ -7276,7 +7358,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-41.84988359616095</v>
+        <v>-21.22067441466068</v>
       </c>
     </row>
     <row r="48">
@@ -7284,7 +7366,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-42.05951707806192</v>
+        <v>-21.36008068012482</v>
       </c>
     </row>
     <row r="49">
@@ -7292,7 +7374,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-42.20699268095112</v>
+        <v>-21.45815195604614</v>
       </c>
     </row>
     <row r="50">
@@ -7300,7 +7382,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-42.19280338170439</v>
+        <v>-21.44871607204707</v>
       </c>
     </row>
     <row r="51">
@@ -7308,7 +7390,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-41.4257723870282</v>
+        <v>-20.9386404605874</v>
       </c>
     </row>
     <row r="52">
@@ -7316,7 +7398,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-41.85922484478046</v>
+        <v>-21.22688634499265</v>
       </c>
     </row>
     <row r="53">
@@ -7324,7 +7406,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-41.36630887448271</v>
+        <v>-20.89909722474464</v>
       </c>
     </row>
     <row r="54">
@@ -7332,7 +7414,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-40.93152787504748</v>
+        <v>-20.60996786012022</v>
       </c>
     </row>
     <row r="55">
@@ -7340,7 +7422,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-40.93245533204782</v>
+        <v>-20.61058461902545</v>
       </c>
     </row>
     <row r="56">
@@ -7348,7 +7430,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-40.92120424328488</v>
+        <v>-20.6031026449981</v>
       </c>
     </row>
     <row r="57">
@@ -7356,7 +7438,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-41.08811842694655</v>
+        <v>-20.7141005771331</v>
       </c>
     </row>
     <row r="58">
@@ -7364,7 +7446,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-41.03544330984528</v>
+        <v>-20.67907162426076</v>
       </c>
     </row>
     <row r="59">
@@ -7372,7 +7454,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-41.01016593564797</v>
+        <v>-20.66226217041954</v>
       </c>
     </row>
     <row r="60">
@@ -7380,7 +7462,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-40.92277624553552</v>
+        <v>-20.60414802649477</v>
       </c>
     </row>
     <row r="61">
@@ -7388,7 +7470,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-40.93228043186815</v>
+        <v>-20.61046831040597</v>
       </c>
     </row>
     <row r="62">
@@ -7396,7 +7478,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-40.88514331152625</v>
+        <v>-20.5791221253786</v>
       </c>
     </row>
     <row r="63">
@@ -7404,7 +7486,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-40.83946501282153</v>
+        <v>-20.54874605673996</v>
       </c>
     </row>
     <row r="64">
@@ -7412,7 +7494,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-40.83258099686264</v>
+        <v>-20.5441681861273</v>
       </c>
     </row>
     <row r="65">
@@ -7420,7 +7502,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-40.84628247738466</v>
+        <v>-20.55327967067445</v>
       </c>
     </row>
     <row r="66">
@@ -7428,7 +7510,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-40.87774049710186</v>
+        <v>-20.57419925378638</v>
       </c>
     </row>
     <row r="67">
@@ -7436,7 +7518,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-40.87112414620206</v>
+        <v>-20.56979938043802</v>
       </c>
     </row>
     <row r="68">
@@ -7444,7 +7526,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-40.94952334659899</v>
+        <v>-20.62193484870197</v>
       </c>
     </row>
     <row r="69">
@@ -7452,7 +7534,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-40.98887018779929</v>
+        <v>-20.64810049810017</v>
       </c>
     </row>
     <row r="70">
@@ -7460,7 +7542,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-40.83108248948506</v>
+        <v>-20.54317167872121</v>
       </c>
     </row>
     <row r="71">
@@ -7468,7 +7550,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-40.85155874962141</v>
+        <v>-20.55678839171188</v>
       </c>
     </row>
     <row r="72">
@@ -7476,7 +7558,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-40.98412546990957</v>
+        <v>-20.64494526070351</v>
       </c>
     </row>
     <row r="73">
@@ -7484,7 +7566,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-41.76933953334584</v>
+        <v>-21.16711261288863</v>
       </c>
     </row>
     <row r="74">
@@ -7492,7 +7574,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-41.50290435164445</v>
+        <v>-20.98993321705721</v>
       </c>
     </row>
     <row r="75">
@@ -7500,7 +7582,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-41.44360576807036</v>
+        <v>-20.95049965898044</v>
       </c>
     </row>
     <row r="76">
@@ -7508,7 +7590,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-40.94020282467787</v>
+        <v>-20.61573670162443</v>
       </c>
     </row>
     <row r="77">
@@ -7516,7 +7598,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-40.50833313620227</v>
+        <v>-20.32854335878815</v>
       </c>
     </row>
     <row r="78">
@@ -7524,7 +7606,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-40.20598080169434</v>
+        <v>-20.12747905634039</v>
       </c>
     </row>
     <row r="79">
@@ -7532,7 +7614,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-41.47640264978688</v>
+        <v>-20.97230958532192</v>
       </c>
     </row>
     <row r="80">
@@ -7540,7 +7622,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-40.59029116770817</v>
+        <v>-20.38304544973958</v>
       </c>
     </row>
     <row r="81">
@@ -7548,7 +7630,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-41.30453367011739</v>
+        <v>-20.85801671384172</v>
       </c>
     </row>
     <row r="82">
@@ -7556,7 +7638,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-41.33133183563838</v>
+        <v>-20.87583749391317</v>
       </c>
     </row>
     <row r="83">
@@ -7564,7 +7646,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-39.97079367657319</v>
+        <v>-19.97107961813482</v>
       </c>
     </row>
     <row r="84">
@@ -7572,7 +7654,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-40.00496264621935</v>
+        <v>-19.99380198294951</v>
       </c>
     </row>
     <row r="85">
@@ -7580,7 +7662,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-39.99798807073233</v>
+        <v>-19.98916389025064</v>
       </c>
     </row>
     <row r="86">
@@ -7588,7 +7670,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-39.97213728531251</v>
+        <v>-19.97197311794647</v>
       </c>
     </row>
     <row r="87">
@@ -7596,7 +7678,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-40.12824504772661</v>
+        <v>-20.07578477995184</v>
       </c>
     </row>
     <row r="88">
@@ -7604,7 +7686,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-41.1296152422653</v>
+        <v>-20.74169595932007</v>
       </c>
     </row>
     <row r="89">
@@ -7612,7 +7694,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-41.34042419040956</v>
+        <v>-20.88188390983601</v>
       </c>
     </row>
     <row r="90">
@@ -7620,7 +7702,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-41.15906640446602</v>
+        <v>-20.76128098218355</v>
       </c>
     </row>
     <row r="91">
@@ -7628,7 +7710,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-41.2558056102384</v>
+        <v>-20.82561255402218</v>
       </c>
     </row>
     <row r="92">
@@ -7636,7 +7718,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-41.15464701143863</v>
+        <v>-20.75834208582033</v>
       </c>
     </row>
     <row r="93">
@@ -7644,7 +7726,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-41.11454496805812</v>
+        <v>-20.73167422697229</v>
       </c>
     </row>
     <row r="94">
@@ -7652,7 +7734,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-41.26318804290183</v>
+        <v>-20.83052187174336</v>
       </c>
     </row>
     <row r="95">
@@ -7660,7 +7742,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-41.11976475036946</v>
+        <v>-20.73514538220933</v>
       </c>
     </row>
     <row r="96">
@@ -7668,7 +7750,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-40.9655627133268</v>
+        <v>-20.63260102757598</v>
       </c>
     </row>
     <row r="97">
@@ -7676,7 +7758,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-41.18029884629741</v>
+        <v>-20.77540055600143</v>
       </c>
     </row>
     <row r="98">
@@ -7684,7 +7766,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-41.12210660370328</v>
+        <v>-20.73670271467633</v>
       </c>
     </row>
     <row r="99">
@@ -7692,7 +7774,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-41.20287554819753</v>
+        <v>-20.790414062765</v>
       </c>
     </row>
     <row r="100">
@@ -7700,7 +7782,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-41.13857240343918</v>
+        <v>-20.7476524715007</v>
       </c>
     </row>
     <row r="101">
@@ -7708,7 +7790,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-41.2287223552548</v>
+        <v>-20.80760218945809</v>
       </c>
     </row>
     <row r="102">
@@ -7716,7 +7798,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-41.19782997471953</v>
+        <v>-20.78705875640213</v>
       </c>
     </row>
     <row r="103">
@@ -7724,7 +7806,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-41.14014834489133</v>
+        <v>-20.74870047256638</v>
       </c>
     </row>
     <row r="104">
@@ -7732,7 +7814,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-41.14926121321345</v>
+        <v>-20.75476053000059</v>
       </c>
     </row>
     <row r="105">
@@ -7740,7 +7822,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-41.13107944865285</v>
+        <v>-20.74266965656779</v>
       </c>
     </row>
     <row r="106">
@@ -7748,7 +7830,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-41.19699115717117</v>
+        <v>-20.78650094273247</v>
       </c>
     </row>
     <row r="107">
@@ -7756,7 +7838,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-41.25317479347746</v>
+        <v>-20.82386306087616</v>
       </c>
     </row>
     <row r="108">
@@ -7764,7 +7846,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-41.20086923881895</v>
+        <v>-20.78907986702825</v>
       </c>
     </row>
     <row r="109">
@@ -7772,7 +7854,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-41.21210217172267</v>
+        <v>-20.79654976740922</v>
       </c>
     </row>
     <row r="110">
@@ -7780,7 +7862,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-41.22702981604519</v>
+        <v>-20.8064766508837</v>
       </c>
     </row>
     <row r="111">
@@ -7788,7 +7870,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-41.24597931739574</v>
+        <v>-20.81907806928181</v>
       </c>
     </row>
     <row r="112">
@@ -7796,7 +7878,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-41.21038511072307</v>
+        <v>-20.79540792184448</v>
       </c>
     </row>
     <row r="113">
@@ -7804,7 +7886,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-41.31514308550929</v>
+        <v>-20.86507197507732</v>
       </c>
     </row>
     <row r="114">
@@ -7812,7 +7894,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-41.5032980821363</v>
+        <v>-20.99019504783428</v>
       </c>
     </row>
     <row r="115">
@@ -7820,7 +7902,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-41.54741905929694</v>
+        <v>-21.01953549764612</v>
       </c>
     </row>
     <row r="116">
@@ -7828,7 +7910,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-41.4276983097365</v>
+        <v>-20.93992119918841</v>
       </c>
     </row>
     <row r="117">
@@ -7836,7 +7918,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-41.54807531112958</v>
+        <v>-21.01997190511482</v>
       </c>
     </row>
     <row r="118">
@@ -7844,7 +7926,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-41.6800420222247</v>
+        <v>-21.10772976799307</v>
       </c>
     </row>
     <row r="119">
@@ -7852,7 +7934,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-41.41187482135705</v>
+        <v>-20.92939857941608</v>
       </c>
     </row>
     <row r="120">
@@ -7860,7 +7942,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-41.84353092022238</v>
+        <v>-21.21644988516152</v>
       </c>
     </row>
     <row r="121">
@@ -7868,7 +7950,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-41.52868940263444</v>
+        <v>-21.00708027596555</v>
       </c>
     </row>
     <row r="122">
@@ -7876,7 +7958,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-41.68747444137374</v>
+        <v>-21.11267232672718</v>
       </c>
     </row>
     <row r="123">
@@ -7884,7 +7966,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-41.7451295463678</v>
+        <v>-21.15101297154823</v>
       </c>
     </row>
     <row r="124">
@@ -7892,7 +7974,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-41.50911329127839</v>
+        <v>-20.99406216191377</v>
       </c>
     </row>
     <row r="125">
@@ -7900,7 +7982,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-41.76164583713214</v>
+        <v>-21.16199630490651</v>
       </c>
     </row>
     <row r="126">
@@ -7908,7 +7990,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-41.48885888605254</v>
+        <v>-20.98059298243858</v>
       </c>
     </row>
     <row r="127">
@@ -7916,7 +7998,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-41.55869076935965</v>
+        <v>-21.02703118483782</v>
       </c>
     </row>
     <row r="128">
@@ -7924,7 +8006,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-41.61489597631856</v>
+        <v>-21.06440764746549</v>
       </c>
     </row>
     <row r="129">
@@ -7932,7 +8014,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-41.66177157274917</v>
+        <v>-21.09557991909184</v>
       </c>
     </row>
     <row r="130">
@@ -7940,7 +8022,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-41.66527643645847</v>
+        <v>-21.09791065345853</v>
       </c>
     </row>
     <row r="131">
@@ -7948,7 +8030,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-41.64150442513841</v>
+        <v>-21.08210226593069</v>
       </c>
     </row>
     <row r="132">
@@ -7956,7 +8038,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-41.68385686251005</v>
+        <v>-21.11026663678284</v>
       </c>
     </row>
     <row r="133">
@@ -7964,7 +8046,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-41.56998527368103</v>
+        <v>-21.03454203021153</v>
       </c>
     </row>
     <row r="134">
@@ -7972,7 +8054,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-41.61519990143888</v>
+        <v>-21.0646097576705</v>
       </c>
     </row>
     <row r="135">
@@ -7980,7 +8062,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-41.50264671068771</v>
+        <v>-20.98976188582097</v>
       </c>
     </row>
     <row r="136">
@@ -7988,7 +8070,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-41.79738839639256</v>
+        <v>-21.18576510681469</v>
       </c>
     </row>
     <row r="137">
@@ -7996,7 +8078,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-41.26347337296073</v>
+        <v>-20.83071161623253</v>
       </c>
     </row>
     <row r="138">
@@ -8004,7 +8086,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-41.28608836825686</v>
+        <v>-20.84575058810446</v>
       </c>
     </row>
     <row r="139">
@@ -8012,7 +8094,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-41.5563629662053</v>
+        <v>-21.02548319574017</v>
       </c>
     </row>
     <row r="140">
@@ -8020,7 +8102,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-41.30702524226214</v>
+        <v>-20.85967360931797</v>
       </c>
     </row>
     <row r="141">
@@ -8028,7 +8110,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-41.30555988503015</v>
+        <v>-20.8586991467587</v>
       </c>
     </row>
     <row r="142">
@@ -8036,7 +8118,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-40.39386958997864</v>
+        <v>-20.25242510054944</v>
       </c>
     </row>
     <row r="143">
@@ -8044,7 +8126,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-40.65061163939454</v>
+        <v>-20.42315856341101</v>
       </c>
     </row>
     <row r="144">
@@ -8052,7 +8134,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-41.06278987180529</v>
+        <v>-20.69725708796416</v>
       </c>
     </row>
     <row r="145">
@@ -8060,14 +8142,14 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-41.47100252761646</v>
+        <v>-20.96871850407859</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -8098,6 +8180,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/testcases/timeseries/EVDay01_mix10.xlsx
+++ b/testcases/timeseries/EVDay01_mix10.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="12" autoFilterDateGrouping="1" firstSheet="5" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="691" visibility="visible" windowHeight="15000" windowWidth="19440" xWindow="-19320" yWindow="2610"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-19320" yWindow="2610" windowWidth="19440" windowHeight="15000" tabRatio="691" firstSheet="5" activeTab="12" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="bus" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="demand" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="branch" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="transformer" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="shunt" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="generator" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="genseries" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="genmin" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="baseMVA" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="timeseries" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="EVs" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="EVsTravelDiary" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="timeseriesGen" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bus" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="demand" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="branch" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="transformer" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="shunt" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="generator" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="genseries" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="genmin" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="baseMVA" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timeseries" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EVs" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EVsTravelDiary" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timeseriesGen" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -28,8 +28,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="0.0" numFmtId="164"/>
-    <numFmt formatCode="0.000" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -125,101 +125,33 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -599,7 +531,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1782,7 +1714,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1800,7 +1732,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="5" width="12.85546875"/>
+    <col width="12.85546875" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1868,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1905,7 +1837,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1923,7 +1855,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="15.85546875"/>
+    <col width="15.85546875" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1955,37 +1887,23 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2012001353</v>
+        <v>2016005877</v>
       </c>
       <c r="B2" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="D2" t="n">
-        <v>40.88104079566241</v>
+        <v>48.15525759566239</v>
       </c>
       <c r="E2" t="n">
-        <v>59.45733332899574</v>
+        <v>59.47722175000919</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="n">
-        <v>2012001353</v>
-      </c>
-      <c r="B3" t="n">
-        <v>142</v>
-      </c>
-      <c r="C3" t="n">
-        <v>143</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34.50805439566241</v>
-      </c>
-      <c r="E3" t="n">
-        <v>35.59338772899574</v>
-      </c>
+      <c r="A3" s="7" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n"/>
@@ -2066,7 +1984,7 @@
       <c r="A29" s="7" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2084,8 +2002,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="11.7109375"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="17.42578125"/>
+    <col width="11.7109375" customWidth="1" min="2" max="2"/>
+    <col width="17.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4986,7 +4904,7 @@
       <c r="D289" s="4" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5061,7 +4979,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5147,7 +5065,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5258,7 +5176,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5304,7 +5222,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5623,7 +5541,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5641,10 +5559,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="18.28515625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="8.42578125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="15.85546875"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="15.85546875"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="8.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="15.85546875" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="15.85546875" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5665,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>24.93624130471241</v>
+        <v>26.21072776765836</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -5674,7 +5592,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>24.94166285304999</v>
+        <v>25.55235586048195</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -5683,7 +5601,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>25.09945753880807</v>
+        <v>25.55237000048496</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -5692,7 +5610,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>25.04910382178875</v>
+        <v>25.58868501077522</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -5701,7 +5619,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>24.95056051290801</v>
+        <v>25.69180010705713</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -5710,7 +5628,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>24.85593726202394</v>
+        <v>25.7278003403048</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -5719,7 +5637,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>24.86022382535236</v>
+        <v>25.69263301142603</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -5728,7 +5646,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>24.89881687275813</v>
+        <v>25.26220037203898</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -5737,7 +5655,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>25.02628842667387</v>
+        <v>25.35309708667635</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -5746,7 +5664,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>25.04604814689519</v>
+        <v>25.35296586938438</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -5755,7 +5673,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>25.15087473683372</v>
+        <v>26.08988104387573</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -5764,7 +5682,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>25.06373127807888</v>
+        <v>26.08981759295635</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -5773,7 +5691,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>25.26165801947934</v>
+        <v>26.0353430201487</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -5782,7 +5700,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>25.20902182972805</v>
+        <v>25.73592911700674</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -5791,7 +5709,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>25.27983373534</v>
+        <v>25.70054114170391</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -5800,7 +5718,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>25.24149060192876</v>
+        <v>25.64591580932377</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -5809,7 +5727,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>25.06850088235558</v>
+        <v>25.56331939726842</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -5818,7 +5736,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>24.8507533348948</v>
+        <v>25.58155560147653</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -5827,7 +5745,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>24.91445921603168</v>
+        <v>25.52706100078073</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -5836,7 +5754,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>24.75170015884684</v>
+        <v>25.13666741829288</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -5845,7 +5763,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>24.72964004792493</v>
+        <v>25.17271215563681</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -5854,7 +5772,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>24.78953652659628</v>
+        <v>25.64562922007993</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -5863,7 +5781,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>25.24681303114536</v>
+        <v>26.07457994869852</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -5872,7 +5790,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>24.45445984082004</v>
+        <v>25.54528349867179</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -5881,7 +5799,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>24.2782939092872</v>
+        <v>25.2550846488861</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -5890,7 +5808,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>23.82229059134979</v>
+        <v>25.38510318205743</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -5899,7 +5817,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>24.07823373677047</v>
+        <v>25.61070159919363</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -5908,7 +5826,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>24.21708152479759</v>
+        <v>25.77062050252573</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -5917,7 +5835,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>24.38414173207578</v>
+        <v>25.06220293133611</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -5926,7 +5844,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>24.4928427122689</v>
+        <v>25.2081784060101</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -5935,7 +5853,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>24.55375863042998</v>
+        <v>25.22639384051646</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -5944,7 +5862,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>24.36902964544886</v>
+        <v>25.80934107581895</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -5953,7 +5871,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>24.44204589283643</v>
+        <v>25.93689014550318</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -5962,7 +5880,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>24.37460879266552</v>
+        <v>25.84658424268954</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -5971,7 +5889,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>24.53637073944886</v>
+        <v>25.88256343971704</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -5980,7 +5898,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>24.57490202526672</v>
+        <v>25.8290017315025</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -5989,7 +5907,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>24.51082365027398</v>
+        <v>25.82757068900044</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -5998,7 +5916,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>24.36791435792262</v>
+        <v>25.12721122418475</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -6007,7 +5925,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>24.52936607645893</v>
+        <v>25.01774960615979</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -6016,7 +5934,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>24.3079626324636</v>
+        <v>24.5437483105845</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -6025,7 +5943,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>24.39172495508985</v>
+        <v>25.53897375251615</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -6034,7 +5952,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>24.36313627999906</v>
+        <v>25.77567140305886</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -6043,7 +5961,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>24.33562685063518</v>
+        <v>25.50832579435736</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -6052,7 +5970,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>24.51903608615332</v>
+        <v>25.67108720257413</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -6061,7 +5979,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>24.47122590285118</v>
+        <v>25.89143887527977</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -6070,7 +5988,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>24.47603072026423</v>
+        <v>25.89769128335526</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -6079,7 +5997,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>24.54310813928274</v>
+        <v>25.95759753433618</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -6088,7 +6006,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>24.5170718223775</v>
+        <v>25.92744960880864</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -6097,7 +6015,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>24.61686581357577</v>
+        <v>25.78780891217266</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -6106,7 +6024,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>24.27667364388926</v>
+        <v>25.47819718895136</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -6115,7 +6033,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>24.39869494837198</v>
+        <v>25.47840080662847</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -6124,7 +6042,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>24.42438030845081</v>
+        <v>25.47800961521232</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -6133,7 +6051,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>24.21064981106282</v>
+        <v>25.1410604725127</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -6142,7 +6060,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>24.29847765171479</v>
+        <v>25.12267818811726</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -6151,7 +6069,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>24.11435902894052</v>
+        <v>25.1411498486226</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -6160,7 +6078,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>23.05972975114279</v>
+        <v>24.80647791061489</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -6169,7 +6087,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>23.07443330651111</v>
+        <v>24.62137148834696</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -6178,7 +6096,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>23.06455924587013</v>
+        <v>24.78764667737159</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -6187,7 +6105,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>23.37444941217514</v>
+        <v>25.04360937955142</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -6196,7 +6114,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>23.32555953749099</v>
+        <v>25.11656666702837</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -6205,7 +6123,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>23.36564464810504</v>
+        <v>25.0437618356781</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -6214,7 +6132,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>24.64327914857605</v>
+        <v>25.68497514088661</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -6223,7 +6141,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>24.50303634990411</v>
+        <v>25.8043138116955</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -6232,7 +6150,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>24.57310642155456</v>
+        <v>25.81429225505546</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -6241,7 +6159,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>24.61840214273564</v>
+        <v>25.93302807621829</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -6250,7 +6168,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>24.69965595109409</v>
+        <v>25.8967438204881</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -6259,7 +6177,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>24.60492201553949</v>
+        <v>25.78480883431806</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -6268,7 +6186,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>24.74260252278785</v>
+        <v>25.28043937939366</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -6277,7 +6195,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>24.76984883215295</v>
+        <v>25.9879840997364</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -6286,7 +6204,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>24.77909432049425</v>
+        <v>25.44506268001684</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -6295,7 +6213,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>24.74486833386505</v>
+        <v>25.9509481769687</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -6304,7 +6222,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>24.47440286522016</v>
+        <v>25.91199472429252</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -6313,7 +6231,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>24.65868484237623</v>
+        <v>25.25985426556053</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -6322,7 +6240,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>24.71936784668432</v>
+        <v>25.36988173636005</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -6331,7 +6249,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>25.12389730464565</v>
+        <v>25.44725114556717</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -6340,7 +6258,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>25.29199817985916</v>
+        <v>26.26383692855732</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -6349,7 +6267,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>25.74308340038898</v>
+        <v>26.53177287811598</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -6358,7 +6276,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>25.00762354582898</v>
+        <v>26.17222704778208</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -6367,7 +6285,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>24.64072151442031</v>
+        <v>25.82597993271593</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -6376,7 +6294,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>24.30742123969572</v>
+        <v>25.58837330245975</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -6385,7 +6303,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>25.6815518209829</v>
+        <v>26.17736202109939</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -6394,7 +6312,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>25.94361202582937</v>
+        <v>26.68436385173201</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -6403,7 +6321,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>25.86790585905095</v>
+        <v>26.72828993555321</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -6412,7 +6330,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>25.51030496567984</v>
+        <v>26.43284555951605</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -6421,7 +6339,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>25.24353820333563</v>
+        <v>26.23215450227555</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -6430,7 +6348,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>24.71943258912173</v>
+        <v>25.64586436468242</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -6439,7 +6357,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>24.14967745672839</v>
+        <v>25.60364173667682</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -6448,7 +6366,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>24.84217270105826</v>
+        <v>25.82146025820101</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -6457,7 +6375,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>25.18560104487281</v>
+        <v>26.40847704476237</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -6466,7 +6384,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>25.39384570539548</v>
+        <v>26.54813687903856</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -6475,7 +6393,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>25.4102458413124</v>
+        <v>26.57159466815893</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -6484,7 +6402,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>25.49115804691507</v>
+        <v>26.54762625220915</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -6493,7 +6411,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>25.46618617129902</v>
+        <v>26.22047208895756</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -6502,7 +6420,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>25.42852121095917</v>
+        <v>26.32007687161659</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -6511,7 +6429,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>25.51291470496601</v>
+        <v>26.56387802925476</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -6520,7 +6438,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>25.51518119114027</v>
+        <v>26.59944842005779</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -6529,7 +6447,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>25.45190474160737</v>
+        <v>26.52660219325483</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -6538,7 +6456,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>25.24876159423314</v>
+        <v>26.38442059746066</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -6547,7 +6465,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>25.32656224332384</v>
+        <v>26.51608418979581</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -6556,7 +6474,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>25.25558414010217</v>
+        <v>26.08515222289619</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -6565,7 +6483,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>25.2694292470152</v>
+        <v>25.95542067776921</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -6574,7 +6492,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>25.24001858513281</v>
+        <v>26.42192005900649</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -6583,7 +6501,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>25.27640758283551</v>
+        <v>26.43451958290652</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -6592,7 +6510,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>25.21704340884121</v>
+        <v>26.4341173208122</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -6601,7 +6519,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>25.31001315908817</v>
+        <v>26.48909954411742</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -6610,7 +6528,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>25.22780572778544</v>
+        <v>26.13946690115286</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -6619,7 +6537,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>25.28373787086391</v>
+        <v>26.53586393427487</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -6628,7 +6546,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>25.25447801172301</v>
+        <v>26.33541177547585</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -6637,7 +6555,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>25.29271910524302</v>
+        <v>26.5240033045448</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -6646,7 +6564,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>25.35095237983639</v>
+        <v>26.40131017209712</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -6655,7 +6573,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>25.36343129605431</v>
+        <v>26.09233177060147</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -6664,7 +6582,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>25.25272167464395</v>
+        <v>26.20805850293815</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -6673,7 +6591,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>25.15842435849107</v>
+        <v>26.44460207523053</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -6682,7 +6600,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>25.0936509092413</v>
+        <v>26.3296442872942</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -6691,7 +6609,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>25.10443747027636</v>
+        <v>25.65616666576597</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -6700,7 +6618,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>25.05708133862106</v>
+        <v>26.02214942641399</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -6709,7 +6627,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>25.06111312509709</v>
+        <v>26.39734066883858</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -6718,7 +6636,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>25.1110572995045</v>
+        <v>26.28594340174111</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -6727,7 +6645,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>25.07877917879475</v>
+        <v>26.34664540635692</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -6736,7 +6654,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>25.07676457678813</v>
+        <v>26.41713836285458</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -6745,7 +6663,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>25.06763636454012</v>
+        <v>26.40116576613369</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -6754,7 +6672,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>25.24260759859199</v>
+        <v>26.16154222956658</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -6763,7 +6681,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>25.33761752629023</v>
+        <v>26.21362470002896</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -6772,7 +6690,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>25.27139086667578</v>
+        <v>26.32302547759258</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -6781,7 +6699,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>25.26863691823339</v>
+        <v>26.44074123193706</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -6790,7 +6708,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>25.25680303641371</v>
+        <v>26.27198596224164</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -6799,7 +6717,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>25.25256820281964</v>
+        <v>25.9863888661288</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -6808,7 +6726,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>25.05351751584417</v>
+        <v>25.75905629569721</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -6817,7 +6735,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>25.04868723416778</v>
+        <v>25.75873763505874</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -6826,7 +6744,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>25.05925642909876</v>
+        <v>25.7483693349156</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -6835,7 +6753,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>25.14973719197943</v>
+        <v>25.94790020097016</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -6844,7 +6762,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>25.13310896452794</v>
+        <v>25.96627936934989</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -6853,7 +6771,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>25.20181165178235</v>
+        <v>25.94820725513194</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -6862,7 +6780,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>24.72407156114089</v>
+        <v>25.65646382513799</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -6871,7 +6789,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>25.07412563232806</v>
+        <v>25.74724266185463</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -6880,7 +6798,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>25.12226082618414</v>
+        <v>25.6384858605958</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -6889,7 +6807,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>24.84704374400971</v>
+        <v>26.07800176510126</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -6898,7 +6816,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>24.9752127069859</v>
+        <v>26.14658272316177</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -6907,7 +6825,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>25.04976518965948</v>
+        <v>26.12807158535642</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -6916,7 +6834,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>25.02670050290943</v>
+        <v>25.67481366020588</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -6925,7 +6843,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>24.92930200360923</v>
+        <v>25.67506287599819</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -6934,7 +6852,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>25.04232400354003</v>
+        <v>25.67527123921588</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -6943,7 +6861,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>25.1053126995161</v>
+        <v>26.310185729915</v>
       </c>
     </row>
     <row r="145">
@@ -6951,14 +6869,14 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>24.99243105336373</v>
+        <v>26.10302864946409</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6976,8 +6894,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="18.28515625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="8.42578125"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="8.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6998,7 +6916,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-20.85141907042498</v>
+        <v>-21.05835005732447</v>
       </c>
     </row>
     <row r="3">
@@ -7006,7 +6924,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-20.92792303272031</v>
+        <v>-21.50197659045299</v>
       </c>
     </row>
     <row r="4">
@@ -7014,7 +6932,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-20.8207317306405</v>
+        <v>-21.00796248221783</v>
       </c>
     </row>
     <row r="5">
@@ -7022,7 +6940,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-20.63197453855531</v>
+        <v>-21.03554847907253</v>
       </c>
     </row>
     <row r="6">
@@ -7030,7 +6948,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-20.39405363680904</v>
+        <v>-21.01942123081023</v>
       </c>
     </row>
     <row r="7">
@@ -7038,7 +6956,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-20.73294612783265</v>
+        <v>-21.00887173755649</v>
       </c>
     </row>
     <row r="8">
@@ -7046,7 +6964,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-20.71024649698466</v>
+        <v>-20.99560723610577</v>
       </c>
     </row>
     <row r="9">
@@ -7054,7 +6972,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-20.78688511619766</v>
+        <v>-21.01126334223213</v>
       </c>
     </row>
     <row r="10">
@@ -7062,7 +6980,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-20.77493344311342</v>
+        <v>-21.02209918381584</v>
       </c>
     </row>
     <row r="11">
@@ -7070,7 +6988,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-20.78739111662859</v>
+        <v>-21.02209877951048</v>
       </c>
     </row>
     <row r="12">
@@ -7078,7 +6996,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-20.79038832689234</v>
+        <v>-21.00705406447978</v>
       </c>
     </row>
     <row r="13">
@@ -7086,7 +7004,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-20.23520566896249</v>
+        <v>-20.99378889473294</v>
       </c>
     </row>
     <row r="14">
@@ -7094,7 +7012,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-20.74392074720742</v>
+        <v>-21.08976328868737</v>
       </c>
     </row>
     <row r="15">
@@ -7102,7 +7020,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-20.76886618778154</v>
+        <v>-21.11735267597023</v>
       </c>
     </row>
     <row r="16">
@@ -7110,7 +7028,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-20.42699507014515</v>
+        <v>-21.0385696906323</v>
       </c>
     </row>
     <row r="17">
@@ -7118,7 +7036,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-20.38393286902694</v>
+        <v>-20.98665069274772</v>
       </c>
     </row>
     <row r="18">
@@ -7126,7 +7044,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-20.77974819621403</v>
+        <v>-20.99571242181226</v>
       </c>
     </row>
     <row r="19">
@@ -7134,7 +7052,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-21.27256934774228</v>
+        <v>-21.63628921043965</v>
       </c>
     </row>
     <row r="20">
@@ -7142,7 +7060,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-21.03639028900152</v>
+        <v>-21.64380434733168</v>
       </c>
     </row>
     <row r="21">
@@ -7150,7 +7068,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-20.9260284466292</v>
+        <v>-21.13690710100323</v>
       </c>
     </row>
     <row r="22">
@@ -7158,7 +7076,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-20.3110145896654</v>
+        <v>-20.98416320355335</v>
       </c>
     </row>
     <row r="23">
@@ -7166,7 +7084,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-20.36243889678719</v>
+        <v>-21.16722913210872</v>
       </c>
     </row>
     <row r="24">
@@ -7174,7 +7092,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-20.15550331122336</v>
+        <v>-20.98857448186973</v>
       </c>
     </row>
     <row r="25">
@@ -7182,7 +7100,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-21.02585996188324</v>
+        <v>-21.49190286974227</v>
       </c>
     </row>
     <row r="26">
@@ -7190,7 +7108,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-20.29437550688599</v>
+        <v>-21.02483735186003</v>
       </c>
     </row>
     <row r="27">
@@ -7198,7 +7116,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-20.4662689963937</v>
+        <v>-21.21038038866032</v>
       </c>
     </row>
     <row r="28">
@@ -7206,7 +7124,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-20.96680629270213</v>
+        <v>-21.18306450646617</v>
       </c>
     </row>
     <row r="29">
@@ -7214,7 +7132,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-20.96664800188898</v>
+        <v>-21.19633228674092</v>
       </c>
     </row>
     <row r="30">
@@ -7222,7 +7140,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-21.14229094396652</v>
+        <v>-21.33263889653549</v>
       </c>
     </row>
     <row r="31">
@@ -7230,7 +7148,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-21.26026394557281</v>
+        <v>-21.24957859755472</v>
       </c>
     </row>
     <row r="32">
@@ -7238,7 +7156,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-21.12749004523958</v>
+        <v>-21.33263223711335</v>
       </c>
     </row>
     <row r="33">
@@ -7246,7 +7164,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-21.11019603703646</v>
+        <v>-21.36165234270569</v>
       </c>
     </row>
     <row r="34">
@@ -7254,7 +7172,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-20.92770030376792</v>
+        <v>-21.36158627928853</v>
       </c>
     </row>
     <row r="35">
@@ -7262,7 +7180,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-21.00335386745893</v>
+        <v>-21.37503915707352</v>
       </c>
     </row>
     <row r="36">
@@ -7270,7 +7188,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-21.08977993458713</v>
+        <v>-21.39819742427864</v>
       </c>
     </row>
     <row r="37">
@@ -7278,7 +7196,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-21.06075771856905</v>
+        <v>-21.29894781748345</v>
       </c>
     </row>
     <row r="38">
@@ -7286,7 +7204,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-21.06075555546668</v>
+        <v>-21.39824841804381</v>
       </c>
     </row>
     <row r="39">
@@ -7294,7 +7212,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-21.25905984935888</v>
+        <v>-21.40871123527756</v>
       </c>
     </row>
     <row r="40">
@@ -7302,7 +7220,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-21.35246951854259</v>
+        <v>-21.40872428682504</v>
       </c>
     </row>
     <row r="41">
@@ -7310,7 +7228,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-21.33186293266129</v>
+        <v>-21.41661277883764</v>
       </c>
     </row>
     <row r="42">
@@ -7318,7 +7236,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-21.31073187432228</v>
+        <v>-21.38050487104394</v>
       </c>
     </row>
     <row r="43">
@@ -7326,7 +7244,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-21.47690709507481</v>
+        <v>-21.39379859824443</v>
       </c>
     </row>
     <row r="44">
@@ -7334,7 +7252,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-21.36886363986237</v>
+        <v>-21.38050453522889</v>
       </c>
     </row>
     <row r="45">
@@ -7342,7 +7260,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-21.42606847559987</v>
+        <v>-21.2662002058298</v>
       </c>
     </row>
     <row r="46">
@@ -7350,7 +7268,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-21.00767611823956</v>
+        <v>-21.26619030261436</v>
       </c>
     </row>
     <row r="47">
@@ -7358,7 +7276,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-21.22067441466068</v>
+        <v>-21.27944476013425</v>
       </c>
     </row>
     <row r="48">
@@ -7366,7 +7284,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-21.36008068012482</v>
+        <v>-21.25186077510171</v>
       </c>
     </row>
     <row r="49">
@@ -7374,7 +7292,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-21.45815195604614</v>
+        <v>-21.25200005327134</v>
       </c>
     </row>
     <row r="50">
@@ -7382,7 +7300,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-21.44871607204707</v>
+        <v>-21.25205026628741</v>
       </c>
     </row>
     <row r="51">
@@ -7390,7 +7308,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-20.9386404605874</v>
+        <v>-21.39124049868975</v>
       </c>
     </row>
     <row r="52">
@@ -7398,7 +7316,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-21.22688634499265</v>
+        <v>-21.39124269429504</v>
       </c>
     </row>
     <row r="53">
@@ -7406,7 +7324,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-20.89909722474464</v>
+        <v>-21.37795576282282</v>
       </c>
     </row>
     <row r="54">
@@ -7414,7 +7332,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-20.60996786012022</v>
+        <v>-21.4043754581209</v>
       </c>
     </row>
     <row r="55">
@@ -7422,7 +7340,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-20.61058461902545</v>
+        <v>-21.39209770543449</v>
       </c>
     </row>
     <row r="56">
@@ -7430,7 +7348,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-20.6031026449981</v>
+        <v>-21.37867310773994</v>
       </c>
     </row>
     <row r="57">
@@ -7438,7 +7356,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-20.7141005771331</v>
+        <v>-21.39915303650919</v>
       </c>
     </row>
     <row r="58">
@@ -7446,7 +7364,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-20.67907162426076</v>
+        <v>-21.41234152552542</v>
       </c>
     </row>
     <row r="59">
@@ -7454,7 +7372,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-20.66226217041954</v>
+        <v>-21.4124178067257</v>
       </c>
     </row>
     <row r="60">
@@ -7462,7 +7380,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-20.60414802649477</v>
+        <v>-21.38131145281244</v>
       </c>
     </row>
     <row r="61">
@@ -7470,7 +7388,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-20.61046831040597</v>
+        <v>-21.38575746361318</v>
       </c>
     </row>
     <row r="62">
@@ -7478,7 +7396,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-20.5791221253786</v>
+        <v>-21.36620456819752</v>
       </c>
     </row>
     <row r="63">
@@ -7486,7 +7404,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-20.54874605673996</v>
+        <v>-21.28129430546866</v>
       </c>
     </row>
     <row r="64">
@@ -7494,7 +7412,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-20.5441681861273</v>
+        <v>-21.29458428599552</v>
       </c>
     </row>
     <row r="65">
@@ -7502,7 +7420,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-20.55327967067445</v>
+        <v>-21.09472120358871</v>
       </c>
     </row>
     <row r="66">
@@ -7510,7 +7428,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-20.57419925378638</v>
+        <v>-21.042555084909</v>
       </c>
     </row>
     <row r="67">
@@ -7518,7 +7436,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-20.56979938043802</v>
+        <v>-21.08232392845864</v>
       </c>
     </row>
     <row r="68">
@@ -7526,7 +7444,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-20.62193484870197</v>
+        <v>-21.09555898707756</v>
       </c>
     </row>
     <row r="69">
@@ -7534,7 +7452,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-20.64810049810017</v>
+        <v>-21.00983964104118</v>
       </c>
     </row>
     <row r="70">
@@ -7542,7 +7460,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-20.54317167872121</v>
+        <v>-21.0098441247333</v>
       </c>
     </row>
     <row r="71">
@@ -7550,7 +7468,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-20.55678839171188</v>
+        <v>-21.01959393149018</v>
       </c>
     </row>
     <row r="72">
@@ -7558,7 +7476,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-20.64494526070351</v>
+        <v>-21.01693801494144</v>
       </c>
     </row>
     <row r="73">
@@ -7566,7 +7484,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-21.16711261288863</v>
+        <v>-21.5718173595523</v>
       </c>
     </row>
     <row r="74">
@@ -7574,7 +7492,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-20.98993321705721</v>
+        <v>-21.54449910843435</v>
       </c>
     </row>
     <row r="75">
@@ -7582,7 +7500,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-20.95049965898044</v>
+        <v>-21.12568301983123</v>
       </c>
     </row>
     <row r="76">
@@ -7590,7 +7508,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-20.61573670162443</v>
+        <v>-21.01602571703416</v>
       </c>
     </row>
     <row r="77">
@@ -7598,7 +7516,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-20.32854335878815</v>
+        <v>-21.02928332251705</v>
       </c>
     </row>
     <row r="78">
@@ -7606,7 +7524,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-20.12747905634039</v>
+        <v>-21.00896996048023</v>
       </c>
     </row>
     <row r="79">
@@ -7614,7 +7532,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-20.97230958532192</v>
+        <v>-21.02310868195252</v>
       </c>
     </row>
     <row r="80">
@@ -7622,7 +7540,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-20.38304544973958</v>
+        <v>-21.01517120471291</v>
       </c>
     </row>
     <row r="81">
@@ -7630,7 +7548,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-20.85801671384172</v>
+        <v>-21.06200216322435</v>
       </c>
     </row>
     <row r="82">
@@ -7638,7 +7556,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-20.87583749391317</v>
+        <v>-21.12749671238671</v>
       </c>
     </row>
     <row r="83">
@@ -7646,7 +7564,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-19.97107961813482</v>
+        <v>-20.99660214263575</v>
       </c>
     </row>
     <row r="84">
@@ -7654,7 +7572,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-19.99380198294951</v>
+        <v>-21.00011660272172</v>
       </c>
     </row>
     <row r="85">
@@ -7662,7 +7580,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-19.98916389025064</v>
+        <v>-20.98863386331173</v>
       </c>
     </row>
     <row r="86">
@@ -7670,7 +7588,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-19.97197311794647</v>
+        <v>-20.9886378417072</v>
       </c>
     </row>
     <row r="87">
@@ -7678,7 +7596,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-20.07578477995184</v>
+        <v>-21.01690245819668</v>
       </c>
     </row>
     <row r="88">
@@ -7686,7 +7604,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-20.74169595932007</v>
+        <v>-21.03017156406968</v>
       </c>
     </row>
     <row r="89">
@@ -7694,7 +7612,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-20.88188390983601</v>
+        <v>-21.03018521813825</v>
       </c>
     </row>
     <row r="90">
@@ -7702,7 +7620,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-20.76128098218355</v>
+        <v>-21.01248773694037</v>
       </c>
     </row>
     <row r="91">
@@ -7710,7 +7628,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-20.82561255402218</v>
+        <v>-21.01249723457754</v>
       </c>
     </row>
     <row r="92">
@@ -7718,7 +7636,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-20.75834208582033</v>
+        <v>-20.99922981327848</v>
       </c>
     </row>
     <row r="93">
@@ -7726,7 +7644,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-20.73167422697229</v>
+        <v>-21.01691126765614</v>
       </c>
     </row>
     <row r="94">
@@ -7734,7 +7652,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-20.83052187174336</v>
+        <v>-21.00365174680631</v>
       </c>
     </row>
     <row r="95">
@@ -7742,7 +7660,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-20.73514538220933</v>
+        <v>-21.03018979234973</v>
       </c>
     </row>
     <row r="96">
@@ -7750,7 +7668,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-20.63260102757598</v>
+        <v>-21.00721101123695</v>
       </c>
     </row>
     <row r="97">
@@ -7758,7 +7676,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-20.77540055600143</v>
+        <v>-21.0204745945206</v>
       </c>
     </row>
     <row r="98">
@@ -7766,7 +7684,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-20.73670271467633</v>
+        <v>-20.99394726676472</v>
       </c>
     </row>
     <row r="99">
@@ -7774,7 +7692,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-20.790414062765</v>
+        <v>-21.20448751175778</v>
       </c>
     </row>
     <row r="100">
@@ -7782,7 +7700,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-20.7476524715007</v>
+        <v>-21.19114401605256</v>
       </c>
     </row>
     <row r="101">
@@ -7790,7 +7708,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-20.80760218945809</v>
+        <v>-21.21776792971395</v>
       </c>
     </row>
     <row r="102">
@@ -7798,7 +7716,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-20.78705875640213</v>
+        <v>-21.19474420523321</v>
       </c>
     </row>
     <row r="103">
@@ -7806,7 +7724,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-20.74870047256638</v>
+        <v>-21.13987223199073</v>
       </c>
     </row>
     <row r="104">
@@ -7814,7 +7732,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-20.75476053000059</v>
+        <v>-21.07259339747292</v>
       </c>
     </row>
     <row r="105">
@@ -7822,7 +7740,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-20.74266965656779</v>
+        <v>-21.10797978993027</v>
       </c>
     </row>
     <row r="106">
@@ -7830,7 +7748,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-20.78650094273247</v>
+        <v>-21.22116978228339</v>
       </c>
     </row>
     <row r="107">
@@ -7838,7 +7756,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-20.82386306087616</v>
+        <v>-21.23443779653395</v>
       </c>
     </row>
     <row r="108">
@@ -7846,7 +7764,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-20.78907986702825</v>
+        <v>-21.24168601839892</v>
       </c>
     </row>
     <row r="109">
@@ -7854,7 +7772,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-20.79654976740922</v>
+        <v>-21.19645431047156</v>
       </c>
     </row>
     <row r="110">
@@ -7862,7 +7780,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-20.8064766508837</v>
+        <v>-21.22831953771123</v>
       </c>
     </row>
     <row r="111">
@@ -7870,7 +7788,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-20.81907806928181</v>
+        <v>-21.12310745307462</v>
       </c>
     </row>
     <row r="112">
@@ -7878,7 +7796,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-20.79540792184448</v>
+        <v>-21.13634087034856</v>
       </c>
     </row>
     <row r="113">
@@ -7886,7 +7804,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-20.86507197507732</v>
+        <v>-21.13633612307801</v>
       </c>
     </row>
     <row r="114">
@@ -7894,7 +7812,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-20.99019504783428</v>
+        <v>-21.13892027444567</v>
       </c>
     </row>
     <row r="115">
@@ -7902,7 +7820,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-21.01953549764612</v>
+        <v>-21.33793853962439</v>
       </c>
     </row>
     <row r="116">
@@ -7910,7 +7828,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-20.93992119918841</v>
+        <v>-21.27616654571148</v>
       </c>
     </row>
     <row r="117">
@@ -7918,7 +7836,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-21.01997190511482</v>
+        <v>-21.39577681556765</v>
       </c>
     </row>
     <row r="118">
@@ -7926,7 +7844,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-21.10772976799307</v>
+        <v>-21.50210274460484</v>
       </c>
     </row>
     <row r="119">
@@ -7934,7 +7852,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-20.92939857941608</v>
+        <v>-21.01075362542192</v>
       </c>
     </row>
     <row r="120">
@@ -7942,7 +7860,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-21.21644988516152</v>
+        <v>-21.49297500972506</v>
       </c>
     </row>
     <row r="121">
@@ -7950,7 +7868,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-21.00708027596555</v>
+        <v>-21.24405063944364</v>
       </c>
     </row>
     <row r="122">
@@ -7958,7 +7876,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-21.11267232672718</v>
+        <v>-21.42932208449088</v>
       </c>
     </row>
     <row r="123">
@@ -7966,7 +7884,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-21.15101297154823</v>
+        <v>-21.48587476296388</v>
       </c>
     </row>
     <row r="124">
@@ -7974,7 +7892,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-20.99406216191377</v>
+        <v>-21.47249421063959</v>
       </c>
     </row>
     <row r="125">
@@ -7982,7 +7900,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-21.16199630490651</v>
+        <v>-21.48579535888853</v>
       </c>
     </row>
     <row r="126">
@@ -7990,7 +7908,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-20.98059298243858</v>
+        <v>-21.024821993506</v>
       </c>
     </row>
     <row r="127">
@@ -7998,7 +7916,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-21.02703118483782</v>
+        <v>-21.26977039978673</v>
       </c>
     </row>
     <row r="128">
@@ -8006,7 +7924,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-21.06440764746549</v>
+        <v>-21.27599483823718</v>
       </c>
     </row>
     <row r="129">
@@ -8014,7 +7932,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-21.09557991909184</v>
+        <v>-21.48234846506717</v>
       </c>
     </row>
     <row r="130">
@@ -8022,7 +7940,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-21.09791065345853</v>
+        <v>-21.00444112133416</v>
       </c>
     </row>
     <row r="131">
@@ -8030,7 +7948,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-21.08210226593069</v>
+        <v>-21.49557542531244</v>
       </c>
     </row>
     <row r="132">
@@ -8038,7 +7956,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-21.11026663678284</v>
+        <v>-21.46786475722526</v>
       </c>
     </row>
     <row r="133">
@@ -8046,7 +7964,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-21.03454203021153</v>
+        <v>-21.22473516021872</v>
       </c>
     </row>
     <row r="134">
@@ -8054,7 +7972,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-21.0646097576705</v>
+        <v>-21.23800239338991</v>
       </c>
     </row>
     <row r="135">
@@ -8062,7 +7980,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-20.98976188582097</v>
+        <v>-21.43878686740576</v>
       </c>
     </row>
     <row r="136">
@@ -8070,7 +7988,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-21.18576510681469</v>
+        <v>-21.45846972014811</v>
       </c>
     </row>
     <row r="137">
@@ -8078,7 +7996,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-20.83071161623253</v>
+        <v>-21.17246048144277</v>
       </c>
     </row>
     <row r="138">
@@ -8086,7 +8004,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-20.84575058810446</v>
+        <v>-21.00504633037071</v>
       </c>
     </row>
     <row r="139">
@@ -8094,7 +8012,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-21.02548319574017</v>
+        <v>-21.20004417667586</v>
       </c>
     </row>
     <row r="140">
@@ -8102,7 +8020,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-20.85967360931797</v>
+        <v>-21.04825639152548</v>
       </c>
     </row>
     <row r="141">
@@ -8110,7 +8028,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-20.8586991467587</v>
+        <v>-21.17341076067959</v>
       </c>
     </row>
     <row r="142">
@@ -8118,7 +8036,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-20.25242510054944</v>
+        <v>-20.97971933692213</v>
       </c>
     </row>
     <row r="143">
@@ -8126,7 +8044,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-20.42315856341101</v>
+        <v>-21.04467862031399</v>
       </c>
     </row>
     <row r="144">
@@ -8134,7 +8052,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-20.69725708796416</v>
+        <v>-21.03917598949661</v>
       </c>
     </row>
     <row r="145">
@@ -8142,14 +8060,14 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-20.96871850407859</v>
+        <v>-21.49570381197451</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8180,6 +8098,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testcases/timeseries/EVDay01_mix10.xlsx
+++ b/testcases/timeseries/EVDay01_mix10.xlsx
@@ -1724,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2016005877</v>
+        <v>2014005753</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1833,6 +1833,234 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2013009231</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>60</v>
+      </c>
+      <c r="G3" t="n">
+        <v>250</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2014003380</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>24</v>
+      </c>
+      <c r="G4" t="n">
+        <v>250</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2016004153</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>24</v>
+      </c>
+      <c r="G5" t="n">
+        <v>250</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2013005102</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>40</v>
+      </c>
+      <c r="G6" t="n">
+        <v>250</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2016008667</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>24</v>
+      </c>
+      <c r="G7" t="n">
+        <v>250</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2014008321</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>75</v>
+      </c>
+      <c r="G8" t="n">
+        <v>250</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>150</v>
       </c>
     </row>
@@ -1887,50 +2115,190 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2016005877</v>
+        <v>2014005753</v>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
+        <v>120</v>
+      </c>
+      <c r="D2" t="n">
+        <v>74.22751679999998</v>
+      </c>
+      <c r="E2" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="n">
+        <v>2014005753</v>
+      </c>
+      <c r="B3" t="n">
+        <v>122</v>
+      </c>
+      <c r="C3" t="n">
+        <v>123</v>
+      </c>
+      <c r="D3" t="n">
+        <v>74.22751679999998</v>
+      </c>
+      <c r="E3" t="n">
+        <v>74.64837986181676</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="n">
+        <v>2014005753</v>
+      </c>
+      <c r="B4" t="n">
+        <v>125</v>
+      </c>
+      <c r="C4" t="n">
         <v>143</v>
       </c>
-      <c r="D2" t="n">
-        <v>48.15525759566239</v>
-      </c>
-      <c r="E2" t="n">
-        <v>59.47722175000919</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="n"/>
+      <c r="D4" t="n">
+        <v>74.22751679999998</v>
+      </c>
+      <c r="E4" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="n"/>
+      <c r="A5" s="7" t="n">
+        <v>2013009231</v>
+      </c>
+      <c r="B5" t="n">
+        <v>29</v>
+      </c>
+      <c r="C5" t="n">
+        <v>123</v>
+      </c>
+      <c r="D5" t="n">
+        <v>55.92836980000001</v>
+      </c>
+      <c r="E5" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="n"/>
+      <c r="A6" s="7" t="n">
+        <v>2013009231</v>
+      </c>
+      <c r="B6" t="n">
+        <v>135</v>
+      </c>
+      <c r="C6" t="n">
+        <v>143</v>
+      </c>
+      <c r="D6" t="n">
+        <v>57.7791108</v>
+      </c>
+      <c r="E6" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="n"/>
+      <c r="A7" s="7" t="n">
+        <v>2014003380</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>109</v>
+      </c>
+      <c r="D7" t="n">
+        <v>21.86601515824407</v>
+      </c>
+      <c r="E7" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="n"/>
+      <c r="A8" s="7" t="n">
+        <v>2016004153</v>
+      </c>
+      <c r="B8" t="n">
+        <v>32</v>
+      </c>
+      <c r="C8" t="n">
+        <v>33</v>
+      </c>
+      <c r="D8" t="n">
+        <v>16.44897671824406</v>
+      </c>
+      <c r="E8" t="n">
+        <v>17.53431005157739</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="n"/>
+      <c r="A9" s="7" t="n">
+        <v>2016004153</v>
+      </c>
+      <c r="B9" t="n">
+        <v>40</v>
+      </c>
+      <c r="C9" t="n">
+        <v>117</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14.96258473157739</v>
+      </c>
+      <c r="E9" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="n"/>
+      <c r="A10" s="7" t="n">
+        <v>2013005102</v>
+      </c>
+      <c r="B10" t="n">
+        <v>39</v>
+      </c>
+      <c r="C10" t="n">
+        <v>115</v>
+      </c>
+      <c r="D10" t="n">
+        <v>36.71694586054122</v>
+      </c>
+      <c r="E10" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="n"/>
+      <c r="A11" s="7" t="n">
+        <v>2016008667</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>143</v>
+      </c>
+      <c r="D11" t="n">
+        <v>23.89056487824407</v>
+      </c>
+      <c r="E11" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="n"/>
+      <c r="A12" s="7" t="n">
+        <v>2014008321</v>
+      </c>
+      <c r="B12" t="n">
+        <v>30</v>
+      </c>
+      <c r="C12" t="n">
+        <v>117</v>
+      </c>
+      <c r="D12" t="n">
+        <v>72.60530206327788</v>
+      </c>
+      <c r="E12" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="n"/>
@@ -5583,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>26.21072776765836</v>
+        <v>33.47097882156577</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -5592,7 +5960,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>25.55235586048195</v>
+        <v>33.7282755485087</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -5601,7 +5969,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>25.55237000048496</v>
+        <v>31.9612198039415</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -5610,7 +5978,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>25.58868501077522</v>
+        <v>32.70850763657926</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -5619,7 +5987,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>25.69180010705713</v>
+        <v>32.8396454000668</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -5628,7 +5996,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>25.7278003403048</v>
+        <v>32.47525817475555</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -5637,7 +6005,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>25.69263301142603</v>
+        <v>31.53890187472295</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -5646,7 +6014,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>25.26220037203898</v>
+        <v>31.56034307381087</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -5655,7 +6023,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>25.35309708667635</v>
+        <v>32.79407306838309</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -5664,7 +6032,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>25.35296586938438</v>
+        <v>32.39341313948172</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -5673,7 +6041,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>26.08988104387573</v>
+        <v>33.76680779475866</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -5682,7 +6050,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>26.08981759295635</v>
+        <v>31.5196720528636</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -5691,7 +6059,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>26.0353430201487</v>
+        <v>31.96132406316206</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -5700,7 +6068,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>25.73592911700674</v>
+        <v>34.00392052216916</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -5709,7 +6077,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>25.70054114170391</v>
+        <v>30.77997909846665</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -5718,7 +6086,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>25.64591580932377</v>
+        <v>33.16966175520226</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -5727,7 +6095,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>25.56331939726842</v>
+        <v>33.22012032572775</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -5736,7 +6104,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>25.58155560147653</v>
+        <v>32.04108056708445</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -5745,7 +6113,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>25.52706100078073</v>
+        <v>31.96136532700925</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -5754,7 +6122,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>25.13666741829288</v>
+        <v>32.94428061429434</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -5763,7 +6131,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>25.17271215563681</v>
+        <v>31.02876046077352</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -5772,7 +6140,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>25.64562922007993</v>
+        <v>30.19976493954887</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -5781,7 +6149,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>26.07457994869852</v>
+        <v>29.98055036751586</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -5790,7 +6158,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>25.54528349867179</v>
+        <v>32.31291176201007</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -5799,7 +6167,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>25.2550846488861</v>
+        <v>30.58501974621917</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -5808,7 +6176,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>25.38510318205743</v>
+        <v>32.57814924203268</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -5817,7 +6185,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>25.61070159919363</v>
+        <v>32.88848668471124</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -5826,7 +6194,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>25.77062050252573</v>
+        <v>32.20307927140578</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -5835,7 +6203,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>25.06220293133611</v>
+        <v>31.43122617947865</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -5844,7 +6212,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>25.2081784060101</v>
+        <v>30.65362854103433</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -5853,7 +6221,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>25.22639384051646</v>
+        <v>32.44350319592935</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -5862,7 +6230,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>25.80934107581895</v>
+        <v>32.54871478382622</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -5871,7 +6239,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>25.93689014550318</v>
+        <v>31.55842153216274</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -5880,7 +6248,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>25.84658424268954</v>
+        <v>31.64301318352691</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -5889,7 +6257,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>25.88256343971704</v>
+        <v>33.23156547025908</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -5898,7 +6266,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>25.8290017315025</v>
+        <v>33.34665688206597</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -5907,7 +6275,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>25.82757068900044</v>
+        <v>33.24674721782002</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -5916,7 +6284,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>25.12721122418475</v>
+        <v>32.28981869003005</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -5925,7 +6293,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>25.01774960615979</v>
+        <v>32.39626150792034</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -5934,7 +6302,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>24.5437483105845</v>
+        <v>31.22177279783091</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -5943,7 +6311,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>25.53897375251615</v>
+        <v>31.74362614102968</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -5952,7 +6320,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>25.77567140305886</v>
+        <v>29.82573729042661</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -5961,7 +6329,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>25.50832579435736</v>
+        <v>31.79470255298816</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -5970,7 +6338,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>25.67108720257413</v>
+        <v>31.01096244045587</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -5979,7 +6347,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>25.89143887527977</v>
+        <v>31.38033562092545</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -5988,7 +6356,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>25.89769128335526</v>
+        <v>31.08557459116793</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -5997,7 +6365,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>25.95759753433618</v>
+        <v>31.45935375285703</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -6006,7 +6374,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>25.92744960880864</v>
+        <v>30.84897821071842</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -6015,7 +6383,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>25.78780891217266</v>
+        <v>30.55446686282222</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -6024,7 +6392,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>25.47819718895136</v>
+        <v>32.53580499326943</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -6033,7 +6401,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>25.47840080662847</v>
+        <v>31.92682773556691</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -6042,7 +6410,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>25.47800961521232</v>
+        <v>31.77556336134368</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -6051,7 +6419,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>25.1410604725127</v>
+        <v>31.63802395879442</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -6060,7 +6428,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>25.12267818811726</v>
+        <v>32.91701896955505</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -6069,7 +6437,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>25.1411498486226</v>
+        <v>33.42602818977183</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -6078,7 +6446,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>24.80647791061489</v>
+        <v>32.46687577097813</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -6087,7 +6455,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>24.62137148834696</v>
+        <v>32.27880292377797</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -6096,7 +6464,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>24.78764667737159</v>
+        <v>32.0048872929457</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -6105,7 +6473,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>25.04360937955142</v>
+        <v>32.37190548936439</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -6114,7 +6482,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>25.11656666702837</v>
+        <v>33.81733723428588</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -6123,7 +6491,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>25.0437618356781</v>
+        <v>33.00896731002307</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -6132,7 +6500,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>25.68497514088661</v>
+        <v>34.24112524286461</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -6141,7 +6509,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>25.8043138116955</v>
+        <v>34.64809546793854</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -6150,7 +6518,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>25.81429225505546</v>
+        <v>35.64380758183287</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -6159,7 +6527,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>25.93302807621829</v>
+        <v>35.15396495373525</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -6168,7 +6536,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>25.8967438204881</v>
+        <v>36.56927526831172</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -6177,7 +6545,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>25.78480883431806</v>
+        <v>36.48020114830841</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -6186,7 +6554,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>25.28043937939366</v>
+        <v>35.83088609616765</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -6195,7 +6563,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>25.9879840997364</v>
+        <v>36.42929498238748</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -6204,7 +6572,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>25.44506268001684</v>
+        <v>36.87850347349767</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -6213,7 +6581,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>25.9509481769687</v>
+        <v>36.26212919347191</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -6222,7 +6590,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>25.91199472429252</v>
+        <v>35.7279366949093</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -6231,7 +6599,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>25.25985426556053</v>
+        <v>35.35213960495366</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -6240,7 +6608,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>25.36988173636005</v>
+        <v>37.15327426800014</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -6249,7 +6617,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>25.44725114556717</v>
+        <v>35.80807025148369</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -6258,7 +6626,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>26.26383692855732</v>
+        <v>35.87496485217262</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -6267,7 +6635,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>26.53177287811598</v>
+        <v>36.22508013287801</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -6276,7 +6644,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>26.17222704778208</v>
+        <v>35.18804761354605</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -6285,7 +6653,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>25.82597993271593</v>
+        <v>35.26167339287669</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -6294,7 +6662,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>25.58837330245975</v>
+        <v>37.73697689180894</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -6303,7 +6671,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>26.17736202109939</v>
+        <v>37.69525404390516</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -6312,7 +6680,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>26.68436385173201</v>
+        <v>37.00829819780443</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -6321,7 +6689,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>26.72828993555321</v>
+        <v>38.20114495456779</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -6330,7 +6698,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>26.43284555951605</v>
+        <v>37.98733285702406</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -6339,7 +6707,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>26.23215450227555</v>
+        <v>37.55233663341153</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -6348,7 +6716,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>25.64586436468242</v>
+        <v>38.47165918763171</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -6357,7 +6725,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>25.60364173667682</v>
+        <v>37.85551796758365</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -6366,7 +6734,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>25.82146025820101</v>
+        <v>37.24648913964926</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -6375,7 +6743,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>26.40847704476237</v>
+        <v>37.06804570499543</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -6384,7 +6752,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>26.54813687903856</v>
+        <v>36.83654122298378</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -6393,7 +6761,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>26.57159466815893</v>
+        <v>36.54268571963602</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -6402,7 +6770,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>26.54762625220915</v>
+        <v>35.56523197258892</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -6411,7 +6779,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>26.22047208895756</v>
+        <v>36.70879489046681</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -6420,7 +6788,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>26.32007687161659</v>
+        <v>36.44070715603686</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -6429,7 +6797,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>26.56387802925476</v>
+        <v>36.60388862880604</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -6438,7 +6806,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>26.59944842005779</v>
+        <v>33.19005769679099</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -6447,7 +6815,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>26.52660219325483</v>
+        <v>34.43359579805612</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -6456,7 +6824,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>26.38442059746066</v>
+        <v>35.06323119922809</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -6465,7 +6833,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>26.51608418979581</v>
+        <v>34.20312411587144</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -6474,7 +6842,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>26.08515222289619</v>
+        <v>35.1667308067248</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -6483,7 +6851,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>25.95542067776921</v>
+        <v>35.13030848298553</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -6492,7 +6860,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>26.42192005900649</v>
+        <v>35.96648979002136</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -6501,7 +6869,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>26.43451958290652</v>
+        <v>36.01682228696777</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -6510,7 +6878,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>26.4341173208122</v>
+        <v>37.16261287146576</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -6519,7 +6887,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>26.48909954411742</v>
+        <v>36.1179925242515</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -6528,7 +6896,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>26.13946690115286</v>
+        <v>36.38875759576296</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -6537,7 +6905,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>26.53586393427487</v>
+        <v>35.22528903304887</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -6546,7 +6914,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>26.33541177547585</v>
+        <v>32.5132091338003</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -6555,7 +6923,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>26.5240033045448</v>
+        <v>33.05411593915467</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -6564,7 +6932,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>26.40131017209712</v>
+        <v>32.95342830515283</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -6573,7 +6941,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>26.09233177060147</v>
+        <v>32.8270272417975</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -6582,7 +6950,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>26.20805850293815</v>
+        <v>33.95297643376359</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -6591,7 +6959,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>26.44460207523053</v>
+        <v>33.23902969244709</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -6600,7 +6968,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>26.3296442872942</v>
+        <v>32.63414789046556</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -6609,7 +6977,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>25.65616666576597</v>
+        <v>31.42598475614292</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -6618,7 +6986,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>26.02214942641399</v>
+        <v>34.39524917221257</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -6627,7 +6995,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>26.39734066883858</v>
+        <v>33.85518248948162</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -6636,7 +7004,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>26.28594340174111</v>
+        <v>31.64255735095281</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -6645,7 +7013,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>26.34664540635692</v>
+        <v>32.78649309456423</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -6654,7 +7022,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>26.41713836285458</v>
+        <v>30.64292098945901</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -6663,7 +7031,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>26.40116576613369</v>
+        <v>33.01544038795686</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -6672,7 +7040,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>26.16154222956658</v>
+        <v>33.08693702993479</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -6681,7 +7049,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>26.21362470002896</v>
+        <v>32.73210361249254</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -6690,7 +7058,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>26.32302547759258</v>
+        <v>33.36880433591977</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -6699,7 +7067,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>26.44074123193706</v>
+        <v>34.97430239419205</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -6708,7 +7076,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>26.27198596224164</v>
+        <v>33.65810989757971</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -6717,7 +7085,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>25.9863888661288</v>
+        <v>33.09696728575293</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -6726,7 +7094,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>25.75905629569721</v>
+        <v>33.20167509954238</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -6735,7 +7103,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>25.75873763505874</v>
+        <v>34.67575261750738</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -6744,7 +7112,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>25.7483693349156</v>
+        <v>33.45072870833411</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -6753,7 +7121,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>25.94790020097016</v>
+        <v>34.58816645288768</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -6762,7 +7130,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>25.96627936934989</v>
+        <v>34.15509721391567</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -6771,7 +7139,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>25.94820725513194</v>
+        <v>33.75339651820885</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -6780,7 +7148,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>25.65646382513799</v>
+        <v>32.54589054417961</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -6789,7 +7157,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>25.74724266185463</v>
+        <v>32.23968873290585</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -6798,7 +7166,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>25.6384858605958</v>
+        <v>34.06669429015678</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -6807,7 +7175,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>26.07800176510126</v>
+        <v>34.02243483324511</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -6816,7 +7184,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>26.14658272316177</v>
+        <v>32.31851909520169</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -6825,7 +7193,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>26.12807158535642</v>
+        <v>32.72581024536886</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -6834,7 +7202,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>25.67481366020588</v>
+        <v>33.07703105495873</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -6843,7 +7211,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>25.67506287599819</v>
+        <v>32.56473529803662</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -6852,7 +7220,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>25.67527123921588</v>
+        <v>32.30270832025271</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -6861,7 +7229,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>26.310185729915</v>
+        <v>33.31968826897355</v>
       </c>
     </row>
     <row r="145">
@@ -6869,7 +7237,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>26.10302864946409</v>
+        <v>35.47599942749154</v>
       </c>
     </row>
     <row r="146">
@@ -6916,7 +7284,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-21.05835005732447</v>
+        <v>-33.93746851892925</v>
       </c>
     </row>
     <row r="3">
@@ -6924,7 +7292,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-21.50197659045299</v>
+        <v>-33.93167383061653</v>
       </c>
     </row>
     <row r="4">
@@ -6932,7 +7300,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-21.00796248221783</v>
+        <v>-33.75589861335573</v>
       </c>
     </row>
     <row r="5">
@@ -6940,7 +7308,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-21.03554847907253</v>
+        <v>-34.27486018843633</v>
       </c>
     </row>
     <row r="6">
@@ -6948,7 +7316,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-21.01942123081023</v>
+        <v>-33.7888638934316</v>
       </c>
     </row>
     <row r="7">
@@ -6956,7 +7324,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-21.00887173755649</v>
+        <v>-34.11148378033398</v>
       </c>
     </row>
     <row r="8">
@@ -6964,7 +7332,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-20.99560723610577</v>
+        <v>-33.88670287490083</v>
       </c>
     </row>
     <row r="9">
@@ -6972,7 +7340,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-21.01126334223213</v>
+        <v>-33.82074159188335</v>
       </c>
     </row>
     <row r="10">
@@ -6980,7 +7348,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-21.02209918381584</v>
+        <v>-33.95471816003279</v>
       </c>
     </row>
     <row r="11">
@@ -6988,7 +7356,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-21.02209877951048</v>
+        <v>-33.96705239220974</v>
       </c>
     </row>
     <row r="12">
@@ -6996,7 +7364,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-21.00705406447978</v>
+        <v>-33.77772900552547</v>
       </c>
     </row>
     <row r="13">
@@ -7004,7 +7372,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-20.99378889473294</v>
+        <v>-33.82786322595571</v>
       </c>
     </row>
     <row r="14">
@@ -7012,7 +7380,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-21.08976328868737</v>
+        <v>-33.52390937622121</v>
       </c>
     </row>
     <row r="15">
@@ -7020,7 +7388,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-21.11735267597023</v>
+        <v>-34.0724484676561</v>
       </c>
     </row>
     <row r="16">
@@ -7028,7 +7396,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-21.0385696906323</v>
+        <v>-33.93785406927523</v>
       </c>
     </row>
     <row r="17">
@@ -7036,7 +7404,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-20.98665069274772</v>
+        <v>-33.50170282330799</v>
       </c>
     </row>
     <row r="18">
@@ -7044,7 +7412,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-20.99571242181226</v>
+        <v>-34.86813776826374</v>
       </c>
     </row>
     <row r="19">
@@ -7052,7 +7420,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-21.63628921043965</v>
+        <v>-34.72027187682851</v>
       </c>
     </row>
     <row r="20">
@@ -7060,7 +7428,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-21.64380434733168</v>
+        <v>-34.90513573732334</v>
       </c>
     </row>
     <row r="21">
@@ -7068,7 +7436,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-21.13690710100323</v>
+        <v>-34.89875372728086</v>
       </c>
     </row>
     <row r="22">
@@ -7076,7 +7444,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-20.98416320355335</v>
+        <v>-35.82120399073978</v>
       </c>
     </row>
     <row r="23">
@@ -7084,7 +7452,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-21.16722913210872</v>
+        <v>-34.72427555182467</v>
       </c>
     </row>
     <row r="24">
@@ -7092,7 +7460,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-20.98857448186973</v>
+        <v>-33.83345731661883</v>
       </c>
     </row>
     <row r="25">
@@ -7100,7 +7468,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-21.49190286974227</v>
+        <v>-34.85351354848011</v>
       </c>
     </row>
     <row r="26">
@@ -7108,7 +7476,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-21.02483735186003</v>
+        <v>-34.84438955012592</v>
       </c>
     </row>
     <row r="27">
@@ -7116,7 +7484,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-21.21038038866032</v>
+        <v>-34.60343678378377</v>
       </c>
     </row>
     <row r="28">
@@ -7124,7 +7492,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-21.18306450646617</v>
+        <v>-33.84850008854738</v>
       </c>
     </row>
     <row r="29">
@@ -7132,7 +7500,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-21.19633228674092</v>
+        <v>-34.23469990974473</v>
       </c>
     </row>
     <row r="30">
@@ -7140,7 +7508,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-21.33263889653549</v>
+        <v>-34.24689319333165</v>
       </c>
     </row>
     <row r="31">
@@ -7148,7 +7516,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-21.24957859755472</v>
+        <v>-34.37762244698001</v>
       </c>
     </row>
     <row r="32">
@@ -7156,7 +7524,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-21.33263223711335</v>
+        <v>-34.34207849090907</v>
       </c>
     </row>
     <row r="33">
@@ -7164,7 +7532,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-21.36165234270569</v>
+        <v>-34.48475681197132</v>
       </c>
     </row>
     <row r="34">
@@ -7172,7 +7540,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-21.36158627928853</v>
+        <v>-34.89420665298551</v>
       </c>
     </row>
     <row r="35">
@@ -7180,7 +7548,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-21.37503915707352</v>
+        <v>-34.48359446236998</v>
       </c>
     </row>
     <row r="36">
@@ -7188,7 +7556,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-21.39819742427864</v>
+        <v>-33.5641753308074</v>
       </c>
     </row>
     <row r="37">
@@ -7196,7 +7564,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-21.29894781748345</v>
+        <v>-33.86623395787213</v>
       </c>
     </row>
     <row r="38">
@@ -7204,7 +7572,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-21.39824841804381</v>
+        <v>-34.00934959355558</v>
       </c>
     </row>
     <row r="39">
@@ -7212,7 +7580,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-21.40871123527756</v>
+        <v>-34.09066321166111</v>
       </c>
     </row>
     <row r="40">
@@ -7220,7 +7588,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-21.40872428682504</v>
+        <v>-33.7394151022747</v>
       </c>
     </row>
     <row r="41">
@@ -7228,7 +7596,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-21.41661277883764</v>
+        <v>-34.40238963775936</v>
       </c>
     </row>
     <row r="42">
@@ -7236,7 +7604,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-21.38050487104394</v>
+        <v>-34.17493314728728</v>
       </c>
     </row>
     <row r="43">
@@ -7244,7 +7612,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-21.39379859824443</v>
+        <v>-34.46888475242309</v>
       </c>
     </row>
     <row r="44">
@@ -7252,7 +7620,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-21.38050453522889</v>
+        <v>-34.13563420639814</v>
       </c>
     </row>
     <row r="45">
@@ -7260,7 +7628,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-21.2662002058298</v>
+        <v>-34.55240826256534</v>
       </c>
     </row>
     <row r="46">
@@ -7268,7 +7636,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-21.26619030261436</v>
+        <v>-34.57830233868766</v>
       </c>
     </row>
     <row r="47">
@@ -7276,7 +7644,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-21.27944476013425</v>
+        <v>-34.33725651034623</v>
       </c>
     </row>
     <row r="48">
@@ -7284,7 +7652,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-21.25186077510171</v>
+        <v>-34.46914457451465</v>
       </c>
     </row>
     <row r="49">
@@ -7292,7 +7660,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-21.25200005327134</v>
+        <v>-34.46879861624252</v>
       </c>
     </row>
     <row r="50">
@@ -7300,7 +7668,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-21.25205026628741</v>
+        <v>-35.09118890531406</v>
       </c>
     </row>
     <row r="51">
@@ -7308,7 +7676,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-21.39124049868975</v>
+        <v>-34.60443451248853</v>
       </c>
     </row>
     <row r="52">
@@ -7316,7 +7684,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-21.39124269429504</v>
+        <v>-33.91599047295704</v>
       </c>
     </row>
     <row r="53">
@@ -7324,7 +7692,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-21.37795576282282</v>
+        <v>-34.37980433691489</v>
       </c>
     </row>
     <row r="54">
@@ -7332,7 +7700,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-21.4043754581209</v>
+        <v>-34.28706002906518</v>
       </c>
     </row>
     <row r="55">
@@ -7340,7 +7708,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-21.39209770543449</v>
+        <v>-34.53953071686323</v>
       </c>
     </row>
     <row r="56">
@@ -7348,7 +7716,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-21.37867310773994</v>
+        <v>-34.49915625035717</v>
       </c>
     </row>
     <row r="57">
@@ -7356,7 +7724,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-21.39915303650919</v>
+        <v>-34.50589763116335</v>
       </c>
     </row>
     <row r="58">
@@ -7364,7 +7732,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-21.41234152552542</v>
+        <v>-34.05141682677242</v>
       </c>
     </row>
     <row r="59">
@@ -7372,7 +7740,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-21.4124178067257</v>
+        <v>-33.95418722340676</v>
       </c>
     </row>
     <row r="60">
@@ -7380,7 +7748,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-21.38131145281244</v>
+        <v>-34.87202697615511</v>
       </c>
     </row>
     <row r="61">
@@ -7388,7 +7756,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-21.38575746361318</v>
+        <v>-34.10309037619926</v>
       </c>
     </row>
     <row r="62">
@@ -7396,7 +7764,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-21.36620456819752</v>
+        <v>-34.01709373275717</v>
       </c>
     </row>
     <row r="63">
@@ -7404,7 +7772,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-21.28129430546866</v>
+        <v>-33.81132048395251</v>
       </c>
     </row>
     <row r="64">
@@ -7412,7 +7780,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-21.29458428599552</v>
+        <v>-33.90128469175858</v>
       </c>
     </row>
     <row r="65">
@@ -7420,7 +7788,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-21.09472120358871</v>
+        <v>-34.02339889854213</v>
       </c>
     </row>
     <row r="66">
@@ -7428,7 +7796,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-21.042555084909</v>
+        <v>-33.43845725879422</v>
       </c>
     </row>
     <row r="67">
@@ -7436,7 +7804,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-21.08232392845864</v>
+        <v>-33.47001830288144</v>
       </c>
     </row>
     <row r="68">
@@ -7444,7 +7812,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-21.09555898707756</v>
+        <v>-33.39741679054911</v>
       </c>
     </row>
     <row r="69">
@@ -7452,7 +7820,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-21.00983964104118</v>
+        <v>-33.30830709881041</v>
       </c>
     </row>
     <row r="70">
@@ -7460,7 +7828,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-21.0098441247333</v>
+        <v>-33.19770739551138</v>
       </c>
     </row>
     <row r="71">
@@ -7468,7 +7836,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-21.01959393149018</v>
+        <v>-33.3298753983639</v>
       </c>
     </row>
     <row r="72">
@@ -7476,7 +7844,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-21.01693801494144</v>
+        <v>-33.24131548591418</v>
       </c>
     </row>
     <row r="73">
@@ -7484,7 +7852,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-21.5718173595523</v>
+        <v>-33.22417439531427</v>
       </c>
     </row>
     <row r="74">
@@ -7492,7 +7860,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-21.54449910843435</v>
+        <v>-33.26775917040065</v>
       </c>
     </row>
     <row r="75">
@@ -7500,7 +7868,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-21.12568301983123</v>
+        <v>-33.30041365023533</v>
       </c>
     </row>
     <row r="76">
@@ -7508,7 +7876,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-21.01602571703416</v>
+        <v>-33.27807261251706</v>
       </c>
     </row>
     <row r="77">
@@ -7516,7 +7884,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-21.02928332251705</v>
+        <v>-33.30064512657138</v>
       </c>
     </row>
     <row r="78">
@@ -7524,7 +7892,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-21.00896996048023</v>
+        <v>-33.55986622720103</v>
       </c>
     </row>
     <row r="79">
@@ -7532,7 +7900,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-21.02310868195252</v>
+        <v>-33.34640356494896</v>
       </c>
     </row>
     <row r="80">
@@ -7540,7 +7908,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-21.01517120471291</v>
+        <v>-33.59286788972719</v>
       </c>
     </row>
     <row r="81">
@@ -7548,7 +7916,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-21.06200216322435</v>
+        <v>-33.08705826051156</v>
       </c>
     </row>
     <row r="82">
@@ -7556,7 +7924,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-21.12749671238671</v>
+        <v>-33.11727832809881</v>
       </c>
     </row>
     <row r="83">
@@ -7564,7 +7932,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-20.99660214263575</v>
+        <v>-33.09970108171177</v>
       </c>
     </row>
     <row r="84">
@@ -7572,7 +7940,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-21.00011660272172</v>
+        <v>-32.96394151275744</v>
       </c>
     </row>
     <row r="85">
@@ -7580,7 +7948,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-20.98863386331173</v>
+        <v>-33.09780297761456</v>
       </c>
     </row>
     <row r="86">
@@ -7588,7 +7956,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-20.9886378417072</v>
+        <v>-33.17896984247113</v>
       </c>
     </row>
     <row r="87">
@@ -7596,7 +7964,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-21.01690245819668</v>
+        <v>-32.94920899624571</v>
       </c>
     </row>
     <row r="88">
@@ -7604,7 +7972,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-21.03017156406968</v>
+        <v>-33.05105792335215</v>
       </c>
     </row>
     <row r="89">
@@ -7612,7 +7980,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-21.03018521813825</v>
+        <v>-33.11360809347601</v>
       </c>
     </row>
     <row r="90">
@@ -7620,7 +7988,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-21.01248773694037</v>
+        <v>-32.95350836150484</v>
       </c>
     </row>
     <row r="91">
@@ -7628,7 +7996,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-21.01249723457754</v>
+        <v>-32.98398284476188</v>
       </c>
     </row>
     <row r="92">
@@ -7636,7 +8004,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-20.99922981327848</v>
+        <v>-32.9123737248409</v>
       </c>
     </row>
     <row r="93">
@@ -7644,7 +8012,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-21.01691126765614</v>
+        <v>-33.03295203134721</v>
       </c>
     </row>
     <row r="94">
@@ -7652,7 +8020,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-21.00365174680631</v>
+        <v>-33.01007931504475</v>
       </c>
     </row>
     <row r="95">
@@ -7660,7 +8028,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-21.03018979234973</v>
+        <v>-32.94816847034877</v>
       </c>
     </row>
     <row r="96">
@@ -7668,7 +8036,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-21.00721101123695</v>
+        <v>-33.09866653108761</v>
       </c>
     </row>
     <row r="97">
@@ -7676,7 +8044,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-21.0204745945206</v>
+        <v>-33.8820308247745</v>
       </c>
     </row>
     <row r="98">
@@ -7684,7 +8052,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-20.99394726676472</v>
+        <v>-33.16322347308997</v>
       </c>
     </row>
     <row r="99">
@@ -7692,7 +8060,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-21.20448751175778</v>
+        <v>-32.96274281669361</v>
       </c>
     </row>
     <row r="100">
@@ -7700,7 +8068,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-21.19114401605256</v>
+        <v>-33.92311116664916</v>
       </c>
     </row>
     <row r="101">
@@ -7708,7 +8076,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-21.21776792971395</v>
+        <v>-32.98459464117973</v>
       </c>
     </row>
     <row r="102">
@@ -7716,7 +8084,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-21.19474420523321</v>
+        <v>-32.89353602701421</v>
       </c>
     </row>
     <row r="103">
@@ -7724,7 +8092,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-21.13987223199073</v>
+        <v>-33.29115072379065</v>
       </c>
     </row>
     <row r="104">
@@ -7732,7 +8100,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-21.07259339747292</v>
+        <v>-33.18408095366622</v>
       </c>
     </row>
     <row r="105">
@@ -7740,7 +8108,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-21.10797978993027</v>
+        <v>-32.94579269857262</v>
       </c>
     </row>
     <row r="106">
@@ -7748,7 +8116,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-21.22116978228339</v>
+        <v>-33.01458900354437</v>
       </c>
     </row>
     <row r="107">
@@ -7756,7 +8124,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-21.23443779653395</v>
+        <v>-32.99156753203628</v>
       </c>
     </row>
     <row r="108">
@@ -7764,7 +8132,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-21.24168601839892</v>
+        <v>-32.91292635895664</v>
       </c>
     </row>
     <row r="109">
@@ -7772,7 +8140,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-21.19645431047156</v>
+        <v>-35.14118646951735</v>
       </c>
     </row>
     <row r="110">
@@ -7780,7 +8148,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-21.22831953771123</v>
+        <v>-34.37108297078518</v>
       </c>
     </row>
     <row r="111">
@@ -7788,7 +8156,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-21.12310745307462</v>
+        <v>-34.40032572055333</v>
       </c>
     </row>
     <row r="112">
@@ -7796,7 +8164,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-21.13634087034856</v>
+        <v>-33.43685899357917</v>
       </c>
     </row>
     <row r="113">
@@ -7804,7 +8172,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-21.13633612307801</v>
+        <v>-33.36470617575591</v>
       </c>
     </row>
     <row r="114">
@@ -7812,7 +8180,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-21.13892027444567</v>
+        <v>-34.64098889637747</v>
       </c>
     </row>
     <row r="115">
@@ -7820,7 +8188,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-21.33793853962439</v>
+        <v>-34.26187566044087</v>
       </c>
     </row>
     <row r="116">
@@ -7828,7 +8196,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-21.27616654571148</v>
+        <v>-34.65973987430884</v>
       </c>
     </row>
     <row r="117">
@@ -7836,7 +8204,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-21.39577681556765</v>
+        <v>-34.29402385544065</v>
       </c>
     </row>
     <row r="118">
@@ -7844,7 +8212,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-21.50210274460484</v>
+        <v>-34.47993760277752</v>
       </c>
     </row>
     <row r="119">
@@ -7852,7 +8220,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-21.01075362542192</v>
+        <v>-34.64003803632575</v>
       </c>
     </row>
     <row r="120">
@@ -7860,7 +8228,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-21.49297500972506</v>
+        <v>-35.03900602570396</v>
       </c>
     </row>
     <row r="121">
@@ -7868,7 +8236,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-21.24405063944364</v>
+        <v>-34.74224978058316</v>
       </c>
     </row>
     <row r="122">
@@ -7876,7 +8244,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-21.42932208449088</v>
+        <v>-34.37903122035354</v>
       </c>
     </row>
     <row r="123">
@@ -7884,7 +8252,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-21.48587476296388</v>
+        <v>-34.47427610115484</v>
       </c>
     </row>
     <row r="124">
@@ -7892,7 +8260,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-21.47249421063959</v>
+        <v>-34.24607199588823</v>
       </c>
     </row>
     <row r="125">
@@ -7900,7 +8268,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-21.48579535888853</v>
+        <v>-34.65790417942779</v>
       </c>
     </row>
     <row r="126">
@@ -7908,7 +8276,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-21.024821993506</v>
+        <v>-33.70760194246393</v>
       </c>
     </row>
     <row r="127">
@@ -7916,7 +8284,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-21.26977039978673</v>
+        <v>-33.41644889939597</v>
       </c>
     </row>
     <row r="128">
@@ -7924,7 +8292,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-21.27599483823718</v>
+        <v>-33.53207615838388</v>
       </c>
     </row>
     <row r="129">
@@ -7932,7 +8300,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-21.48234846506717</v>
+        <v>-33.13529745996003</v>
       </c>
     </row>
     <row r="130">
@@ -7940,7 +8308,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-21.00444112133416</v>
+        <v>-33.61176125847302</v>
       </c>
     </row>
     <row r="131">
@@ -7948,7 +8316,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-21.49557542531244</v>
+        <v>-33.63944864961798</v>
       </c>
     </row>
     <row r="132">
@@ -7956,7 +8324,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-21.46786475722526</v>
+        <v>-33.36324122660331</v>
       </c>
     </row>
     <row r="133">
@@ -7964,7 +8332,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-21.22473516021872</v>
+        <v>-34.13940014409039</v>
       </c>
     </row>
     <row r="134">
@@ -7972,7 +8340,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-21.23800239338991</v>
+        <v>-33.80990016758746</v>
       </c>
     </row>
     <row r="135">
@@ -7980,7 +8348,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-21.43878686740576</v>
+        <v>-33.65597828066157</v>
       </c>
     </row>
     <row r="136">
@@ -7988,7 +8356,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-21.45846972014811</v>
+        <v>-34.19736533535507</v>
       </c>
     </row>
     <row r="137">
@@ -7996,7 +8364,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-21.17246048144277</v>
+        <v>-33.69762502232806</v>
       </c>
     </row>
     <row r="138">
@@ -8004,7 +8372,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-21.00504633037071</v>
+        <v>-34.57974420229015</v>
       </c>
     </row>
     <row r="139">
@@ -8012,7 +8380,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-21.20004417667586</v>
+        <v>-34.34688195441026</v>
       </c>
     </row>
     <row r="140">
@@ -8020,7 +8388,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-21.04825639152548</v>
+        <v>-34.13077118955038</v>
       </c>
     </row>
     <row r="141">
@@ -8028,7 +8396,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-21.17341076067959</v>
+        <v>-34.10022499927683</v>
       </c>
     </row>
     <row r="142">
@@ -8036,7 +8404,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-20.97971933692213</v>
+        <v>-33.79233027816662</v>
       </c>
     </row>
     <row r="143">
@@ -8044,7 +8412,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-21.04467862031399</v>
+        <v>-33.98055816754312</v>
       </c>
     </row>
     <row r="144">
@@ -8052,7 +8420,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-21.03917598949661</v>
+        <v>-34.10337240582449</v>
       </c>
     </row>
     <row r="145">
@@ -8060,7 +8428,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-21.49570381197451</v>
+        <v>-33.82223654812726</v>
       </c>
     </row>
     <row r="146">

--- a/testcases/timeseries/EVDay01_mix10.xlsx
+++ b/testcases/timeseries/EVDay01_mix10.xlsx
@@ -1724,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2014005753</v>
+        <v>2014001217</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1833,234 +1833,6 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2013009231</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F3" t="n">
-        <v>60</v>
-      </c>
-      <c r="G3" t="n">
-        <v>250</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2014003380</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F4" t="n">
-        <v>24</v>
-      </c>
-      <c r="G4" t="n">
-        <v>250</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2016004153</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>24</v>
-      </c>
-      <c r="G5" t="n">
-        <v>250</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2013005102</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F6" t="n">
-        <v>40</v>
-      </c>
-      <c r="G6" t="n">
-        <v>250</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2016008667</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F7" t="n">
-        <v>24</v>
-      </c>
-      <c r="G7" t="n">
-        <v>250</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2014008321</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F8" t="n">
-        <v>75</v>
-      </c>
-      <c r="G8" t="n">
-        <v>250</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
         <v>150</v>
       </c>
     </row>
@@ -2115,16 +1887,16 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2014005753</v>
+        <v>2014001217</v>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C2" t="n">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="D2" t="n">
-        <v>74.22751679999998</v>
+        <v>73.068792</v>
       </c>
       <c r="E2" t="n">
         <v>75</v>
@@ -2132,173 +1904,47 @@
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2014005753</v>
+        <v>2014001217</v>
       </c>
       <c r="B3" t="n">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="C3" t="n">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D3" t="n">
-        <v>74.22751679999998</v>
+        <v>73.068792</v>
       </c>
       <c r="E3" t="n">
-        <v>74.64837986181676</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="n">
-        <v>2014005753</v>
-      </c>
-      <c r="B4" t="n">
-        <v>125</v>
-      </c>
-      <c r="C4" t="n">
-        <v>143</v>
-      </c>
-      <c r="D4" t="n">
-        <v>74.22751679999998</v>
-      </c>
-      <c r="E4" t="n">
-        <v>75</v>
-      </c>
+      <c r="A4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="n">
-        <v>2013009231</v>
-      </c>
-      <c r="B5" t="n">
-        <v>29</v>
-      </c>
-      <c r="C5" t="n">
-        <v>123</v>
-      </c>
-      <c r="D5" t="n">
-        <v>55.92836980000001</v>
-      </c>
-      <c r="E5" t="n">
-        <v>60</v>
-      </c>
+      <c r="A5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="n">
-        <v>2013009231</v>
-      </c>
-      <c r="B6" t="n">
-        <v>135</v>
-      </c>
-      <c r="C6" t="n">
-        <v>143</v>
-      </c>
-      <c r="D6" t="n">
-        <v>57.7791108</v>
-      </c>
-      <c r="E6" t="n">
-        <v>60</v>
-      </c>
+      <c r="A6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="n">
-        <v>2014003380</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>109</v>
-      </c>
-      <c r="D7" t="n">
-        <v>21.86601515824407</v>
-      </c>
-      <c r="E7" t="n">
-        <v>24</v>
-      </c>
+      <c r="A7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="n">
-        <v>2016004153</v>
-      </c>
-      <c r="B8" t="n">
-        <v>32</v>
-      </c>
-      <c r="C8" t="n">
-        <v>33</v>
-      </c>
-      <c r="D8" t="n">
-        <v>16.44897671824406</v>
-      </c>
-      <c r="E8" t="n">
-        <v>17.53431005157739</v>
-      </c>
+      <c r="A8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="n">
-        <v>2016004153</v>
-      </c>
-      <c r="B9" t="n">
-        <v>40</v>
-      </c>
-      <c r="C9" t="n">
-        <v>117</v>
-      </c>
-      <c r="D9" t="n">
-        <v>14.96258473157739</v>
-      </c>
-      <c r="E9" t="n">
-        <v>24</v>
-      </c>
+      <c r="A9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="n">
-        <v>2013005102</v>
-      </c>
-      <c r="B10" t="n">
-        <v>39</v>
-      </c>
-      <c r="C10" t="n">
-        <v>115</v>
-      </c>
-      <c r="D10" t="n">
-        <v>36.71694586054122</v>
-      </c>
-      <c r="E10" t="n">
-        <v>40</v>
-      </c>
+      <c r="A10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="n">
-        <v>2016008667</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="n">
-        <v>143</v>
-      </c>
-      <c r="D11" t="n">
-        <v>23.89056487824407</v>
-      </c>
-      <c r="E11" t="n">
-        <v>24</v>
-      </c>
+      <c r="A11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="n">
-        <v>2014008321</v>
-      </c>
-      <c r="B12" t="n">
-        <v>30</v>
-      </c>
-      <c r="C12" t="n">
-        <v>117</v>
-      </c>
-      <c r="D12" t="n">
-        <v>72.60530206327788</v>
-      </c>
-      <c r="E12" t="n">
-        <v>75</v>
-      </c>
+      <c r="A12" s="7" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="7" t="n"/>
@@ -5951,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>33.47097882156577</v>
+        <v>21.8422731397153</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -5960,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>33.7282755485087</v>
+        <v>21.29362988373496</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -5969,7 +5615,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>31.9612198039415</v>
+        <v>21.2936416670708</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -5978,7 +5624,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>32.70850763657926</v>
+        <v>21.32390417564601</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -5987,7 +5633,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>32.8396454000668</v>
+        <v>21.40983342254761</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -5996,7 +5642,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>32.47525817475555</v>
+        <v>21.43983361692067</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -6005,7 +5651,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>31.53890187472295</v>
+        <v>21.41052750952169</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -6014,7 +5660,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>31.56034307381087</v>
+        <v>21.05183364336581</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -6023,7 +5669,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>32.79407306838309</v>
+        <v>21.12758090556363</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -6032,7 +5678,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>32.39341313948172</v>
+        <v>21.12747155782032</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -6041,7 +5687,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>33.76680779475866</v>
+        <v>21.74156753656311</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -6050,7 +5696,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>31.5196720528636</v>
+        <v>21.74151466079696</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -6059,7 +5705,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>31.96132406316206</v>
+        <v>21.69611918345725</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -6068,7 +5714,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>34.00392052216916</v>
+        <v>21.44660759750562</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -6077,7 +5723,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>30.77997909846665</v>
+        <v>21.41711761808659</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -6086,7 +5732,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>33.16966175520226</v>
+        <v>21.37159650776981</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -6095,7 +5741,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>33.22012032572775</v>
+        <v>21.30276616439035</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -6104,7 +5750,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>32.04108056708445</v>
+        <v>21.31796300123044</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -6113,7 +5759,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>31.96136532700925</v>
+        <v>21.27255083398394</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -6122,7 +5768,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>32.94428061429434</v>
+        <v>20.9472228485774</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -6131,7 +5777,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>31.02876046077352</v>
+        <v>20.97726012969734</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -6140,7 +5786,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>30.19976493954887</v>
+        <v>21.37135768339994</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -6149,7 +5795,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>29.98055036751586</v>
+        <v>21.72881662391543</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -6158,7 +5804,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>32.31291176201007</v>
+        <v>21.28773624889316</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -6167,7 +5813,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>30.58501974621917</v>
+        <v>21.04590387407175</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -6176,7 +5822,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>32.57814924203268</v>
+        <v>21.15425265171453</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -6185,7 +5831,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>32.88848668471124</v>
+        <v>21.34225133266136</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -6194,7 +5840,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>32.20307927140578</v>
+        <v>21.47551708543811</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -6203,7 +5849,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>31.43122617947865</v>
+        <v>20.88516910944676</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -6212,7 +5858,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>30.65362854103433</v>
+        <v>21.00681533834175</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -6221,7 +5867,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>32.44350319592935</v>
+        <v>21.02199486709705</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -6230,7 +5876,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>32.54871478382622</v>
+        <v>21.50778422984912</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -6239,7 +5885,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>31.55842153216274</v>
+        <v>21.61407512125265</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -6248,7 +5894,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>31.64301318352691</v>
+        <v>21.53882020224128</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -6257,7 +5903,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>33.23156547025908</v>
+        <v>21.56880286643086</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -6266,7 +5912,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>33.34665688206597</v>
+        <v>21.52416810958542</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -6275,7 +5921,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>33.24674721782002</v>
+        <v>21.52297557416703</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -6284,7 +5930,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>32.28981869003005</v>
+        <v>20.93934268682063</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -6293,7 +5939,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>32.39626150792034</v>
+        <v>20.84812467179983</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -6302,7 +5948,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>31.22177279783091</v>
+        <v>20.45312359215376</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -6311,7 +5957,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>31.74362614102968</v>
+        <v>21.28247812709679</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -6320,7 +5966,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>29.82573729042661</v>
+        <v>21.47972616921572</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -6329,7 +5975,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>31.79470255298816</v>
+        <v>21.25693816196447</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -6338,7 +5984,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>31.01096244045587</v>
+        <v>21.39257266881177</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -6347,7 +5993,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>31.38033562092545</v>
+        <v>21.57619906273315</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -6356,7 +6002,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>31.08557459116793</v>
+        <v>21.58140940279605</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -6365,7 +6011,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>31.45935375285703</v>
+        <v>21.63133127861349</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -6374,7 +6020,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>30.84897821071842</v>
+        <v>21.60620800734053</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -6383,7 +6029,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>30.55446686282222</v>
+        <v>21.48984076014388</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -6392,7 +6038,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>32.53580499326943</v>
+        <v>21.2318309907928</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -6401,7 +6047,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>31.92682773556691</v>
+        <v>21.2320006721904</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -6410,7 +6056,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>31.77556336134368</v>
+        <v>21.2316746793436</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -6419,7 +6065,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>31.63802395879442</v>
+        <v>20.95088372709392</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -6428,7 +6074,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>32.91701896955505</v>
+        <v>20.93556515676438</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -6437,7 +6083,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>33.42602818977183</v>
+        <v>20.9509582071855</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -6446,7 +6092,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>32.46687577097813</v>
+        <v>20.67206492551241</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -6455,7 +6101,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>32.27880292377797</v>
+        <v>20.51780957362247</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -6464,7 +6110,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>32.0048872929457</v>
+        <v>20.65637223114299</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -6473,7 +6119,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>32.37190548936439</v>
+        <v>20.86967448295952</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -6482,7 +6128,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>33.81733723428588</v>
+        <v>20.93047222252364</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -6491,7 +6137,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>33.00896731002307</v>
+        <v>20.86980152973175</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -6500,7 +6146,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>34.24112524286461</v>
+        <v>21.40414595073884</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -6509,7 +6155,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>34.64809546793854</v>
+        <v>21.50359484307959</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -6518,7 +6164,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>35.64380758183287</v>
+        <v>21.51191021254622</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -6527,7 +6173,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>35.15396495373525</v>
+        <v>21.6108567301819</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -6536,7 +6182,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>36.56927526831172</v>
+        <v>21.58061985040676</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -6545,7 +6191,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>36.48020114830841</v>
+        <v>21.48734069526505</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -6554,7 +6200,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>35.83088609616765</v>
+        <v>21.06703281616138</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -6563,7 +6209,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>36.42929498238748</v>
+        <v>21.656653416447</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -6572,7 +6218,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>36.87850347349767</v>
+        <v>21.20421890001404</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -6581,7 +6227,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>36.26212919347191</v>
+        <v>21.62579014747392</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -6590,7 +6236,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>35.7279366949093</v>
+        <v>21.59332893691043</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -6599,7 +6245,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>35.35213960495366</v>
+        <v>21.04987855463378</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -6608,7 +6254,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>37.15327426800014</v>
+        <v>21.14156811363337</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -6617,7 +6263,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>35.80807025148369</v>
+        <v>21.20604262130597</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -6626,7 +6272,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>35.87496485217262</v>
+        <v>21.88653077379777</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -6635,7 +6281,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>36.22508013287801</v>
+        <v>22.10981073176332</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -6644,7 +6290,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>35.18804761354605</v>
+        <v>21.81018920648507</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -6653,7 +6299,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>35.26167339287669</v>
+        <v>21.52164994392995</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -6662,7 +6308,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>37.73697689180894</v>
+        <v>21.32364441871646</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -6671,7 +6317,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>37.69525404390516</v>
+        <v>21.81446835091616</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -6680,7 +6326,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>37.00829819780443</v>
+        <v>22.23696987644334</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -6689,7 +6335,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>38.20114495456779</v>
+        <v>22.27357494629434</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -6698,7 +6344,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>37.98733285702406</v>
+        <v>22.02737129959671</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -6707,7 +6353,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>37.55233663341153</v>
+        <v>21.86012875189629</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -6716,7 +6362,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>38.47165918763171</v>
+        <v>21.37155363723535</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -6725,7 +6371,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>37.85551796758365</v>
+        <v>21.33636811389735</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -6734,7 +6380,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>37.24648913964926</v>
+        <v>21.51788354850084</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -6743,7 +6389,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>37.06804570499543</v>
+        <v>22.00706420396865</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -6752,7 +6398,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>36.83654122298378</v>
+        <v>22.1234473991988</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -6761,7 +6407,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>36.54268571963602</v>
+        <v>22.14299555679911</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -6770,7 +6416,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>35.56523197258892</v>
+        <v>22.12302187684096</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -6779,7 +6425,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>36.70879489046681</v>
+        <v>21.85039340746463</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -6788,7 +6434,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>36.44070715603686</v>
+        <v>21.93339739301382</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -6797,7 +6443,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>36.60388862880604</v>
+        <v>22.13656502437897</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -6806,7 +6452,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>33.19005769679099</v>
+        <v>22.16620701671482</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -6815,7 +6461,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>34.43359579805612</v>
+        <v>22.10550182771236</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -6824,7 +6470,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>35.06323119922809</v>
+        <v>21.98701716455055</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -6833,7 +6479,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>34.20312411587144</v>
+        <v>22.09673682482984</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -6842,7 +6488,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>35.1667308067248</v>
+        <v>21.7376268524135</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -6851,7 +6497,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>35.13030848298553</v>
+        <v>21.62951723147434</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -6860,7 +6506,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>35.96648979002136</v>
+        <v>22.01826671583874</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -6869,7 +6515,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>36.01682228696777</v>
+        <v>22.02876631908877</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -6878,7 +6524,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>37.16261287146576</v>
+        <v>22.02843110067683</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -6887,7 +6533,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>36.1179925242515</v>
+        <v>22.07424962009785</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -6896,7 +6542,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>36.38875759576296</v>
+        <v>21.78288908429405</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -6905,7 +6551,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>35.22528903304887</v>
+        <v>22.11321994522906</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -6914,7 +6560,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>32.5132091338003</v>
+        <v>21.94617647956321</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -6923,7 +6569,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>33.05411593915467</v>
+        <v>22.10333608712067</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -6932,7 +6578,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>32.95342830515283</v>
+        <v>22.00109181008093</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -6941,7 +6587,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>32.8270272417975</v>
+        <v>21.74360980883456</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -6950,7 +6596,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>33.95297643376359</v>
+        <v>21.84004875244846</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -6959,7 +6605,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>33.23902969244709</v>
+        <v>22.03716839602545</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -6968,7 +6614,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>32.63414789046556</v>
+        <v>21.94137023941184</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -6977,7 +6623,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>31.42598475614292</v>
+        <v>21.38013888813831</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -6986,7 +6632,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>34.39524917221257</v>
+        <v>21.68512452201166</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -6995,7 +6641,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>33.85518248948162</v>
+        <v>21.99778389069882</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -7004,7 +6650,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>31.64255735095281</v>
+        <v>21.90495283478426</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -7013,7 +6659,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>32.78649309456423</v>
+        <v>21.95553783863076</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -7022,7 +6668,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>30.64292098945901</v>
+        <v>22.01428196904548</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -7031,7 +6677,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>33.01544038795686</v>
+        <v>22.00097147177808</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -7040,7 +6686,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>33.08693702993479</v>
+        <v>21.80128519130549</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -7049,7 +6695,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>32.73210361249254</v>
+        <v>21.84468725002413</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -7058,7 +6704,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>33.36880433591977</v>
+        <v>21.93585456466048</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -7067,7 +6713,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>34.97430239419205</v>
+        <v>22.03395102661422</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -7076,7 +6722,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>33.65810989757971</v>
+        <v>21.89332163520137</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -7085,7 +6731,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>33.09696728575293</v>
+        <v>21.65532405510733</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -7094,7 +6740,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>33.20167509954238</v>
+        <v>21.46588024641434</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -7103,7 +6749,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>34.67575261750738</v>
+        <v>21.46561469588229</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -7112,7 +6758,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>33.45072870833411</v>
+        <v>21.45697444576301</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -7121,7 +6767,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>34.58816645288768</v>
+        <v>21.62325016747513</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -7130,7 +6776,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>34.15509721391567</v>
+        <v>21.63856614112491</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -7139,7 +6785,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>33.75339651820885</v>
+        <v>21.62350604594328</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -7148,7 +6794,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>32.54589054417961</v>
+        <v>21.38038652094832</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -7157,7 +6803,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>32.23968873290585</v>
+        <v>21.45603555154553</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -7166,7 +6812,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>34.06669429015678</v>
+        <v>21.36540488382984</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -7175,7 +6821,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>34.02243483324511</v>
+        <v>21.73166813758439</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -7184,7 +6830,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>32.31851909520169</v>
+        <v>21.78881893596814</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -7193,7 +6839,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>32.72581024536886</v>
+        <v>21.77339298779702</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -7202,7 +6848,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>33.07703105495873</v>
+        <v>21.39567805017157</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -7211,7 +6857,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>32.56473529803662</v>
+        <v>21.39588572999849</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -7220,7 +6866,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>32.30270832025271</v>
+        <v>21.39605936601324</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -7229,7 +6875,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>33.31968826897355</v>
+        <v>21.92515477492917</v>
       </c>
     </row>
     <row r="145">
@@ -7237,7 +6883,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>35.47599942749154</v>
+        <v>21.75252387455341</v>
       </c>
     </row>
     <row r="146">
@@ -7284,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-33.93746851892925</v>
+        <v>-17.54862504777039</v>
       </c>
     </row>
     <row r="3">
@@ -7292,7 +6938,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-33.93167383061653</v>
+        <v>-17.91831382537749</v>
       </c>
     </row>
     <row r="4">
@@ -7300,7 +6946,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-33.75589861335573</v>
+        <v>-17.50663540184819</v>
       </c>
     </row>
     <row r="5">
@@ -7308,7 +6954,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-34.27486018843633</v>
+        <v>-17.52962373256044</v>
       </c>
     </row>
     <row r="6">
@@ -7316,7 +6962,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-33.7888638934316</v>
+        <v>-17.51618435900852</v>
       </c>
     </row>
     <row r="7">
@@ -7324,7 +6970,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-34.11148378033398</v>
+        <v>-17.50739311463041</v>
       </c>
     </row>
     <row r="8">
@@ -7332,7 +6978,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-33.88670287490083</v>
+        <v>-17.49633936342148</v>
       </c>
     </row>
     <row r="9">
@@ -7340,7 +6986,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-33.82074159188335</v>
+        <v>-17.50938611852678</v>
       </c>
     </row>
     <row r="10">
@@ -7348,7 +6994,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-33.95471816003279</v>
+        <v>-17.5184159865132</v>
       </c>
     </row>
     <row r="11">
@@ -7356,7 +7002,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-33.96705239220974</v>
+        <v>-17.51841564959206</v>
       </c>
     </row>
     <row r="12">
@@ -7364,7 +7010,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-33.77772900552547</v>
+        <v>-17.50587838706648</v>
       </c>
     </row>
     <row r="13">
@@ -7372,7 +7018,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-33.82786322595571</v>
+        <v>-17.49482407894412</v>
       </c>
     </row>
     <row r="14">
@@ -7380,7 +7026,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-33.52390937622121</v>
+        <v>-17.57480274057281</v>
       </c>
     </row>
     <row r="15">
@@ -7388,7 +7034,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-34.0724484676561</v>
+        <v>-17.59779389664186</v>
       </c>
     </row>
     <row r="16">
@@ -7396,7 +7042,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-33.93785406927523</v>
+        <v>-17.53214140886025</v>
       </c>
     </row>
     <row r="17">
@@ -7404,7 +7050,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-33.50170282330799</v>
+        <v>-17.48887557728976</v>
       </c>
     </row>
     <row r="18">
@@ -7412,7 +7058,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-34.86813776826374</v>
+        <v>-17.49642701817688</v>
       </c>
     </row>
     <row r="19">
@@ -7420,7 +7066,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-34.72027187682851</v>
+        <v>-18.0302410086997</v>
       </c>
     </row>
     <row r="20">
@@ -7428,7 +7074,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-34.90513573732334</v>
+        <v>-18.0365036227764</v>
       </c>
     </row>
     <row r="21">
@@ -7436,7 +7082,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-34.89875372728086</v>
+        <v>-17.61408925083602</v>
       </c>
     </row>
     <row r="22">
@@ -7444,7 +7090,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-35.82120399073978</v>
+        <v>-17.4868026696278</v>
       </c>
     </row>
     <row r="23">
@@ -7452,7 +7098,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-34.72427555182467</v>
+        <v>-17.6393576100906</v>
       </c>
     </row>
     <row r="24">
@@ -7460,7 +7106,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-33.83345731661883</v>
+        <v>-17.49047873489144</v>
       </c>
     </row>
     <row r="25">
@@ -7468,7 +7114,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-34.85351354848011</v>
+        <v>-17.90991905811856</v>
       </c>
     </row>
     <row r="26">
@@ -7476,7 +7122,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-34.84438955012592</v>
+        <v>-17.52069779321669</v>
       </c>
     </row>
     <row r="27">
@@ -7484,7 +7130,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-34.60343678378377</v>
+        <v>-17.67531699055027</v>
       </c>
     </row>
     <row r="28">
@@ -7492,7 +7138,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-33.84850008854738</v>
+        <v>-17.65255375538848</v>
       </c>
     </row>
     <row r="29">
@@ -7500,7 +7146,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-34.23469990974473</v>
+        <v>-17.66361023895076</v>
       </c>
     </row>
     <row r="30">
@@ -7508,7 +7154,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-34.24689319333165</v>
+        <v>-17.77719908044624</v>
       </c>
     </row>
     <row r="31">
@@ -7516,7 +7162,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-34.37762244698001</v>
+        <v>-17.70798216462893</v>
       </c>
     </row>
     <row r="32">
@@ -7524,7 +7170,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-34.34207849090907</v>
+        <v>-17.77719353092779</v>
       </c>
     </row>
     <row r="33">
@@ -7532,7 +7178,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-34.48475681197132</v>
+        <v>-17.80137695225474</v>
       </c>
     </row>
     <row r="34">
@@ -7540,7 +7186,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-34.89420665298551</v>
+        <v>-17.80132189940711</v>
       </c>
     </row>
     <row r="35">
@@ -7548,7 +7194,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-34.48359446236998</v>
+        <v>-17.8125326308946</v>
       </c>
     </row>
     <row r="36">
@@ -7556,7 +7202,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-33.5641753308074</v>
+        <v>-17.83183118689886</v>
       </c>
     </row>
     <row r="37">
@@ -7564,7 +7210,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-33.86623395787213</v>
+        <v>-17.74912318123621</v>
       </c>
     </row>
     <row r="38">
@@ -7572,7 +7218,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-34.00934959355558</v>
+        <v>-17.83187368170317</v>
       </c>
     </row>
     <row r="39">
@@ -7580,7 +7226,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-34.09066321166111</v>
+        <v>-17.84059269606464</v>
       </c>
     </row>
     <row r="40">
@@ -7588,7 +7234,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-33.7394151022747</v>
+        <v>-17.8406035723542</v>
       </c>
     </row>
     <row r="41">
@@ -7596,7 +7242,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-34.40238963775936</v>
+        <v>-17.84717731569803</v>
       </c>
     </row>
     <row r="42">
@@ -7604,7 +7250,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-34.17493314728728</v>
+        <v>-17.81708739253662</v>
       </c>
     </row>
     <row r="43">
@@ -7612,7 +7258,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-34.46888475242309</v>
+        <v>-17.82816549853702</v>
       </c>
     </row>
     <row r="44">
@@ -7620,7 +7266,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-34.13563420639814</v>
+        <v>-17.81708711269075</v>
       </c>
     </row>
     <row r="45">
@@ -7628,7 +7274,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-34.55240826256534</v>
+        <v>-17.72183350485817</v>
       </c>
     </row>
     <row r="46">
@@ -7636,7 +7282,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-34.57830233868766</v>
+        <v>-17.72182525217864</v>
       </c>
     </row>
     <row r="47">
@@ -7644,7 +7290,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-34.33725651034623</v>
+        <v>-17.73287063344521</v>
       </c>
     </row>
     <row r="48">
@@ -7652,7 +7298,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-34.46914457451465</v>
+        <v>-17.70988397925143</v>
       </c>
     </row>
     <row r="49">
@@ -7660,7 +7306,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-34.46879861624252</v>
+        <v>-17.71000004439279</v>
       </c>
     </row>
     <row r="50">
@@ -7668,7 +7314,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-35.09118890531406</v>
+        <v>-17.71004188857284</v>
       </c>
     </row>
     <row r="51">
@@ -7676,7 +7322,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-34.60443451248853</v>
+        <v>-17.82603374890813</v>
       </c>
     </row>
     <row r="52">
@@ -7684,7 +7330,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-33.91599047295704</v>
+        <v>-17.8260355785792</v>
       </c>
     </row>
     <row r="53">
@@ -7692,7 +7338,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-34.37980433691489</v>
+        <v>-17.81496313568568</v>
       </c>
     </row>
     <row r="54">
@@ -7700,7 +7346,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-34.28706002906518</v>
+        <v>-17.83697954843408</v>
       </c>
     </row>
     <row r="55">
@@ -7708,7 +7354,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-34.53953071686323</v>
+        <v>-17.82674808786208</v>
       </c>
     </row>
     <row r="56">
@@ -7716,7 +7362,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-34.49915625035717</v>
+        <v>-17.81556092311661</v>
       </c>
     </row>
     <row r="57">
@@ -7724,7 +7370,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-34.50589763116335</v>
+        <v>-17.83262753042433</v>
       </c>
     </row>
     <row r="58">
@@ -7732,7 +7378,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-34.05141682677242</v>
+        <v>-17.84361793793785</v>
       </c>
     </row>
     <row r="59">
@@ -7740,7 +7386,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-33.95418722340676</v>
+        <v>-17.84368150560475</v>
       </c>
     </row>
     <row r="60">
@@ -7748,7 +7394,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-34.87202697615511</v>
+        <v>-17.81775954401036</v>
       </c>
     </row>
     <row r="61">
@@ -7756,7 +7402,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-34.10309037619926</v>
+        <v>-17.82146455301098</v>
       </c>
     </row>
     <row r="62">
@@ -7764,7 +7410,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-34.01709373275717</v>
+        <v>-17.80517047349793</v>
       </c>
     </row>
     <row r="63">
@@ -7772,7 +7418,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-33.81132048395251</v>
+        <v>-17.73441192122388</v>
       </c>
     </row>
     <row r="64">
@@ -7780,7 +7426,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-33.90128469175858</v>
+        <v>-17.74548690499627</v>
       </c>
     </row>
     <row r="65">
@@ -7788,7 +7434,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-34.02339889854213</v>
+        <v>-17.57893433632393</v>
       </c>
     </row>
     <row r="66">
@@ -7796,7 +7442,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-33.43845725879422</v>
+        <v>-17.5354625707575</v>
       </c>
     </row>
     <row r="67">
@@ -7804,7 +7450,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-33.47001830288144</v>
+        <v>-17.56860327371553</v>
       </c>
     </row>
     <row r="68">
@@ -7812,7 +7458,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-33.39741679054911</v>
+        <v>-17.5796324892313</v>
       </c>
     </row>
     <row r="69">
@@ -7820,7 +7466,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-33.30830709881041</v>
+        <v>-17.50819970086765</v>
       </c>
     </row>
     <row r="70">
@@ -7828,7 +7474,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-33.19770739551138</v>
+        <v>-17.50820343727775</v>
       </c>
     </row>
     <row r="71">
@@ -7836,7 +7482,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-33.3298753983639</v>
+        <v>-17.51632827624182</v>
       </c>
     </row>
     <row r="72">
@@ -7844,7 +7490,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-33.24131548591418</v>
+        <v>-17.5141150124512</v>
       </c>
     </row>
     <row r="73">
@@ -7852,7 +7498,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-33.22417439531427</v>
+        <v>-17.97651446629358</v>
       </c>
     </row>
     <row r="74">
@@ -7860,7 +7506,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-33.26775917040065</v>
+        <v>-17.95374925702863</v>
       </c>
     </row>
     <row r="75">
@@ -7868,7 +7514,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-33.30041365023533</v>
+        <v>-17.60473584985936</v>
       </c>
     </row>
     <row r="76">
@@ -7876,7 +7522,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-33.27807261251706</v>
+        <v>-17.51335476419514</v>
       </c>
     </row>
     <row r="77">
@@ -7884,7 +7530,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-33.30064512657138</v>
+        <v>-17.52440276876421</v>
       </c>
     </row>
     <row r="78">
@@ -7892,7 +7538,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-33.55986622720103</v>
+        <v>-17.50747496706686</v>
       </c>
     </row>
     <row r="79">
@@ -7900,7 +7546,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-33.34640356494896</v>
+        <v>-17.51925723496043</v>
       </c>
     </row>
     <row r="80">
@@ -7908,7 +7554,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-33.59286788972719</v>
+        <v>-17.51264267059409</v>
       </c>
     </row>
     <row r="81">
@@ -7916,7 +7562,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-33.08705826051156</v>
+        <v>-17.55166846935362</v>
       </c>
     </row>
     <row r="82">
@@ -7924,7 +7570,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-33.11727832809881</v>
+        <v>-17.60624726032226</v>
       </c>
     </row>
     <row r="83">
@@ -7932,7 +7578,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-33.09970108171177</v>
+        <v>-17.49716845219646</v>
       </c>
     </row>
     <row r="84">
@@ -7940,7 +7586,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-32.96394151275744</v>
+        <v>-17.50009716893477</v>
       </c>
     </row>
     <row r="85">
@@ -7948,7 +7594,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-33.09780297761456</v>
+        <v>-17.49052821942644</v>
       </c>
     </row>
     <row r="86">
@@ -7956,7 +7602,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-33.17896984247113</v>
+        <v>-17.490531534756</v>
       </c>
     </row>
     <row r="87">
@@ -7964,7 +7610,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-32.94920899624571</v>
+        <v>-17.51408538183057</v>
       </c>
     </row>
     <row r="88">
@@ -7972,7 +7618,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-33.05105792335215</v>
+        <v>-17.52514297005807</v>
       </c>
     </row>
     <row r="89">
@@ -7980,7 +7626,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-33.11360809347601</v>
+        <v>-17.52515434844854</v>
       </c>
     </row>
     <row r="90">
@@ -7988,7 +7634,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-32.95350836150484</v>
+        <v>-17.51040644745031</v>
       </c>
     </row>
     <row r="91">
@@ -7996,7 +7642,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-32.98398284476188</v>
+        <v>-17.51041436214795</v>
       </c>
     </row>
     <row r="92">
@@ -8004,7 +7650,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-32.9123737248409</v>
+        <v>-17.49935817773207</v>
       </c>
     </row>
     <row r="93">
@@ -8012,7 +7658,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-33.03295203134721</v>
+        <v>-17.51409272304679</v>
       </c>
     </row>
     <row r="94">
@@ -8020,7 +7666,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-33.01007931504475</v>
+        <v>-17.50304312233859</v>
       </c>
     </row>
     <row r="95">
@@ -8028,7 +7674,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-32.94816847034877</v>
+        <v>-17.52515816029144</v>
       </c>
     </row>
     <row r="96">
@@ -8036,7 +7682,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-33.09866653108761</v>
+        <v>-17.50600917603079</v>
       </c>
     </row>
     <row r="97">
@@ -8044,7 +7690,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-33.8820308247745</v>
+        <v>-17.5170621621005</v>
       </c>
     </row>
     <row r="98">
@@ -8052,7 +7698,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-33.16322347308997</v>
+        <v>-17.49495605563727</v>
       </c>
     </row>
     <row r="99">
@@ -8060,7 +7706,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-32.96274281669361</v>
+        <v>-17.67040625979815</v>
       </c>
     </row>
     <row r="100">
@@ -8068,7 +7714,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-33.92311116664916</v>
+        <v>-17.6592866800438</v>
       </c>
     </row>
     <row r="101">
@@ -8076,7 +7722,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-32.98459464117973</v>
+        <v>-17.68147327476163</v>
       </c>
     </row>
     <row r="102">
@@ -8084,7 +7730,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-32.89353602701421</v>
+        <v>-17.66228683769435</v>
       </c>
     </row>
     <row r="103">
@@ -8092,7 +7738,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-33.29115072379065</v>
+        <v>-17.6165601933256</v>
       </c>
     </row>
     <row r="104">
@@ -8100,7 +7746,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-33.18408095366622</v>
+        <v>-17.5604944978941</v>
       </c>
     </row>
     <row r="105">
@@ -8108,7 +7754,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-32.94579269857262</v>
+        <v>-17.58998315827523</v>
       </c>
     </row>
     <row r="106">
@@ -8116,7 +7762,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-33.01458900354437</v>
+        <v>-17.68430815190283</v>
       </c>
     </row>
     <row r="107">
@@ -8124,7 +7770,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-32.99156753203628</v>
+        <v>-17.69536483044496</v>
       </c>
     </row>
     <row r="108">
@@ -8132,7 +7778,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-32.91292635895664</v>
+        <v>-17.70140501533243</v>
       </c>
     </row>
     <row r="109">
@@ -8140,7 +7786,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-35.14118646951735</v>
+        <v>-17.66371192539297</v>
       </c>
     </row>
     <row r="110">
@@ -8148,7 +7794,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-34.37108297078518</v>
+        <v>-17.69026628142603</v>
       </c>
     </row>
     <row r="111">
@@ -8156,7 +7802,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-34.40032572055333</v>
+        <v>-17.60258954422885</v>
       </c>
     </row>
     <row r="112">
@@ -8164,7 +7810,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-33.43685899357917</v>
+        <v>-17.61361739195713</v>
       </c>
     </row>
     <row r="113">
@@ -8172,7 +7818,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-33.36470617575591</v>
+        <v>-17.61361343589834</v>
       </c>
     </row>
     <row r="114">
@@ -8180,7 +7826,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-34.64098889637747</v>
+        <v>-17.61576689537139</v>
       </c>
     </row>
     <row r="115">
@@ -8188,7 +7834,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-34.26187566044087</v>
+        <v>-17.78161544968699</v>
       </c>
     </row>
     <row r="116">
@@ -8196,7 +7842,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-34.65973987430884</v>
+        <v>-17.7301387880929</v>
       </c>
     </row>
     <row r="117">
@@ -8204,7 +7850,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-34.29402385544065</v>
+        <v>-17.82981401297304</v>
       </c>
     </row>
     <row r="118">
@@ -8212,7 +7858,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-34.47993760277752</v>
+        <v>-17.91841895383737</v>
       </c>
     </row>
     <row r="119">
@@ -8220,7 +7866,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-34.64003803632575</v>
+        <v>-17.50896135451826</v>
       </c>
     </row>
     <row r="120">
@@ -8228,7 +7874,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-35.03900602570396</v>
+        <v>-17.91081250810422</v>
       </c>
     </row>
     <row r="121">
@@ -8236,7 +7882,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-34.74224978058316</v>
+        <v>-17.7033755328697</v>
       </c>
     </row>
     <row r="122">
@@ -8244,7 +7890,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-34.37903122035354</v>
+        <v>-17.8577684037424</v>
       </c>
     </row>
     <row r="123">
@@ -8252,7 +7898,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-34.47427610115484</v>
+        <v>-17.90489563580323</v>
       </c>
     </row>
     <row r="124">
@@ -8260,7 +7906,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-34.24607199588823</v>
+        <v>-17.89374517553299</v>
       </c>
     </row>
     <row r="125">
@@ -8268,7 +7914,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-34.65790417942779</v>
+        <v>-17.90482946574044</v>
       </c>
     </row>
     <row r="126">
@@ -8276,7 +7922,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-33.70760194246393</v>
+        <v>-17.52068499458833</v>
       </c>
     </row>
     <row r="127">
@@ -8284,7 +7930,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-33.41644889939597</v>
+        <v>-17.72480866648894</v>
       </c>
     </row>
     <row r="128">
@@ -8292,7 +7938,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-33.53207615838388</v>
+        <v>-17.72999569853098</v>
       </c>
     </row>
     <row r="129">
@@ -8300,7 +7946,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-33.13529745996003</v>
+        <v>-17.90195705422264</v>
       </c>
     </row>
     <row r="130">
@@ -8308,7 +7954,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-33.61176125847302</v>
+        <v>-17.50370093444513</v>
       </c>
     </row>
     <row r="131">
@@ -8316,7 +7962,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-33.63944864961798</v>
+        <v>-17.9129795210937</v>
       </c>
     </row>
     <row r="132">
@@ -8324,7 +7970,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-33.36324122660331</v>
+        <v>-17.88988729768772</v>
       </c>
     </row>
     <row r="133">
@@ -8332,7 +7978,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-34.13940014409039</v>
+        <v>-17.68727930018227</v>
       </c>
     </row>
     <row r="134">
@@ -8340,7 +7986,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-33.80990016758746</v>
+        <v>-17.69833532782492</v>
       </c>
     </row>
     <row r="135">
@@ -8348,7 +7994,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-33.65597828066157</v>
+        <v>-17.86565572283814</v>
       </c>
     </row>
     <row r="136">
@@ -8356,7 +8002,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-34.19736533535507</v>
+        <v>-17.88205810012342</v>
       </c>
     </row>
     <row r="137">
@@ -8364,7 +8010,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-33.69762502232806</v>
+        <v>-17.64371706786897</v>
       </c>
     </row>
     <row r="138">
@@ -8372,7 +8018,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-34.57974420229015</v>
+        <v>-17.50420527530893</v>
       </c>
     </row>
     <row r="139">
@@ -8380,7 +8026,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-34.34688195441026</v>
+        <v>-17.66670348056322</v>
       </c>
     </row>
     <row r="140">
@@ -8388,7 +8034,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-34.13077118955038</v>
+        <v>-17.54021365960457</v>
       </c>
     </row>
     <row r="141">
@@ -8396,7 +8042,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-34.10022499927683</v>
+        <v>-17.64450896723299</v>
       </c>
     </row>
     <row r="142">
@@ -8404,7 +8050,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-33.79233027816662</v>
+        <v>-17.48309944743511</v>
       </c>
     </row>
     <row r="143">
@@ -8412,7 +8058,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-33.98055816754312</v>
+        <v>-17.53723218359499</v>
       </c>
     </row>
     <row r="144">
@@ -8420,7 +8066,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-34.10337240582449</v>
+        <v>-17.53264665791384</v>
       </c>
     </row>
     <row r="145">
@@ -8428,7 +8074,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-33.82223654812726</v>
+        <v>-17.91308650997876</v>
       </c>
     </row>
     <row r="146">

--- a/testcases/timeseries/EVDay01_mix10.xlsx
+++ b/testcases/timeseries/EVDay01_mix10.xlsx
@@ -1800,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1887,37 +1887,23 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2014001217</v>
+        <v>2016000983</v>
       </c>
       <c r="B2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="D2" t="n">
-        <v>73.068792</v>
+        <v>11.06618348461645</v>
       </c>
       <c r="E2" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="n">
-        <v>2014001217</v>
-      </c>
-      <c r="B3" t="n">
-        <v>46</v>
-      </c>
-      <c r="C3" t="n">
-        <v>117</v>
-      </c>
-      <c r="D3" t="n">
-        <v>73.068792</v>
-      </c>
-      <c r="E3" t="n">
-        <v>75</v>
-      </c>
+      <c r="A3" s="7" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n"/>

--- a/testcases/timeseries/EVDay01_mix10.xlsx
+++ b/testcases/timeseries/EVDay01_mix10.xlsx
@@ -1800,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1887,23 +1887,37 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2016000983</v>
+        <v>2016000166</v>
       </c>
       <c r="B2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>11.06618348461645</v>
+        <v>35.63554358327789</v>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>42.14754358327789</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="n"/>
+      <c r="A3" s="7" t="n">
+        <v>2016000166</v>
+      </c>
+      <c r="B3" t="n">
+        <v>47</v>
+      </c>
+      <c r="C3" t="n">
+        <v>123</v>
+      </c>
+      <c r="D3" t="n">
+        <v>37.51264438327788</v>
+      </c>
+      <c r="E3" t="n">
+        <v>74.73886598010249</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n"/>
@@ -5583,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>21.8422731397153</v>
+        <v>80.88696573517835</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -5592,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>21.29362988373496</v>
+        <v>80.33139362951985</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -5601,7 +5615,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>21.2936416670708</v>
+        <v>79.96135284517482</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -5610,7 +5624,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>21.32390417564601</v>
+        <v>80.33563874103484</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -5619,7 +5633,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>21.40983342254761</v>
+        <v>80.19586845408581</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -5628,7 +5642,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>21.43983361692067</v>
+        <v>80.17142819678719</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -5637,7 +5651,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>21.41052750952169</v>
+        <v>80.38974926230649</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -5646,7 +5660,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>21.05183364336581</v>
+        <v>80.09401398504417</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -5655,7 +5669,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>21.12758090556363</v>
+        <v>80.0070231136862</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -5664,7 +5678,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>21.12747155782032</v>
+        <v>80.42127424021713</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -5673,7 +5687,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>21.74156753656311</v>
+        <v>79.48485336687592</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -5682,7 +5696,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>21.74151466079696</v>
+        <v>79.11015535887701</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -5691,7 +5705,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>21.69611918345725</v>
+        <v>79.32269495161468</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -5700,7 +5714,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>21.44660759750562</v>
+        <v>80.47848898389294</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -5709,7 +5723,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>21.41711761808659</v>
+        <v>80.62461508612461</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -5718,7 +5732,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>21.37159650776981</v>
+        <v>80.47709365633163</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -5727,7 +5741,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>21.30276616439035</v>
+        <v>80.39090273351214</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -5736,7 +5750,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>21.31796300123044</v>
+        <v>80.43885246159587</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -5745,7 +5759,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>21.27255083398394</v>
+        <v>80.45659203472034</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -5754,7 +5768,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>20.9472228485774</v>
+        <v>79.71870264541749</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -5763,7 +5777,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>20.97726012969734</v>
+        <v>79.73405871164292</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -5772,7 +5786,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>21.37135768339994</v>
+        <v>79.86038559915693</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -5781,7 +5795,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>21.72881662391543</v>
+        <v>80.44748927467644</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -5790,7 +5804,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>21.28773624889316</v>
+        <v>79.10411822801753</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -5799,7 +5813,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>21.04590387407175</v>
+        <v>77.16076624607274</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -5808,7 +5822,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>21.15425265171453</v>
+        <v>77.86603888873195</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -5817,7 +5831,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>21.34225133266136</v>
+        <v>77.94441289542033</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -5826,7 +5840,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>21.47551708543811</v>
+        <v>77.71611970984334</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -5835,7 +5849,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>20.88516910944676</v>
+        <v>79.54046191084937</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -5844,7 +5858,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>21.00681533834175</v>
+        <v>79.32170082126437</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -5853,7 +5867,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>21.02199486709705</v>
+        <v>78.82314546408618</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -5862,7 +5876,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>21.50778422984912</v>
+        <v>79.51129419827825</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -5871,7 +5885,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>21.61407512125265</v>
+        <v>79.54024947006862</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -5880,7 +5894,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>21.53882020224128</v>
+        <v>79.57604943603883</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -5889,7 +5903,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>21.56880286643086</v>
+        <v>79.03817327670033</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -5898,7 +5912,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>21.52416810958542</v>
+        <v>79.00379125628055</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -5907,7 +5921,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>21.52297557416703</v>
+        <v>77.94037792728352</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -5916,7 +5930,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>20.93934268682063</v>
+        <v>78.99027895059542</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -5925,7 +5939,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>20.84812467179983</v>
+        <v>78.92085420505398</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -5934,7 +5948,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>20.45312359215376</v>
+        <v>79.09887263213643</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -5943,7 +5957,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>21.28247812709679</v>
+        <v>79.00435483630126</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -5952,7 +5966,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>21.47972616921572</v>
+        <v>79.48021472129237</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -5961,7 +5975,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>21.25693816196447</v>
+        <v>79.63778639891616</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -5970,7 +5984,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>21.39257266881177</v>
+        <v>78.57816205344301</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -5979,7 +5993,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>21.57619906273315</v>
+        <v>78.54981967044584</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -5988,7 +6002,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>21.58140940279605</v>
+        <v>78.52540063027871</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -5997,7 +6011,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>21.63133127861349</v>
+        <v>79.30016316328728</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -6006,7 +6020,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>21.60620800734053</v>
+        <v>79.3486086168846</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -6015,7 +6029,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>21.48984076014388</v>
+        <v>79.4836688480266</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -6024,7 +6038,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>21.2318309907928</v>
+        <v>78.57616435909013</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -6033,7 +6047,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>21.2320006721904</v>
+        <v>78.45939076867859</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -6042,7 +6056,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>21.2316746793436</v>
+        <v>79.11236449690696</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -6051,7 +6065,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>20.95088372709392</v>
+        <v>78.84917705887467</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -6060,7 +6074,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>20.93556515676438</v>
+        <v>78.756579648282</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -6069,7 +6083,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>20.9509582071855</v>
+        <v>78.77291533946129</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -6078,7 +6092,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>20.67206492551241</v>
+        <v>78.07238583716595</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -6087,7 +6101,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>20.51780957362247</v>
+        <v>78.03670143808912</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -6096,7 +6110,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>20.65637223114299</v>
+        <v>78.01476307050741</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -6105,7 +6119,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>20.86967448295952</v>
+        <v>78.26073960282913</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -6114,7 +6128,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>20.93047222252364</v>
+        <v>78.31159119779086</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -6123,7 +6137,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>20.86980152973175</v>
+        <v>78.26721895132538</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -6132,7 +6146,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>21.40414595073884</v>
+        <v>79.74996919467532</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -6141,7 +6155,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>21.50359484307959</v>
+        <v>79.62731126067426</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -6150,7 +6164,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>21.51191021254622</v>
+        <v>79.68470454342858</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -6159,7 +6173,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>21.6108567301819</v>
+        <v>79.73961553622196</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -6168,7 +6182,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>21.58061985040676</v>
+        <v>79.73143971071394</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -6177,7 +6191,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>21.48734069526505</v>
+        <v>79.90465732420455</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -6186,7 +6200,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>21.06703281616138</v>
+        <v>79.84078800636257</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -6195,7 +6209,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>21.656653416447</v>
+        <v>79.88094524823126</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -6204,7 +6218,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>21.20421890001404</v>
+        <v>79.94869569168087</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -6213,7 +6227,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>21.62579014747392</v>
+        <v>79.98160315755965</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -6222,7 +6236,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>21.59332893691043</v>
+        <v>79.81314630591042</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -6231,7 +6245,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>21.04987855463378</v>
+        <v>80.11049716745083</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -6240,7 +6254,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>21.14156811363337</v>
+        <v>80.01460587730354</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -6249,7 +6263,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>21.20604262130597</v>
+        <v>80.10154467041521</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -6258,7 +6272,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>21.88653077379777</v>
+        <v>79.97568011511494</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -6267,7 +6281,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>22.10981073176332</v>
+        <v>80.02527527667068</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -6276,7 +6290,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>21.81018920648507</v>
+        <v>80.48103754534311</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -6285,7 +6299,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>21.52164994392995</v>
+        <v>80.36605466574279</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -6294,7 +6308,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>21.32364441871646</v>
+        <v>80.27921702240232</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -6303,7 +6317,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>21.81446835091616</v>
+        <v>79.93939658877493</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -6312,7 +6326,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>22.23696987644334</v>
+        <v>79.89039803702147</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -6321,7 +6335,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>22.27357494629434</v>
+        <v>79.9869644599582</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -6330,7 +6344,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>22.02737129959671</v>
+        <v>80.34142336380336</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -6339,7 +6353,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>21.86012875189629</v>
+        <v>80.3323677111878</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -6348,7 +6362,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>21.37155363723535</v>
+        <v>80.52639198734342</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -6357,7 +6371,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>21.33636811389735</v>
+        <v>80.53896188638203</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -6366,7 +6380,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>21.51788354850084</v>
+        <v>80.51800960320043</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -6375,7 +6389,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>22.00706420396865</v>
+        <v>80.44150297383402</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -6384,7 +6398,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>22.1234473991988</v>
+        <v>80.54716888616025</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -6393,7 +6407,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>22.14299555679911</v>
+        <v>80.47993735781915</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -6402,7 +6416,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>22.12302187684096</v>
+        <v>80.67116838749421</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -6411,7 +6425,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>21.85039340746463</v>
+        <v>80.6680732883498</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -6420,7 +6434,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>21.93339739301382</v>
+        <v>80.72665282873604</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -6429,7 +6443,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>22.13656502437897</v>
+        <v>80.66989107182282</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -6438,7 +6452,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>22.16620701671482</v>
+        <v>80.63480723338819</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -6447,7 +6461,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>22.10550182771236</v>
+        <v>80.72618616904734</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -6456,7 +6470,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>21.98701716455055</v>
+        <v>80.41662213703465</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -6465,7 +6479,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>22.09673682482984</v>
+        <v>80.48322667313012</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -6474,7 +6488,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>21.7376268524135</v>
+        <v>80.54594594386988</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -6483,7 +6497,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>21.62951723147434</v>
+        <v>80.96277296376934</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -6492,7 +6506,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>22.01826671583874</v>
+        <v>79.73435944464826</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -6501,7 +6515,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>22.02876631908877</v>
+        <v>78.04126561600248</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -6510,7 +6524,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>22.02843110067683</v>
+        <v>78.14112458086548</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -6519,7 +6533,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>22.07424962009785</v>
+        <v>78.13102485569192</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -6528,7 +6542,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>21.78288908429405</v>
+        <v>78.59607954337849</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -6537,7 +6551,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>22.11321994522906</v>
+        <v>80.62763690484401</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -6546,7 +6560,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>21.94617647956321</v>
+        <v>80.45510244136119</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -6555,7 +6569,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>22.10333608712067</v>
+        <v>80.6739266550527</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -6564,7 +6578,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>22.00109181008093</v>
+        <v>80.319082170136</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -6573,7 +6587,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>21.74360980883456</v>
+        <v>80.27957523641825</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -6582,7 +6596,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>21.84004875244846</v>
+        <v>80.27570202527194</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -6591,7 +6605,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>22.03716839602545</v>
+        <v>80.22702248814886</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -6600,7 +6614,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>21.94137023941184</v>
+        <v>80.05171908785182</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -6609,7 +6623,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>21.38013888813831</v>
+        <v>80.13295797821851</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -6618,7 +6632,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>21.68512452201166</v>
+        <v>80.15492166649832</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -6627,7 +6641,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>21.99778389069882</v>
+        <v>80.38417641507459</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -6636,7 +6650,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>21.90495283478426</v>
+        <v>80.40817590838223</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -6645,7 +6659,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>21.95553783863076</v>
+        <v>80.29265257534632</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -6654,7 +6668,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>22.01428196904548</v>
+        <v>80.46451939052739</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -6663,7 +6677,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>22.00097147177808</v>
+        <v>80.039467408286</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -6672,7 +6686,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>21.80128519130549</v>
+        <v>80.35887319148307</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -6681,7 +6695,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>21.84468725002413</v>
+        <v>80.51459930389812</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -6690,7 +6704,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>21.93585456466048</v>
+        <v>80.75134170153918</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -6699,7 +6713,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>22.03395102661422</v>
+        <v>80.33834438808641</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -6708,7 +6722,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>21.89332163520137</v>
+        <v>80.47976338767104</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -6717,7 +6731,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>21.65532405510733</v>
+        <v>80.85543130527819</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -6726,7 +6740,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>21.46588024641434</v>
+        <v>80.2265612875225</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -6735,7 +6749,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>21.46561469588229</v>
+        <v>80.17638381733416</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -6744,7 +6758,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>21.45697444576301</v>
+        <v>80.2187893935582</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -6753,7 +6767,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>21.62325016747513</v>
+        <v>80.13511043165398</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -6762,7 +6776,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>21.63856614112491</v>
+        <v>80.50096045190332</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -6771,7 +6785,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>21.62350604594328</v>
+        <v>80.61735860465055</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -6780,7 +6794,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>21.38038652094832</v>
+        <v>80.32418787090465</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -6789,7 +6803,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>21.45603555154553</v>
+        <v>80.32617355687245</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -6798,7 +6812,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>21.36540488382984</v>
+        <v>80.33874361297413</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -6807,7 +6821,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>21.73166813758439</v>
+        <v>80.71530125650501</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -6816,7 +6830,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>21.78881893596814</v>
+        <v>79.60286365189043</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -6825,7 +6839,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>21.77339298779702</v>
+        <v>77.91023913804889</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -6834,7 +6848,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>21.39567805017157</v>
+        <v>78.19834868683459</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -6843,7 +6857,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>21.39588572999849</v>
+        <v>78.10269026734174</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -6852,7 +6866,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>21.39605936601324</v>
+        <v>78.65939424925946</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -6861,7 +6875,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>21.92515477492917</v>
+        <v>80.55419134031665</v>
       </c>
     </row>
     <row r="145">
@@ -6869,7 +6883,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>21.75252387455341</v>
+        <v>80.95240121820888</v>
       </c>
     </row>
     <row r="146">
@@ -6916,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-17.54862504777039</v>
+        <v>-58.62536115790875</v>
       </c>
     </row>
     <row r="3">
@@ -6924,7 +6938,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-17.91831382537749</v>
+        <v>-58.54311350962538</v>
       </c>
     </row>
     <row r="4">
@@ -6932,7 +6946,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-17.50663540184819</v>
+        <v>-58.61928221791418</v>
       </c>
     </row>
     <row r="5">
@@ -6940,7 +6954,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-17.52962373256044</v>
+        <v>-58.69150855594631</v>
       </c>
     </row>
     <row r="6">
@@ -6948,7 +6962,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-17.51618435900852</v>
+        <v>-58.63286535560772</v>
       </c>
     </row>
     <row r="7">
@@ -6956,7 +6970,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-17.50739311463041</v>
+        <v>-58.84795689788885</v>
       </c>
     </row>
     <row r="8">
@@ -6964,7 +6978,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-17.49633936342148</v>
+        <v>-58.88978989897509</v>
       </c>
     </row>
     <row r="9">
@@ -6972,7 +6986,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-17.50938611852678</v>
+        <v>-59.03769216780722</v>
       </c>
     </row>
     <row r="10">
@@ -6980,7 +6994,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-17.5184159865132</v>
+        <v>-59.02747048030361</v>
       </c>
     </row>
     <row r="11">
@@ -6988,7 +7002,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-17.51841564959206</v>
+        <v>-59.00553634492536</v>
       </c>
     </row>
     <row r="12">
@@ -6996,7 +7010,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-17.50587838706648</v>
+        <v>-59.23900974260822</v>
       </c>
     </row>
     <row r="13">
@@ -7004,7 +7018,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-17.49482407894412</v>
+        <v>-59.15868535405313</v>
       </c>
     </row>
     <row r="14">
@@ -7012,7 +7026,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-17.57480274057281</v>
+        <v>-59.19510577175356</v>
       </c>
     </row>
     <row r="15">
@@ -7020,7 +7034,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-17.59779389664186</v>
+        <v>-59.26052977876498</v>
       </c>
     </row>
     <row r="16">
@@ -7028,7 +7042,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-17.53214140886025</v>
+        <v>-59.32133289155374</v>
       </c>
     </row>
     <row r="17">
@@ -7036,7 +7050,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-17.48887557728976</v>
+        <v>-59.3342428447443</v>
       </c>
     </row>
     <row r="18">
@@ -7044,7 +7058,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-17.49642701817688</v>
+        <v>-59.49797469268616</v>
       </c>
     </row>
     <row r="19">
@@ -7052,7 +7066,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-18.0302410086997</v>
+        <v>-59.59820036993756</v>
       </c>
     </row>
     <row r="20">
@@ -7060,7 +7074,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-18.0365036227764</v>
+        <v>-59.58353556325348</v>
       </c>
     </row>
     <row r="21">
@@ -7068,7 +7082,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-17.61408925083602</v>
+        <v>-59.82662050598859</v>
       </c>
     </row>
     <row r="22">
@@ -7076,7 +7090,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-17.4868026696278</v>
+        <v>-59.9044147410518</v>
       </c>
     </row>
     <row r="23">
@@ -7084,7 +7098,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-17.6393576100906</v>
+        <v>-59.86998824090437</v>
       </c>
     </row>
     <row r="24">
@@ -7092,7 +7106,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-17.49047873489144</v>
+        <v>-60.03678045712252</v>
       </c>
     </row>
     <row r="25">
@@ -7100,7 +7114,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-17.90991905811856</v>
+        <v>-60.51974104251013</v>
       </c>
     </row>
     <row r="26">
@@ -7108,7 +7122,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-17.52069779321669</v>
+        <v>-60.58777431667999</v>
       </c>
     </row>
     <row r="27">
@@ -7116,7 +7130,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-17.67531699055027</v>
+        <v>-60.51780361030431</v>
       </c>
     </row>
     <row r="28">
@@ -7124,7 +7138,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-17.65255375538848</v>
+        <v>-60.32952677584542</v>
       </c>
     </row>
     <row r="29">
@@ -7132,7 +7146,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-17.66361023895076</v>
+        <v>-60.40138313264388</v>
       </c>
     </row>
     <row r="30">
@@ -7140,7 +7154,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-17.77719908044624</v>
+        <v>-60.41023872425904</v>
       </c>
     </row>
     <row r="31">
@@ -7148,7 +7162,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-17.70798216462893</v>
+        <v>-60.48315447851812</v>
       </c>
     </row>
     <row r="32">
@@ -7156,7 +7170,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-17.77719353092779</v>
+        <v>-60.41476600922593</v>
       </c>
     </row>
     <row r="33">
@@ -7164,7 +7178,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-17.80137695225474</v>
+        <v>-60.72461743574969</v>
       </c>
     </row>
     <row r="34">
@@ -7172,7 +7186,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-17.80132189940711</v>
+        <v>-60.67138576420011</v>
       </c>
     </row>
     <row r="35">
@@ -7180,7 +7194,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-17.8125326308946</v>
+        <v>-60.62827803960543</v>
       </c>
     </row>
     <row r="36">
@@ -7188,7 +7202,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-17.83183118689886</v>
+        <v>-60.99194067601471</v>
       </c>
     </row>
     <row r="37">
@@ -7196,7 +7210,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-17.74912318123621</v>
+        <v>-60.94675352082793</v>
       </c>
     </row>
     <row r="38">
@@ -7204,7 +7218,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-17.83187368170317</v>
+        <v>-60.90302554885444</v>
       </c>
     </row>
     <row r="39">
@@ -7212,7 +7226,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-17.84059269606464</v>
+        <v>-60.987756155349</v>
       </c>
     </row>
     <row r="40">
@@ -7220,7 +7234,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-17.8406035723542</v>
+        <v>-61.03318542684546</v>
       </c>
     </row>
     <row r="41">
@@ -7228,7 +7242,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-17.84717731569803</v>
+        <v>-61.03999275952024</v>
       </c>
     </row>
     <row r="42">
@@ -7236,7 +7250,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-17.81708739253662</v>
+        <v>-60.97552298009707</v>
       </c>
     </row>
     <row r="43">
@@ -7244,7 +7258,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-17.82816549853702</v>
+        <v>-61.03376844940097</v>
       </c>
     </row>
     <row r="44">
@@ -7252,7 +7266,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-17.81708711269075</v>
+        <v>-61.07004769329672</v>
       </c>
     </row>
     <row r="45">
@@ -7260,7 +7274,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-17.72183350485817</v>
+        <v>-61.00630130794005</v>
       </c>
     </row>
     <row r="46">
@@ -7268,7 +7282,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-17.72182525217864</v>
+        <v>-61.03925467014002</v>
       </c>
     </row>
     <row r="47">
@@ -7276,7 +7290,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-17.73287063344521</v>
+        <v>-61.01227575900824</v>
       </c>
     </row>
     <row r="48">
@@ -7284,7 +7298,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-17.70988397925143</v>
+        <v>-61.07981898884318</v>
       </c>
     </row>
     <row r="49">
@@ -7292,7 +7306,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-17.71000004439279</v>
+        <v>-61.0353465773383</v>
       </c>
     </row>
     <row r="50">
@@ -7300,7 +7314,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-17.71004188857284</v>
+        <v>-61.05884879987144</v>
       </c>
     </row>
     <row r="51">
@@ -7308,7 +7322,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-17.82603374890813</v>
+        <v>-61.04266702381111</v>
       </c>
     </row>
     <row r="52">
@@ -7316,7 +7330,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-17.8260355785792</v>
+        <v>-61.03651059682868</v>
       </c>
     </row>
     <row r="53">
@@ -7324,7 +7338,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-17.81496313568568</v>
+        <v>-60.99452260104926</v>
       </c>
     </row>
     <row r="54">
@@ -7332,7 +7346,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-17.83697954843408</v>
+        <v>-61.02909958346751</v>
       </c>
     </row>
     <row r="55">
@@ -7340,7 +7354,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-17.82674808786208</v>
+        <v>-61.01776572645127</v>
       </c>
     </row>
     <row r="56">
@@ -7348,7 +7362,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-17.81556092311661</v>
+        <v>-60.99757565978867</v>
       </c>
     </row>
     <row r="57">
@@ -7356,7 +7370,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-17.83262753042433</v>
+        <v>-61.0446796183598</v>
       </c>
     </row>
     <row r="58">
@@ -7364,7 +7378,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-17.84361793793785</v>
+        <v>-61.05297965604814</v>
       </c>
     </row>
     <row r="59">
@@ -7372,7 +7386,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-17.84368150560475</v>
+        <v>-61.06567839135136</v>
       </c>
     </row>
     <row r="60">
@@ -7380,7 +7394,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-17.81775954401036</v>
+        <v>-60.91120677626385</v>
       </c>
     </row>
     <row r="61">
@@ -7388,7 +7402,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-17.82146455301098</v>
+        <v>-60.97499701850871</v>
       </c>
     </row>
     <row r="62">
@@ -7396,7 +7410,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-17.80517047349793</v>
+        <v>-60.99608428730503</v>
       </c>
     </row>
     <row r="63">
@@ -7404,7 +7418,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-17.73441192122388</v>
+        <v>-60.8079287521651</v>
       </c>
     </row>
     <row r="64">
@@ -7412,7 +7426,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-17.74548690499627</v>
+        <v>-60.77860116111555</v>
       </c>
     </row>
     <row r="65">
@@ -7420,7 +7434,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-17.57893433632393</v>
+        <v>-60.72212293950619</v>
       </c>
     </row>
     <row r="66">
@@ -7428,7 +7442,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-17.5354625707575</v>
+        <v>-60.52790489033862</v>
       </c>
     </row>
     <row r="67">
@@ -7436,7 +7450,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-17.56860327371553</v>
+        <v>-60.5532319310057</v>
       </c>
     </row>
     <row r="68">
@@ -7444,7 +7458,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-17.5796324892313</v>
+        <v>-60.56531253925644</v>
       </c>
     </row>
     <row r="69">
@@ -7452,7 +7466,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-17.50819970086765</v>
+        <v>-60.41663179549992</v>
       </c>
     </row>
     <row r="70">
@@ -7460,7 +7474,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-17.50820343727775</v>
+        <v>-60.4354628443994</v>
       </c>
     </row>
     <row r="71">
@@ -7468,7 +7482,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-17.51632827624182</v>
+        <v>-60.36574709844113</v>
       </c>
     </row>
     <row r="72">
@@ -7476,7 +7490,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-17.5141150124512</v>
+        <v>-60.32717015040337</v>
       </c>
     </row>
     <row r="73">
@@ -7484,7 +7498,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-17.97651446629358</v>
+        <v>-60.39007370495425</v>
       </c>
     </row>
     <row r="74">
@@ -7492,7 +7506,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-17.95374925702863</v>
+        <v>-60.35377520916601</v>
       </c>
     </row>
     <row r="75">
@@ -7500,7 +7514,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-17.60473584985936</v>
+        <v>-60.29353336617034</v>
       </c>
     </row>
     <row r="76">
@@ -7508,7 +7522,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-17.51335476419514</v>
+        <v>-60.29907392568391</v>
       </c>
     </row>
     <row r="77">
@@ -7516,7 +7530,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-17.52440276876421</v>
+        <v>-60.37389422194303</v>
       </c>
     </row>
     <row r="78">
@@ -7524,7 +7538,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-17.50747496706686</v>
+        <v>-60.4335865197373</v>
       </c>
     </row>
     <row r="79">
@@ -7532,7 +7546,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-17.51925723496043</v>
+        <v>-60.44891959716934</v>
       </c>
     </row>
     <row r="80">
@@ -7540,7 +7554,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-17.51264267059409</v>
+        <v>-60.41632526218061</v>
       </c>
     </row>
     <row r="81">
@@ -7548,7 +7562,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-17.55166846935362</v>
+        <v>-60.42196477481568</v>
       </c>
     </row>
     <row r="82">
@@ -7556,7 +7570,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-17.60624726032226</v>
+        <v>-60.446289479687</v>
       </c>
     </row>
     <row r="83">
@@ -7564,7 +7578,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-17.49716845219646</v>
+        <v>-60.43206477070561</v>
       </c>
     </row>
     <row r="84">
@@ -7572,7 +7586,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-17.50009716893477</v>
+        <v>-60.51642420377054</v>
       </c>
     </row>
     <row r="85">
@@ -7580,7 +7594,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-17.49052821942644</v>
+        <v>-60.47102553132694</v>
       </c>
     </row>
     <row r="86">
@@ -7588,7 +7602,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-17.490531534756</v>
+        <v>-60.45818516340245</v>
       </c>
     </row>
     <row r="87">
@@ -7596,7 +7610,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-17.51408538183057</v>
+        <v>-60.45422160734896</v>
       </c>
     </row>
     <row r="88">
@@ -7604,7 +7618,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-17.52514297005807</v>
+        <v>-60.45046899240059</v>
       </c>
     </row>
     <row r="89">
@@ -7612,7 +7626,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-17.52515434844854</v>
+        <v>-60.44194356848608</v>
       </c>
     </row>
     <row r="90">
@@ -7620,7 +7634,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-17.51040644745031</v>
+        <v>-60.46728231282132</v>
       </c>
     </row>
     <row r="91">
@@ -7628,7 +7642,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-17.51041436214795</v>
+        <v>-60.47756636334986</v>
       </c>
     </row>
     <row r="92">
@@ -7636,7 +7650,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-17.49935817773207</v>
+        <v>-60.47723513688348</v>
       </c>
     </row>
     <row r="93">
@@ -7644,7 +7658,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-17.51409272304679</v>
+        <v>-60.45171125970768</v>
       </c>
     </row>
     <row r="94">
@@ -7652,7 +7666,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-17.50304312233859</v>
+        <v>-60.48485667510472</v>
       </c>
     </row>
     <row r="95">
@@ -7660,7 +7674,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-17.52515816029144</v>
+        <v>-60.46787146662101</v>
       </c>
     </row>
     <row r="96">
@@ -7668,7 +7682,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-17.50600917603079</v>
+        <v>-60.46548982513586</v>
       </c>
     </row>
     <row r="97">
@@ -7676,7 +7690,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-17.5170621621005</v>
+        <v>-60.47357449203823</v>
       </c>
     </row>
     <row r="98">
@@ -7684,7 +7698,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-17.49495605563727</v>
+        <v>-60.47566854138268</v>
       </c>
     </row>
     <row r="99">
@@ -7692,7 +7706,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-17.67040625979815</v>
+        <v>-60.53182177911651</v>
       </c>
     </row>
     <row r="100">
@@ -7700,7 +7714,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-17.6592866800438</v>
+        <v>-60.52029507239254</v>
       </c>
     </row>
     <row r="101">
@@ -7708,7 +7722,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-17.68147327476163</v>
+        <v>-60.50716164074871</v>
       </c>
     </row>
     <row r="102">
@@ -7716,7 +7730,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-17.66228683769435</v>
+        <v>-60.53897150186823</v>
       </c>
     </row>
     <row r="103">
@@ -7724,7 +7738,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-17.6165601933256</v>
+        <v>-60.62915269930309</v>
       </c>
     </row>
     <row r="104">
@@ -7732,7 +7746,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-17.5604944978941</v>
+        <v>-60.93999182993868</v>
       </c>
     </row>
     <row r="105">
@@ -7740,7 +7754,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-17.58998315827523</v>
+        <v>-60.67785696284471</v>
       </c>
     </row>
     <row r="106">
@@ -7748,7 +7762,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-17.68430815190283</v>
+        <v>-60.55365738371123</v>
       </c>
     </row>
     <row r="107">
@@ -7756,7 +7770,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-17.69536483044496</v>
+        <v>-60.50405943494524</v>
       </c>
     </row>
     <row r="108">
@@ -7764,7 +7778,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-17.70140501533243</v>
+        <v>-60.48961392620434</v>
       </c>
     </row>
     <row r="109">
@@ -7772,7 +7786,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-17.66371192539297</v>
+        <v>-60.50961381207271</v>
       </c>
     </row>
     <row r="110">
@@ -7780,7 +7794,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-17.69026628142603</v>
+        <v>-60.45765764559891</v>
       </c>
     </row>
     <row r="111">
@@ -7788,7 +7802,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-17.60258954422885</v>
+        <v>-60.51273585371516</v>
       </c>
     </row>
     <row r="112">
@@ -7796,7 +7810,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-17.61361739195713</v>
+        <v>-60.50793222828995</v>
       </c>
     </row>
     <row r="113">
@@ -7804,7 +7818,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-17.61361343589834</v>
+        <v>-60.48150441780539</v>
       </c>
     </row>
     <row r="114">
@@ -7812,7 +7826,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-17.61576689537139</v>
+        <v>-60.52913249105151</v>
       </c>
     </row>
     <row r="115">
@@ -7820,7 +7834,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-17.78161544968699</v>
+        <v>-60.56063145882368</v>
       </c>
     </row>
     <row r="116">
@@ -7828,7 +7842,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-17.7301387880929</v>
+        <v>-60.51011471073993</v>
       </c>
     </row>
     <row r="117">
@@ -7836,7 +7850,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-17.82981401297304</v>
+        <v>-60.3677718073868</v>
       </c>
     </row>
     <row r="118">
@@ -7844,7 +7858,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-17.91841895383737</v>
+        <v>-60.37228067475843</v>
       </c>
     </row>
     <row r="119">
@@ -7852,7 +7866,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-17.50896135451826</v>
+        <v>-60.40212657023457</v>
       </c>
     </row>
     <row r="120">
@@ -7860,7 +7874,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-17.91081250810422</v>
+        <v>-60.35431719692324</v>
       </c>
     </row>
     <row r="121">
@@ -7868,7 +7882,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-17.7033755328697</v>
+        <v>-60.41511234361125</v>
       </c>
     </row>
     <row r="122">
@@ -7876,7 +7890,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-17.8577684037424</v>
+        <v>-60.37494003841655</v>
       </c>
     </row>
     <row r="123">
@@ -7884,7 +7898,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-17.90489563580323</v>
+        <v>-60.11998978534736</v>
       </c>
     </row>
     <row r="124">
@@ -7892,7 +7906,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-17.89374517553299</v>
+        <v>-60.15320586425985</v>
       </c>
     </row>
     <row r="125">
@@ -7900,7 +7914,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-17.90482946574044</v>
+        <v>-60.165088289722</v>
       </c>
     </row>
     <row r="126">
@@ -7908,7 +7922,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-17.52068499458833</v>
+        <v>-59.85819159895661</v>
       </c>
     </row>
     <row r="127">
@@ -7916,7 +7930,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-17.72480866648894</v>
+        <v>-59.82913170829791</v>
       </c>
     </row>
     <row r="128">
@@ -7924,7 +7938,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-17.72999569853098</v>
+        <v>-59.82847325699323</v>
       </c>
     </row>
     <row r="129">
@@ -7932,7 +7946,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-17.90195705422264</v>
+        <v>-59.61777676506397</v>
       </c>
     </row>
     <row r="130">
@@ -7940,7 +7954,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-17.50370093444513</v>
+        <v>-59.54574553217648</v>
       </c>
     </row>
     <row r="131">
@@ -7948,7 +7962,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-17.9129795210937</v>
+        <v>-59.50611429723339</v>
       </c>
     </row>
     <row r="132">
@@ -7956,7 +7970,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-17.88988729768772</v>
+        <v>-59.05690958273058</v>
       </c>
     </row>
     <row r="133">
@@ -7964,7 +7978,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-17.68727930018227</v>
+        <v>-59.01905318806217</v>
       </c>
     </row>
     <row r="134">
@@ -7972,7 +7986,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-17.69833532782492</v>
+        <v>-59.12159460764215</v>
       </c>
     </row>
     <row r="135">
@@ -7980,7 +7994,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-17.86565572283814</v>
+        <v>-58.94747618333573</v>
       </c>
     </row>
     <row r="136">
@@ -7988,7 +8002,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-17.88205810012342</v>
+        <v>-58.94650936645996</v>
       </c>
     </row>
     <row r="137">
@@ -7996,7 +8010,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-17.64371706786897</v>
+        <v>-58.95516974974744</v>
       </c>
     </row>
     <row r="138">
@@ -8004,7 +8018,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-17.50420527530893</v>
+        <v>-58.64704089563165</v>
       </c>
     </row>
     <row r="139">
@@ -8012,7 +8026,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-17.66670348056322</v>
+        <v>-59.21943979498733</v>
       </c>
     </row>
     <row r="140">
@@ -8020,7 +8034,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-17.54021365960457</v>
+        <v>-59.79332021449904</v>
       </c>
     </row>
     <row r="141">
@@ -8028,7 +8042,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-17.64450896723299</v>
+        <v>-59.09951355993112</v>
       </c>
     </row>
     <row r="142">
@@ -8036,7 +8050,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-17.48309944743511</v>
+        <v>-58.94365087462521</v>
       </c>
     </row>
     <row r="143">
@@ -8044,7 +8058,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-17.53723218359499</v>
+        <v>-58.9610866441273</v>
       </c>
     </row>
     <row r="144">
@@ -8052,7 +8066,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-17.53264665791384</v>
+        <v>-58.68649842056568</v>
       </c>
     </row>
     <row r="145">
@@ -8060,7 +8074,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-17.91308650997876</v>
+        <v>-58.61126055114761</v>
       </c>
     </row>
     <row r="146">

--- a/testcases/timeseries/EVDay01_mix10.xlsx
+++ b/testcases/timeseries/EVDay01_mix10.xlsx
@@ -1800,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1887,37 +1887,23 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2016000166</v>
+        <v>2012008998</v>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="D2" t="n">
-        <v>35.63554358327789</v>
+        <v>57.03881439566239</v>
       </c>
       <c r="E2" t="n">
-        <v>42.14754358327789</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="n">
-        <v>2016000166</v>
-      </c>
-      <c r="B3" t="n">
-        <v>47</v>
-      </c>
-      <c r="C3" t="n">
-        <v>123</v>
-      </c>
-      <c r="D3" t="n">
-        <v>37.51264438327788</v>
-      </c>
-      <c r="E3" t="n">
-        <v>74.73886598010249</v>
-      </c>
+      <c r="A3" s="7" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n"/>
@@ -5597,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>80.88696573517835</v>
+        <v>38.94814751781206</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -5606,7 +5592,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>80.33139362951985</v>
+        <v>38.44539378398421</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -5615,7 +5601,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>79.96135284517482</v>
+        <v>37.95006511841737</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -5624,7 +5610,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>80.33563874103484</v>
+        <v>38.46084967344783</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -5633,7 +5619,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>80.19586845408581</v>
+        <v>38.28803560322174</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -5642,7 +5628,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>80.17142819678719</v>
+        <v>38.37032151956242</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -5651,7 +5637,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>80.38974926230649</v>
+        <v>38.42425614615322</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -5660,7 +5646,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>80.09401398504417</v>
+        <v>38.15111911703654</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -5669,7 +5655,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>80.0070231136862</v>
+        <v>38.11712167953282</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -5678,7 +5664,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>80.42127424021713</v>
+        <v>38.56849627029457</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -5687,7 +5673,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>79.48485336687592</v>
+        <v>37.66982563917204</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -5696,7 +5682,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>79.11015535887701</v>
+        <v>37.37179046395202</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -5705,7 +5691,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>79.32269495161468</v>
+        <v>37.53246115830454</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -5714,7 +5700,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>80.47848898389294</v>
+        <v>38.5238092271291</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -5723,7 +5709,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>80.62461508612461</v>
+        <v>38.78403500338199</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -5732,7 +5718,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>80.47709365633163</v>
+        <v>38.5320836257816</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -5741,7 +5727,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>80.39090273351214</v>
+        <v>38.50630994297467</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -5750,7 +5736,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>80.43885246159587</v>
+        <v>38.57872590616164</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -5759,7 +5745,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>80.45659203472034</v>
+        <v>38.67162163661006</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -5768,7 +5754,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>79.71870264541749</v>
+        <v>37.84557889782805</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -5777,7 +5763,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>79.73405871164292</v>
+        <v>37.7371757259985</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -5786,7 +5772,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>79.86038559915693</v>
+        <v>37.96381352737934</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -5795,7 +5781,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>80.44748927467644</v>
+        <v>38.63995864933978</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -5804,7 +5790,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>79.10411822801753</v>
+        <v>37.23243961431683</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -5813,7 +5799,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>77.16076624607274</v>
+        <v>35.22523284687271</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -5822,7 +5808,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>77.86603888873195</v>
+        <v>35.90122065751705</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -5831,7 +5817,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>77.94441289542033</v>
+        <v>35.98298413682943</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -5840,7 +5826,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>77.71611970984334</v>
+        <v>35.84066927506647</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -5849,7 +5835,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>79.54046191084937</v>
+        <v>37.59069170194278</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -5858,7 +5844,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>79.32170082126437</v>
+        <v>37.39812180327667</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -5867,7 +5853,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>78.82314546408618</v>
+        <v>37.07295885909709</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -5876,7 +5862,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>79.51129419827825</v>
+        <v>37.68088964151883</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -5885,7 +5871,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>79.54024947006862</v>
+        <v>37.69179701989486</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -5894,7 +5880,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>79.57604943603883</v>
+        <v>37.74320097128736</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -5903,7 +5889,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>79.03817327670033</v>
+        <v>37.16444941074548</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -5912,7 +5898,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>79.00379125628055</v>
+        <v>37.05018214788996</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -5921,7 +5907,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>77.94037792728352</v>
+        <v>36.07311355727619</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -5930,7 +5916,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>78.99027895059542</v>
+        <v>37.01843201643095</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -5939,7 +5925,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>78.92085420505398</v>
+        <v>36.97153093994858</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -5948,7 +5934,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>79.09887263213643</v>
+        <v>37.27373613773216</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -5957,7 +5943,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>79.00435483630126</v>
+        <v>37.06404016764296</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -5966,7 +5952,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>79.48021472129237</v>
+        <v>37.68889106384783</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -5975,7 +5961,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>79.63778639891616</v>
+        <v>37.79689435130355</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -5984,7 +5970,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>78.57816205344301</v>
+        <v>36.73768147929829</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -5993,7 +5979,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>78.54981967044584</v>
+        <v>36.69968428430221</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -6002,7 +5988,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>78.52540063027871</v>
+        <v>36.65221288473874</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -6011,7 +5997,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>79.30016316328728</v>
+        <v>37.32595062870725</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -6020,7 +6006,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>79.3486086168846</v>
+        <v>37.39923910570928</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -6029,7 +6015,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>79.4836688480266</v>
+        <v>37.69066061571155</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -6038,7 +6024,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>78.57616435909013</v>
+        <v>36.66790088290399</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -6047,7 +6033,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>78.45939076867859</v>
+        <v>36.56773395811661</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -6056,7 +6042,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>79.11236449690696</v>
+        <v>37.10867787321593</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -6065,7 +6051,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>78.84917705887467</v>
+        <v>37.01541042976969</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -6074,7 +6060,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>78.756579648282</v>
+        <v>36.8938724052535</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -6083,7 +6069,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>78.77291533946129</v>
+        <v>36.87815181790603</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -6092,7 +6078,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>78.07238583716595</v>
+        <v>36.07901110574237</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -6101,7 +6087,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>78.03670143808912</v>
+        <v>36.13886438065511</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -6110,7 +6096,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>78.01476307050741</v>
+        <v>36.10498007152938</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -6119,7 +6105,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>78.26073960282913</v>
+        <v>36.41874904692592</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -6128,7 +6114,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>78.31159119779086</v>
+        <v>36.41015876011504</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -6137,7 +6123,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>78.26721895132538</v>
+        <v>36.35812327113056</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -6146,7 +6132,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>79.74996919467532</v>
+        <v>37.7843428202164</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -6155,7 +6141,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>79.62731126067426</v>
+        <v>37.71826054117023</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -6164,7 +6150,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>79.68470454342858</v>
+        <v>37.75592632194078</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -6173,7 +6159,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>79.73961553622196</v>
+        <v>37.82818964566804</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -6182,7 +6168,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>79.73143971071394</v>
+        <v>37.9095641252983</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -6191,7 +6177,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>79.90465732420455</v>
+        <v>38.07209851636759</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -6200,7 +6186,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>79.84078800636257</v>
+        <v>37.89512888499597</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -6209,7 +6195,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>79.88094524823126</v>
+        <v>38.00360022589978</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -6218,7 +6204,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>79.94869569168087</v>
+        <v>38.10024470054339</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -6227,7 +6213,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>79.98160315755965</v>
+        <v>38.20509789370988</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -6236,7 +6222,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>79.81314630591042</v>
+        <v>38.08989153620666</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -6245,7 +6231,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>80.11049716745083</v>
+        <v>38.41619900894513</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -6254,7 +6240,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>80.01460587730354</v>
+        <v>38.2253627985116</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -6263,7 +6249,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>80.10154467041521</v>
+        <v>38.28031192082116</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -6272,7 +6258,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>79.97568011511494</v>
+        <v>38.18429031754316</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -6281,7 +6267,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>80.02527527667068</v>
+        <v>38.13220480403155</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -6290,7 +6276,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>80.48103754534311</v>
+        <v>38.61845667952895</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -6299,7 +6285,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>80.36605466574279</v>
+        <v>38.57675233890956</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -6308,7 +6294,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>80.27921702240232</v>
+        <v>38.41554609913477</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -6317,7 +6303,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>79.93939658877493</v>
+        <v>38.12667682913326</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -6326,7 +6312,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>79.89039803702147</v>
+        <v>38.05002561629941</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -6335,7 +6321,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>79.9869644599582</v>
+        <v>38.15894069574685</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -6344,7 +6330,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>80.34142336380336</v>
+        <v>38.48633062767594</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -6353,7 +6339,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>80.3323677111878</v>
+        <v>38.55447200593155</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -6362,7 +6348,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>80.52639198734342</v>
+        <v>38.68956170200786</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -6371,7 +6357,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>80.53896188638203</v>
+        <v>38.72031961387294</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -6380,7 +6366,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>80.51800960320043</v>
+        <v>38.7152735291397</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -6389,7 +6375,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>80.44150297383402</v>
+        <v>38.65924763598836</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -6398,7 +6384,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>80.54716888616025</v>
+        <v>38.69803614749311</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -6407,7 +6393,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>80.47993735781915</v>
+        <v>38.64570154764617</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -6416,7 +6402,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>80.67116838749421</v>
+        <v>38.75542929765308</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -6425,7 +6411,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>80.6680732883498</v>
+        <v>38.79674186859255</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -6434,7 +6420,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>80.72665282873604</v>
+        <v>38.89932756270655</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -6443,7 +6429,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>80.66989107182282</v>
+        <v>38.73992214720279</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -6452,7 +6438,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>80.63480723338819</v>
+        <v>38.79283609694021</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -6461,7 +6447,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>80.72618616904734</v>
+        <v>38.79362243761248</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -6470,7 +6456,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>80.41662213703465</v>
+        <v>38.58316329770845</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -6479,7 +6465,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>80.48322667313012</v>
+        <v>38.58505213971774</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -6488,7 +6474,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>80.54594594386988</v>
+        <v>38.65377989055888</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -6497,7 +6483,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>80.96277296376934</v>
+        <v>39.10423669850688</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -6506,7 +6492,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>79.73435944464826</v>
+        <v>37.81068422179917</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -6515,7 +6501,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>78.04126561600248</v>
+        <v>36.12941940435734</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -6524,7 +6510,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>78.14112458086548</v>
+        <v>36.12498507495351</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -6533,7 +6519,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>78.13102485569192</v>
+        <v>36.21028200257143</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -6542,7 +6528,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>78.59607954337849</v>
+        <v>36.65614077019149</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -6551,7 +6537,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>80.62763690484401</v>
+        <v>38.80856391994335</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -6560,7 +6546,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>80.45510244136119</v>
+        <v>38.52289563187721</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -6569,7 +6555,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>80.6739266550527</v>
+        <v>38.74016334814983</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -6578,7 +6564,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>80.319082170136</v>
+        <v>38.44096675909543</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -6587,7 +6573,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>80.27957523641825</v>
+        <v>38.37361157571467</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -6596,7 +6582,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>80.27570202527194</v>
+        <v>38.53694413712143</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -6605,7 +6591,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>80.22702248814886</v>
+        <v>38.50840993942281</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -6614,7 +6600,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>80.05171908785182</v>
+        <v>38.24164608491623</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -6623,7 +6609,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>80.13295797821851</v>
+        <v>38.30347486103872</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -6632,7 +6618,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>80.15492166649832</v>
+        <v>38.33223678988633</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -6641,7 +6627,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>80.38417641507459</v>
+        <v>38.53854376403604</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -6650,7 +6636,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>80.40817590838223</v>
+        <v>38.67994046579037</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -6659,7 +6645,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>80.29265257534632</v>
+        <v>38.43559289497321</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -6668,7 +6654,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>80.46451939052739</v>
+        <v>38.62213607288788</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -6677,7 +6663,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>80.039467408286</v>
+        <v>38.2274107826771</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -6686,7 +6672,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>80.35887319148307</v>
+        <v>38.5496671531162</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -6695,7 +6681,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>80.51459930389812</v>
+        <v>38.80696052916474</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -6704,7 +6690,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>80.75134170153918</v>
+        <v>39.0088297753098</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -6713,7 +6699,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>80.33834438808641</v>
+        <v>38.51710974358315</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -6722,7 +6708,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>80.47976338767104</v>
+        <v>38.63411025358166</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -6731,7 +6717,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>80.85543130527819</v>
+        <v>39.02319149177148</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -6740,7 +6726,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>80.2265612875225</v>
+        <v>38.45141236093169</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -6749,7 +6735,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>80.17638381733416</v>
+        <v>38.35033734605423</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -6758,7 +6744,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>80.2187893935582</v>
+        <v>38.30337019484874</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -6767,7 +6753,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>80.13511043165398</v>
+        <v>38.28436590775625</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -6776,7 +6762,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>80.50096045190332</v>
+        <v>38.66039207591808</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -6785,7 +6771,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>80.61735860465055</v>
+        <v>38.77249507765913</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -6794,7 +6780,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>80.32418787090465</v>
+        <v>38.57025594890745</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -6803,7 +6789,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>80.32617355687245</v>
+        <v>38.52614499051534</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -6812,7 +6798,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>80.33874361297413</v>
+        <v>38.56236773792875</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -6821,7 +6807,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>80.71530125650501</v>
+        <v>38.84944169553397</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -6830,7 +6816,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>79.60286365189043</v>
+        <v>37.71164899027399</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -6839,7 +6825,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>77.91023913804889</v>
+        <v>35.9405848695412</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -6848,7 +6834,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>78.19834868683459</v>
+        <v>36.20169725225171</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -6857,7 +6843,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>78.10269026734174</v>
+        <v>36.25868208841301</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -6866,7 +6852,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>78.65939424925946</v>
+        <v>36.76388216518377</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -6875,7 +6861,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>80.55419134031665</v>
+        <v>38.70897875200644</v>
       </c>
     </row>
     <row r="145">
@@ -6883,7 +6869,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>80.95240121820888</v>
+        <v>39.04376521058406</v>
       </c>
     </row>
     <row r="146">
@@ -6930,7 +6916,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-58.62536115790875</v>
+        <v>-26.85303218315355</v>
       </c>
     </row>
     <row r="3">
@@ -6938,7 +6924,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-58.54311350962538</v>
+        <v>-26.81922793891247</v>
       </c>
     </row>
     <row r="4">
@@ -6946,7 +6932,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-58.61928221791418</v>
+        <v>-26.86664059253588</v>
       </c>
     </row>
     <row r="5">
@@ -6954,7 +6940,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-58.69150855594631</v>
+        <v>-26.86103863891569</v>
       </c>
     </row>
     <row r="6">
@@ -6962,7 +6948,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-58.63286535560772</v>
+        <v>-26.80364288163057</v>
       </c>
     </row>
     <row r="7">
@@ -6970,7 +6956,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-58.84795689788885</v>
+        <v>-27.03080649911989</v>
       </c>
     </row>
     <row r="8">
@@ -6978,7 +6964,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-58.88978989897509</v>
+        <v>-27.06134408222902</v>
       </c>
     </row>
     <row r="9">
@@ -6986,7 +6972,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-59.03769216780722</v>
+        <v>-27.29689792380277</v>
       </c>
     </row>
     <row r="10">
@@ -6994,7 +6980,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-59.02747048030361</v>
+        <v>-27.34402747954065</v>
       </c>
     </row>
     <row r="11">
@@ -7002,7 +6988,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-59.00553634492536</v>
+        <v>-27.31908330537559</v>
       </c>
     </row>
     <row r="12">
@@ -7010,7 +6996,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-59.23900974260822</v>
+        <v>-27.5031857242282</v>
       </c>
     </row>
     <row r="13">
@@ -7018,7 +7004,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-59.15868535405313</v>
+        <v>-27.48260950319925</v>
       </c>
     </row>
     <row r="14">
@@ -7026,7 +7012,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-59.19510577175356</v>
+        <v>-27.50522941254636</v>
       </c>
     </row>
     <row r="15">
@@ -7034,7 +7020,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-59.26052977876498</v>
+        <v>-27.61569315636932</v>
       </c>
     </row>
     <row r="16">
@@ -7042,7 +7028,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-59.32133289155374</v>
+        <v>-27.63651849647063</v>
       </c>
     </row>
     <row r="17">
@@ -7050,7 +7036,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-59.3342428447443</v>
+        <v>-27.52032480378558</v>
       </c>
     </row>
     <row r="18">
@@ -7058,7 +7044,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-59.49797469268616</v>
+        <v>-27.79538019665213</v>
       </c>
     </row>
     <row r="19">
@@ -7066,7 +7052,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-59.59820036993756</v>
+        <v>-27.85599628120243</v>
       </c>
     </row>
     <row r="20">
@@ -7074,7 +7060,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-59.58353556325348</v>
+        <v>-27.85957707266011</v>
       </c>
     </row>
     <row r="21">
@@ -7082,7 +7068,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-59.82662050598859</v>
+        <v>-28.07687422073599</v>
       </c>
     </row>
     <row r="22">
@@ -7090,7 +7076,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-59.9044147410518</v>
+        <v>-28.07153823237993</v>
       </c>
     </row>
     <row r="23">
@@ -7098,7 +7084,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-59.86998824090437</v>
+        <v>-28.00208973531413</v>
       </c>
     </row>
     <row r="24">
@@ -7106,7 +7092,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-60.03678045712252</v>
+        <v>-28.27355504199464</v>
       </c>
     </row>
     <row r="25">
@@ -7114,7 +7100,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-60.51974104251013</v>
+        <v>-28.76592191128936</v>
       </c>
     </row>
     <row r="26">
@@ -7122,7 +7108,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-60.58777431667999</v>
+        <v>-28.84631899149043</v>
       </c>
     </row>
     <row r="27">
@@ -7130,7 +7116,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-60.51780361030431</v>
+        <v>-28.78267742812367</v>
       </c>
     </row>
     <row r="28">
@@ -7138,7 +7124,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-60.32952677584542</v>
+        <v>-28.67810862820451</v>
       </c>
     </row>
     <row r="29">
@@ -7146,7 +7132,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-60.40138313264388</v>
+        <v>-28.72399194464762</v>
       </c>
     </row>
     <row r="30">
@@ -7154,7 +7140,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-60.41023872425904</v>
+        <v>-28.72868114971647</v>
       </c>
     </row>
     <row r="31">
@@ -7162,7 +7148,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-60.48315447851812</v>
+        <v>-28.74247278179576</v>
       </c>
     </row>
     <row r="32">
@@ -7170,7 +7156,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-60.41476600922593</v>
+        <v>-28.74247830087888</v>
       </c>
     </row>
     <row r="33">
@@ -7178,7 +7164,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-60.72461743574969</v>
+        <v>-28.98672468644337</v>
       </c>
     </row>
     <row r="34">
@@ -7186,7 +7172,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-60.67138576420011</v>
+        <v>-28.98099834121491</v>
       </c>
     </row>
     <row r="35">
@@ -7194,7 +7180,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-60.62827803960543</v>
+        <v>-28.91792125648373</v>
       </c>
     </row>
     <row r="36">
@@ -7202,7 +7188,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-60.99194067601471</v>
+        <v>-29.28185464406815</v>
       </c>
     </row>
     <row r="37">
@@ -7210,7 +7196,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-60.94675352082793</v>
+        <v>-29.2516764134102</v>
       </c>
     </row>
     <row r="38">
@@ -7218,7 +7204,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-60.90302554885444</v>
+        <v>-29.21142652752303</v>
       </c>
     </row>
     <row r="39">
@@ -7226,7 +7212,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-60.987756155349</v>
+        <v>-29.30142348412843</v>
       </c>
     </row>
     <row r="40">
@@ -7234,7 +7220,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-61.03318542684546</v>
+        <v>-29.3110824018031</v>
       </c>
     </row>
     <row r="41">
@@ -7242,7 +7228,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-61.03999275952024</v>
+        <v>-29.33324891274767</v>
       </c>
     </row>
     <row r="42">
@@ -7250,7 +7236,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-60.97552298009707</v>
+        <v>-29.32189630182891</v>
       </c>
     </row>
     <row r="43">
@@ -7258,7 +7244,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-61.03376844940097</v>
+        <v>-29.37513171074665</v>
       </c>
     </row>
     <row r="44">
@@ -7266,7 +7252,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-61.07004769329672</v>
+        <v>-29.36350182441968</v>
       </c>
     </row>
     <row r="45">
@@ -7274,7 +7260,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-61.00630130794005</v>
+        <v>-29.34373326388776</v>
       </c>
     </row>
     <row r="46">
@@ -7282,7 +7268,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-61.03925467014002</v>
+        <v>-29.35224021540707</v>
       </c>
     </row>
     <row r="47">
@@ -7290,7 +7276,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-61.01227575900824</v>
+        <v>-29.32633352289127</v>
       </c>
     </row>
     <row r="48">
@@ -7298,7 +7284,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-61.07981898884318</v>
+        <v>-29.37920457711819</v>
       </c>
     </row>
     <row r="49">
@@ -7306,7 +7292,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-61.0353465773383</v>
+        <v>-29.38808078322907</v>
       </c>
     </row>
     <row r="50">
@@ -7314,7 +7300,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-61.05884879987144</v>
+        <v>-29.37355133636889</v>
       </c>
     </row>
     <row r="51">
@@ -7322,7 +7308,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-61.04266702381111</v>
+        <v>-29.39454852361788</v>
       </c>
     </row>
     <row r="52">
@@ -7330,7 +7316,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-61.03651059682868</v>
+        <v>-29.40266771419754</v>
       </c>
     </row>
     <row r="53">
@@ -7338,7 +7324,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-60.99452260104926</v>
+        <v>-29.38893571549524</v>
       </c>
     </row>
     <row r="54">
@@ -7346,7 +7332,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-61.02909958346751</v>
+        <v>-29.34528533076744</v>
       </c>
     </row>
     <row r="55">
@@ -7354,7 +7340,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-61.01776572645127</v>
+        <v>-29.32299290093111</v>
       </c>
     </row>
     <row r="56">
@@ -7362,7 +7348,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-60.99757565978867</v>
+        <v>-29.32298782810927</v>
       </c>
     </row>
     <row r="57">
@@ -7370,7 +7356,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-61.0446796183598</v>
+        <v>-29.35045974610803</v>
       </c>
     </row>
     <row r="58">
@@ -7378,7 +7364,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-61.05297965604814</v>
+        <v>-29.36664184831499</v>
       </c>
     </row>
     <row r="59">
@@ -7386,7 +7372,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-61.06567839135136</v>
+        <v>-29.34501895035651</v>
       </c>
     </row>
     <row r="60">
@@ -7394,7 +7380,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-60.91120677626385</v>
+        <v>-29.29010184838472</v>
       </c>
     </row>
     <row r="61">
@@ -7402,7 +7388,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-60.97499701850871</v>
+        <v>-29.28374361656204</v>
       </c>
     </row>
     <row r="62">
@@ -7410,7 +7396,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-60.99608428730503</v>
+        <v>-29.29105995545562</v>
       </c>
     </row>
     <row r="63">
@@ -7418,7 +7404,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-60.8079287521651</v>
+        <v>-29.0475736129563</v>
       </c>
     </row>
     <row r="64">
@@ -7426,7 +7412,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-60.77860116111555</v>
+        <v>-29.05329369523827</v>
       </c>
     </row>
     <row r="65">
@@ -7434,7 +7420,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-60.72212293950619</v>
+        <v>-28.99845943447324</v>
       </c>
     </row>
     <row r="66">
@@ -7442,7 +7428,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-60.52790489033862</v>
+        <v>-28.81929285368179</v>
       </c>
     </row>
     <row r="67">
@@ -7450,7 +7436,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-60.5532319310057</v>
+        <v>-28.83207116188937</v>
       </c>
     </row>
     <row r="68">
@@ -7458,7 +7444,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-60.56531253925644</v>
+        <v>-28.83129938384612</v>
       </c>
     </row>
     <row r="69">
@@ -7466,7 +7452,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-60.41663179549992</v>
+        <v>-28.78789359508969</v>
       </c>
     </row>
     <row r="70">
@@ -7474,7 +7460,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-60.4354628443994</v>
+        <v>-28.78501686140551</v>
       </c>
     </row>
     <row r="71">
@@ -7482,7 +7468,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-60.36574709844113</v>
+        <v>-28.78948641988199</v>
       </c>
     </row>
     <row r="72">
@@ -7490,7 +7476,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-60.32717015040337</v>
+        <v>-28.78356723464287</v>
       </c>
     </row>
     <row r="73">
@@ -7498,7 +7484,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-60.39007370495425</v>
+        <v>-28.78901714752017</v>
       </c>
     </row>
     <row r="74">
@@ -7506,7 +7492,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-60.35377520916601</v>
+        <v>-28.79316572393525</v>
       </c>
     </row>
     <row r="75">
@@ -7514,7 +7500,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-60.29353336617034</v>
+        <v>-28.78610802129587</v>
       </c>
     </row>
     <row r="76">
@@ -7522,7 +7508,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-60.29907392568391</v>
+        <v>-28.79047840010653</v>
       </c>
     </row>
     <row r="77">
@@ -7530,7 +7516,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-60.37389422194303</v>
+        <v>-28.7916649351575</v>
       </c>
     </row>
     <row r="78">
@@ -7538,7 +7524,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-60.4335865197373</v>
+        <v>-28.77512565599049</v>
       </c>
     </row>
     <row r="79">
@@ -7546,7 +7532,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-60.44891959716934</v>
+        <v>-28.77874940106511</v>
       </c>
     </row>
     <row r="80">
@@ -7554,7 +7540,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-60.41632526218061</v>
+        <v>-28.77367160220719</v>
       </c>
     </row>
     <row r="81">
@@ -7562,7 +7548,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-60.42196477481568</v>
+        <v>-28.7927498835368</v>
       </c>
     </row>
     <row r="82">
@@ -7570,7 +7556,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-60.446289479687</v>
+        <v>-28.78134776145072</v>
       </c>
     </row>
     <row r="83">
@@ -7578,7 +7564,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-60.43206477070561</v>
+        <v>-28.79096476070584</v>
       </c>
     </row>
     <row r="84">
@@ -7586,7 +7572,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-60.51642420377054</v>
+        <v>-28.7824744755534</v>
       </c>
     </row>
     <row r="85">
@@ -7594,7 +7580,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-60.47102553132694</v>
+        <v>-28.78026802364041</v>
       </c>
     </row>
     <row r="86">
@@ -7602,7 +7588,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-60.45818516340245</v>
+        <v>-28.78140862305737</v>
       </c>
     </row>
     <row r="87">
@@ -7610,7 +7596,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-60.45422160734896</v>
+        <v>-28.78461864038055</v>
       </c>
     </row>
     <row r="88">
@@ -7618,7 +7604,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-60.45046899240059</v>
+        <v>-28.78463613651998</v>
       </c>
     </row>
     <row r="89">
@@ -7626,7 +7612,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-60.44194356848608</v>
+        <v>-28.77623146563627</v>
       </c>
     </row>
     <row r="90">
@@ -7634,7 +7620,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-60.46728231282132</v>
+        <v>-28.7825169835809</v>
       </c>
     </row>
     <row r="91">
@@ -7642,7 +7628,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-60.47756636334986</v>
+        <v>-28.78028148319361</v>
       </c>
     </row>
     <row r="92">
@@ -7650,7 +7636,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-60.47723513688348</v>
+        <v>-28.79129654500461</v>
       </c>
     </row>
     <row r="93">
@@ -7658,7 +7644,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-60.45171125970768</v>
+        <v>-28.77218236635677</v>
       </c>
     </row>
     <row r="94">
@@ -7666,7 +7652,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-60.48485667510472</v>
+        <v>-28.77841027164101</v>
       </c>
     </row>
     <row r="95">
@@ -7674,7 +7660,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-60.46787146662101</v>
+        <v>-28.76881828644922</v>
       </c>
     </row>
     <row r="96">
@@ -7682,7 +7668,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-60.46548982513586</v>
+        <v>-28.77367469745836</v>
       </c>
     </row>
     <row r="97">
@@ -7690,7 +7676,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-60.47357449203823</v>
+        <v>-28.77732416522544</v>
       </c>
     </row>
     <row r="98">
@@ -7698,7 +7684,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-60.47566854138268</v>
+        <v>-28.77288519886046</v>
       </c>
     </row>
     <row r="99">
@@ -7706,7 +7692,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-60.53182177911651</v>
+        <v>-28.79538555547587</v>
       </c>
     </row>
     <row r="100">
@@ -7714,7 +7700,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-60.52029507239254</v>
+        <v>-28.79192139024809</v>
       </c>
     </row>
     <row r="101">
@@ -7722,7 +7708,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-60.50716164074871</v>
+        <v>-28.79493930715502</v>
       </c>
     </row>
     <row r="102">
@@ -7730,7 +7716,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-60.53897150186823</v>
+        <v>-28.83039796687365</v>
       </c>
     </row>
     <row r="103">
@@ -7738,7 +7724,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-60.62915269930309</v>
+        <v>-28.87618668433858</v>
       </c>
     </row>
     <row r="104">
@@ -7746,7 +7732,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-60.93999182993868</v>
+        <v>-29.19269560381704</v>
       </c>
     </row>
     <row r="105">
@@ -7754,7 +7740,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-60.67785696284471</v>
+        <v>-28.93835603778274</v>
       </c>
     </row>
     <row r="106">
@@ -7762,7 +7748,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-60.55365738371123</v>
+        <v>-28.79684874270331</v>
       </c>
     </row>
     <row r="107">
@@ -7770,7 +7756,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-60.50405943494524</v>
+        <v>-28.79390962414888</v>
       </c>
     </row>
     <row r="108">
@@ -7778,7 +7764,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-60.48961392620434</v>
+        <v>-28.80258752519892</v>
       </c>
     </row>
     <row r="109">
@@ -7786,7 +7772,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-60.50961381207271</v>
+        <v>-28.79204584382901</v>
       </c>
     </row>
     <row r="110">
@@ -7794,7 +7780,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-60.45765764559891</v>
+        <v>-28.79319128509879</v>
       </c>
     </row>
     <row r="111">
@@ -7802,7 +7788,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-60.51273585371516</v>
+        <v>-28.80608826776181</v>
       </c>
     </row>
     <row r="112">
@@ -7810,7 +7796,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-60.50793222828995</v>
+        <v>-28.80000388654245</v>
       </c>
     </row>
     <row r="113">
@@ -7818,7 +7804,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-60.48150441780539</v>
+        <v>-28.80499114928756</v>
       </c>
     </row>
     <row r="114">
@@ -7826,7 +7812,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-60.52913249105151</v>
+        <v>-28.82741336174045</v>
       </c>
     </row>
     <row r="115">
@@ -7834,7 +7820,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-60.56063145882368</v>
+        <v>-28.82408808361691</v>
       </c>
     </row>
     <row r="116">
@@ -7842,7 +7828,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-60.51011471073993</v>
+        <v>-28.82522262412907</v>
       </c>
     </row>
     <row r="117">
@@ -7850,7 +7836,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-60.3677718073868</v>
+        <v>-28.73230777979199</v>
       </c>
     </row>
     <row r="118">
@@ -7858,7 +7844,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-60.37228067475843</v>
+        <v>-28.73231298079151</v>
       </c>
     </row>
     <row r="119">
@@ -7866,7 +7852,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-60.40212657023457</v>
+        <v>-28.73000813146015</v>
       </c>
     </row>
     <row r="120">
@@ -7874,7 +7860,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-60.35431719692324</v>
+        <v>-28.70439354178361</v>
       </c>
     </row>
     <row r="121">
@@ -7882,7 +7868,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-60.41511234361125</v>
+        <v>-28.72706636838888</v>
       </c>
     </row>
     <row r="122">
@@ -7890,7 +7876,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-60.37494003841655</v>
+        <v>-28.70440230377594</v>
       </c>
     </row>
     <row r="123">
@@ -7898,7 +7884,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-60.11998978534736</v>
+        <v>-28.41162585183965</v>
       </c>
     </row>
     <row r="124">
@@ -7906,7 +7892,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-60.15320586425985</v>
+        <v>-28.40702396462154</v>
       </c>
     </row>
     <row r="125">
@@ -7914,7 +7900,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-60.165088289722</v>
+        <v>-28.41158384587087</v>
       </c>
     </row>
     <row r="126">
@@ -7922,7 +7908,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-59.85819159895661</v>
+        <v>-28.0771292586078</v>
       </c>
     </row>
     <row r="127">
@@ -7930,7 +7916,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-59.82913170829791</v>
+        <v>-28.07732884517547</v>
       </c>
     </row>
     <row r="128">
@@ -7938,7 +7924,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-59.82847325699323</v>
+        <v>-28.11475899136004</v>
       </c>
     </row>
     <row r="129">
@@ -7946,7 +7932,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-59.61777676506397</v>
+        <v>-27.78822940971734</v>
       </c>
     </row>
     <row r="130">
@@ -7954,7 +7940,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-59.54574553217648</v>
+        <v>-27.797030634046</v>
       </c>
     </row>
     <row r="131">
@@ -7962,7 +7948,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-59.50611429723339</v>
+        <v>-27.79704468295126</v>
       </c>
     </row>
     <row r="132">
@@ -7970,7 +7956,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-59.05690958273058</v>
+        <v>-27.29760704431736</v>
       </c>
     </row>
     <row r="133">
@@ -7978,7 +7964,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-59.01905318806217</v>
+        <v>-27.30463727232232</v>
       </c>
     </row>
     <row r="134">
@@ -7986,7 +7972,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-59.12159460764215</v>
+        <v>-27.3308574143195</v>
       </c>
     </row>
     <row r="135">
@@ -7994,7 +7980,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-58.94747618333573</v>
+        <v>-27.15403700161553</v>
       </c>
     </row>
     <row r="136">
@@ -8002,7 +7988,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-58.94650936645996</v>
+        <v>-27.16639200599406</v>
       </c>
     </row>
     <row r="137">
@@ -8010,7 +7996,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-58.95516974974744</v>
+        <v>-27.17891826566409</v>
       </c>
     </row>
     <row r="138">
@@ -8018,7 +8004,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-58.64704089563165</v>
+        <v>-26.86035036367884</v>
       </c>
     </row>
     <row r="139">
@@ -8026,7 +8012,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-59.21943979498733</v>
+        <v>-27.52408254510257</v>
       </c>
     </row>
     <row r="140">
@@ -8034,7 +8020,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-59.79332021449904</v>
+        <v>-27.95027420956012</v>
       </c>
     </row>
     <row r="141">
@@ -8042,7 +8028,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-59.09951355993112</v>
+        <v>-27.34415440583597</v>
       </c>
     </row>
     <row r="142">
@@ -8050,7 +8036,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-58.94365087462521</v>
+        <v>-27.09493648108116</v>
       </c>
     </row>
     <row r="143">
@@ -8058,7 +8044,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-58.9610866441273</v>
+        <v>-27.05261075131857</v>
       </c>
     </row>
     <row r="144">
@@ -8066,7 +8052,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-58.68649842056568</v>
+        <v>-26.88159775176823</v>
       </c>
     </row>
     <row r="145">
@@ -8074,7 +8060,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-58.61126055114761</v>
+        <v>-26.84389805936047</v>
       </c>
     </row>
     <row r="146">

--- a/testcases/timeseries/EVDay01_mix10.xlsx
+++ b/testcases/timeseries/EVDay01_mix10.xlsx
@@ -1724,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2012008998</v>
+        <v>2012000078</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1833,6 +1833,44 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2015008910</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G3" t="n">
+        <v>250</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>150</v>
       </c>
     </row>
@@ -1887,23 +1925,37 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2012008998</v>
+        <v>2012000078</v>
       </c>
       <c r="B2" t="n">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="C2" t="n">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="D2" t="n">
-        <v>57.03881439566239</v>
+        <v>36.16977026054121</v>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>38.67372940587929</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="n"/>
+      <c r="A3" s="7" t="n">
+        <v>2015008910</v>
+      </c>
+      <c r="B3" t="n">
+        <v>29</v>
+      </c>
+      <c r="C3" t="n">
+        <v>122</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.78554815446736</v>
+      </c>
+      <c r="E3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n"/>
@@ -5583,7 +5635,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>38.94814751781206</v>
+        <v>16.9146238196888</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -5592,7 +5644,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>38.44539378398421</v>
+        <v>17.44215660886585</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -5601,7 +5653,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>37.95006511841737</v>
+        <v>17.14787310154347</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -5610,7 +5662,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>38.46084967344783</v>
+        <v>17.90058941933744</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -5619,7 +5671,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>38.28803560322174</v>
+        <v>17.66587312636015</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -5628,7 +5680,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>38.37032151956242</v>
+        <v>17.24432843224935</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -5637,7 +5689,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>38.42425614615322</v>
+        <v>16.75823346908015</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -5646,7 +5698,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>38.15111911703654</v>
+        <v>17.52824200036387</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -5655,7 +5707,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>38.11712167953282</v>
+        <v>17.14418255360176</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -5664,7 +5716,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>38.56849627029457</v>
+        <v>17.00550708657546</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -5673,7 +5725,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>37.66982563917204</v>
+        <v>18.3837049895571</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -5682,7 +5734,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>37.37179046395202</v>
+        <v>16.82106863124905</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -5691,7 +5743,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>37.53246115830454</v>
+        <v>16.83184058788992</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -5700,7 +5752,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>38.5238092271291</v>
+        <v>17.94052417099694</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -5709,7 +5761,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>38.78403500338199</v>
+        <v>17.52726612584441</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -5718,7 +5770,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>38.5320836257816</v>
+        <v>18.6326131540207</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -5727,7 +5779,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>38.50630994297467</v>
+        <v>17.87882375152094</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -5736,7 +5788,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>38.57872590616164</v>
+        <v>17.54103279625076</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -5745,7 +5797,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>38.67162163661006</v>
+        <v>17.94684018521759</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -5754,7 +5806,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>37.84557889782805</v>
+        <v>18.35039418839975</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -5763,7 +5815,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>37.7371757259985</v>
+        <v>17.13662828566312</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -5772,7 +5824,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>37.96381352737934</v>
+        <v>14.72775960181308</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -5781,7 +5833,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>38.63995864933978</v>
+        <v>16.31212429562117</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -5790,7 +5842,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>37.23243961431683</v>
+        <v>14.64377893925295</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -5799,7 +5851,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>35.22523284687271</v>
+        <v>15.41958229364378</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -5808,7 +5860,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>35.90122065751705</v>
+        <v>14.27557753900252</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -5817,7 +5869,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>35.98298413682943</v>
+        <v>14.69825880135845</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -5826,7 +5878,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>35.84066927506647</v>
+        <v>14.25022295731558</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -5835,7 +5887,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>37.59069170194278</v>
+        <v>12.61502764920257</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -5844,7 +5896,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>37.39812180327667</v>
+        <v>15.85344496967289</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -5853,7 +5905,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>37.07295885909709</v>
+        <v>15.9362816228832</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -5862,7 +5914,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>37.68088964151883</v>
+        <v>15.91706140322776</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -5871,7 +5923,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>37.69179701989486</v>
+        <v>15.06151474059716</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -5880,7 +5932,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>37.74320097128736</v>
+        <v>16.07477800735387</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -5889,7 +5941,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>37.16444941074548</v>
+        <v>15.10707647333532</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -5898,7 +5950,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>37.05018214788996</v>
+        <v>15.8246902377795</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -5907,7 +5959,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>36.07311355727619</v>
+        <v>15.96269598844812</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -5916,7 +5968,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>37.01843201643095</v>
+        <v>15.43039452323052</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -5925,7 +5977,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>36.97153093994858</v>
+        <v>15.35722524092455</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -5934,7 +5986,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>37.27373613773216</v>
+        <v>15.25924030325956</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -5943,7 +5995,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>37.06404016764296</v>
+        <v>15.35356037506307</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -5952,7 +6004,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>37.68889106384783</v>
+        <v>14.87746797751739</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -5961,7 +6013,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>37.79689435130355</v>
+        <v>16.23058442831048</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -5970,7 +6022,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>36.73768147929829</v>
+        <v>15.71495575567445</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -5979,7 +6031,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>36.69968428430221</v>
+        <v>14.63723525202076</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -5988,7 +6040,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>36.65221288473874</v>
+        <v>15.44873850643111</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -5997,7 +6049,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>37.32595062870725</v>
+        <v>15.10914846039222</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -6006,7 +6058,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>37.39923910570928</v>
+        <v>15.5645572782985</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -6015,7 +6067,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>37.69066061571155</v>
+        <v>15.8188527759628</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -6024,7 +6076,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>36.66790088290399</v>
+        <v>15.83522490503588</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -6033,7 +6085,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>36.56773395811661</v>
+        <v>15.75703333399477</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -6042,7 +6094,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>37.10867787321593</v>
+        <v>14.92564334815289</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -6051,7 +6103,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>37.01541042976969</v>
+        <v>16.13147710466396</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -6060,7 +6112,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>36.8938724052535</v>
+        <v>16.24310223209319</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -6069,7 +6121,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>36.87815181790603</v>
+        <v>15.06299281842587</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -6078,7 +6130,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>36.07901110574237</v>
+        <v>16.47023629108423</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -6087,7 +6139,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>36.13886438065511</v>
+        <v>16.2613252231782</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -6096,7 +6148,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>36.10498007152938</v>
+        <v>16.99396708335636</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -6105,7 +6157,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>36.41874904692592</v>
+        <v>17.24128194136295</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -6114,7 +6166,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>36.41015876011504</v>
+        <v>16.82713860273799</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -6123,7 +6175,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>36.35812327113056</v>
+        <v>17.46352709165634</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -6132,7 +6184,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>37.7843428202164</v>
+        <v>16.83224995626714</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -6141,7 +6193,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>37.71826054117023</v>
+        <v>18.43177217380761</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -6150,7 +6202,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>37.75592632194078</v>
+        <v>16.98718955072994</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -6159,7 +6211,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>37.82818964566804</v>
+        <v>18.04717465932129</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -6168,7 +6220,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>37.9095641252983</v>
+        <v>19.59373541884663</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -6177,7 +6229,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>38.07209851636759</v>
+        <v>19.20122467852979</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -6186,7 +6238,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>37.89512888499597</v>
+        <v>19.37696130626062</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -6195,7 +6247,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>38.00360022589978</v>
+        <v>19.27500619164141</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -6204,7 +6256,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>38.10024470054339</v>
+        <v>18.00497240654357</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -6213,7 +6265,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>38.20509789370988</v>
+        <v>16.77938175464909</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -6222,7 +6274,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>38.08989153620666</v>
+        <v>16.88874851790825</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -6231,7 +6283,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>38.41619900894513</v>
+        <v>17.90030930734587</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -6240,7 +6292,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>38.2253627985116</v>
+        <v>18.049482333318</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -6249,7 +6301,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>38.28031192082116</v>
+        <v>16.79663018363511</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -6258,7 +6310,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>38.18429031754316</v>
+        <v>17.79275506052986</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -6267,7 +6319,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>38.13220480403155</v>
+        <v>16.18270265379365</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -6276,7 +6328,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>38.61845667952895</v>
+        <v>17.40845281866554</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -6285,7 +6337,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>38.57675233890956</v>
+        <v>16.37741172655869</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -6294,7 +6346,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>38.41554609913477</v>
+        <v>17.48218637176604</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -6303,7 +6355,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>38.12667682913326</v>
+        <v>16.3880931658194</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -6312,7 +6364,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>38.05002561629941</v>
+        <v>16.88736324681017</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -6321,7 +6373,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>38.15894069574685</v>
+        <v>16.47682301341565</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -6330,7 +6382,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>38.48633062767594</v>
+        <v>16.22797997877697</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -6339,7 +6391,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>38.55447200593155</v>
+        <v>17.02570000537408</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -6348,7 +6400,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>38.68956170200786</v>
+        <v>17.64567695481698</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -6357,7 +6409,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>38.72031961387294</v>
+        <v>16.60113869042003</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -6366,7 +6418,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>38.7152735291397</v>
+        <v>17.95170590352479</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -6375,7 +6427,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>38.65924763598836</v>
+        <v>18.85688352409881</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -6384,7 +6436,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>38.69803614749311</v>
+        <v>17.55940050868115</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -6393,7 +6445,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>38.64570154764617</v>
+        <v>18.08635346388292</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -6402,7 +6454,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>38.75542929765308</v>
+        <v>18.23113283909471</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -6411,7 +6463,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>38.79674186859255</v>
+        <v>19.24802734840249</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -6420,7 +6472,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>38.89932756270655</v>
+        <v>19.56266748991819</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -6429,7 +6481,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>38.73992214720279</v>
+        <v>18.66383319850227</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -6438,7 +6490,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>38.79283609694021</v>
+        <v>18.00139027334099</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -6447,7 +6499,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>38.79362243761248</v>
+        <v>17.66602470634564</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -6456,7 +6508,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>38.58316329770845</v>
+        <v>18.72847942977472</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -6465,7 +6517,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>38.58505213971774</v>
+        <v>17.53391223700739</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -6474,7 +6526,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>38.65377989055888</v>
+        <v>17.64914847237811</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -6483,7 +6535,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>39.10423669850688</v>
+        <v>18.61095664917192</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -6492,7 +6544,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>37.81068422179917</v>
+        <v>16.65400408666081</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -6501,7 +6553,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>36.12941940435734</v>
+        <v>16.22398698834591</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -6510,7 +6562,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>36.12498507495351</v>
+        <v>16.23923189466219</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -6519,7 +6571,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>36.21028200257143</v>
+        <v>17.21815789918323</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -6528,7 +6580,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>36.65614077019149</v>
+        <v>16.25768786846081</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -6537,7 +6589,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>38.80856391994335</v>
+        <v>16.86452593975346</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -6546,7 +6598,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>38.52289563187721</v>
+        <v>15.72852621723989</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -6555,7 +6607,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>38.74016334814983</v>
+        <v>16.4432027880437</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -6564,7 +6616,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>38.44096675909543</v>
+        <v>17.02359399176901</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -6573,7 +6625,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>38.37361157571467</v>
+        <v>17.50694109649845</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -6582,7 +6634,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>38.53694413712143</v>
+        <v>17.20755120155248</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -6591,7 +6643,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>38.50840993942281</v>
+        <v>17.00670298120915</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -6600,7 +6652,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>38.24164608491623</v>
+        <v>16.88270310713113</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -6609,7 +6661,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>38.30347486103872</v>
+        <v>17.06572489029645</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -6618,7 +6670,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>38.33223678988633</v>
+        <v>16.74423145849785</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -6627,7 +6679,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>38.53854376403604</v>
+        <v>17.19879687326138</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -6636,7 +6688,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>38.67994046579037</v>
+        <v>16.97965294285599</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -6645,7 +6697,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>38.43559289497321</v>
+        <v>15.06597365859433</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -6654,7 +6706,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>38.62213607288788</v>
+        <v>16.58865038575381</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -6663,7 +6715,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>38.2274107826771</v>
+        <v>17.33321178696055</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -6672,7 +6724,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>38.5496671531162</v>
+        <v>16.55828697193886</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -6681,7 +6733,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>38.80696052916474</v>
+        <v>17.88342819620321</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -6690,7 +6742,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>39.0088297753098</v>
+        <v>16.90267925127538</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -6699,7 +6751,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>38.51710974358315</v>
+        <v>15.93095705092669</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -6708,7 +6760,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>38.63411025358166</v>
+        <v>15.60103228364678</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -6717,7 +6769,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>39.02319149177148</v>
+        <v>17.25682776589833</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -6726,7 +6778,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>38.45141236093169</v>
+        <v>17.44930843540761</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -6735,7 +6787,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>38.35033734605423</v>
+        <v>17.60947083307483</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -6744,7 +6796,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>38.30337019484874</v>
+        <v>18.57460832156739</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -6753,7 +6805,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>38.28436590775625</v>
+        <v>17.27597426599581</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -6762,7 +6814,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>38.66039207591808</v>
+        <v>17.39602961005345</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -6771,7 +6823,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>38.77249507765913</v>
+        <v>18.21109923510174</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -6780,7 +6832,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>38.57025594890745</v>
+        <v>18.28435523937912</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -6789,7 +6841,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>38.52614499051534</v>
+        <v>18.31506113607012</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -6798,7 +6850,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>38.56236773792875</v>
+        <v>18.41792856154015</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -6807,7 +6859,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>38.84944169553397</v>
+        <v>16.77476651977173</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -6816,7 +6868,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>37.71164899027399</v>
+        <v>18.44621718635907</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -6825,7 +6877,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>35.9405848695412</v>
+        <v>18.3773686541387</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -6834,7 +6886,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>36.20169725225171</v>
+        <v>17.38042982555585</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -6843,7 +6895,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>36.25868208841301</v>
+        <v>17.0020465277329</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -6852,7 +6904,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>36.76388216518377</v>
+        <v>16.57979506249155</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -6861,7 +6913,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>38.70897875200644</v>
+        <v>15.51592861413174</v>
       </c>
     </row>
     <row r="145">
@@ -6869,7 +6921,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>39.04376521058406</v>
+        <v>16.15687653328537</v>
       </c>
     </row>
     <row r="146">
@@ -6916,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-26.85303218315355</v>
+        <v>-19.81318644243987</v>
       </c>
     </row>
     <row r="3">
@@ -6924,7 +6976,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-26.81922793891247</v>
+        <v>-20.02599824033742</v>
       </c>
     </row>
     <row r="4">
@@ -6932,7 +6984,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-26.86664059253588</v>
+        <v>-20.0544566382746</v>
       </c>
     </row>
     <row r="5">
@@ -6940,7 +6992,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-26.86103863891569</v>
+        <v>-20.08615893660339</v>
       </c>
     </row>
     <row r="6">
@@ -6948,7 +7000,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-26.80364288163057</v>
+        <v>-20.08115322450283</v>
       </c>
     </row>
     <row r="7">
@@ -6956,7 +7008,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-27.03080649911989</v>
+        <v>-18.98839794435884</v>
       </c>
     </row>
     <row r="8">
@@ -6964,7 +7016,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-27.06134408222902</v>
+        <v>-19.20458296725476</v>
       </c>
     </row>
     <row r="9">
@@ -6972,7 +7024,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-27.29689792380277</v>
+        <v>-19.18228340512124</v>
       </c>
     </row>
     <row r="10">
@@ -6980,7 +7032,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-27.34402747954065</v>
+        <v>-19.93383692594555</v>
       </c>
     </row>
     <row r="11">
@@ -6988,7 +7040,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-27.31908330537559</v>
+        <v>-19.92546669382534</v>
       </c>
     </row>
     <row r="12">
@@ -6996,7 +7048,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-27.5031857242282</v>
+        <v>-19.71743286040999</v>
       </c>
     </row>
     <row r="13">
@@ -7004,7 +7056,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-27.48260950319925</v>
+        <v>-20.09458973054267</v>
       </c>
     </row>
     <row r="14">
@@ -7012,7 +7064,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-27.50522941254636</v>
+        <v>-20.33494436540941</v>
       </c>
     </row>
     <row r="15">
@@ -7020,7 +7072,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-27.61569315636932</v>
+        <v>-19.76758834006985</v>
       </c>
     </row>
     <row r="16">
@@ -7028,7 +7080,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-27.63651849647063</v>
+        <v>-19.52986041049882</v>
       </c>
     </row>
     <row r="17">
@@ -7036,7 +7088,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-27.52032480378558</v>
+        <v>-19.97754594731532</v>
       </c>
     </row>
     <row r="18">
@@ -7044,7 +7096,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-27.79538019665213</v>
+        <v>-19.73805452853167</v>
       </c>
     </row>
     <row r="19">
@@ -7052,7 +7104,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-27.85599628120243</v>
+        <v>-19.79168454960023</v>
       </c>
     </row>
     <row r="20">
@@ -7060,7 +7112,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-27.85957707266011</v>
+        <v>-19.81924458841796</v>
       </c>
     </row>
     <row r="21">
@@ -7068,7 +7120,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-28.07687422073599</v>
+        <v>-20.02852832135259</v>
       </c>
     </row>
     <row r="22">
@@ -7076,7 +7128,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-28.07153823237993</v>
+        <v>-21.5036807435267</v>
       </c>
     </row>
     <row r="23">
@@ -7084,7 +7136,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-28.00208973531413</v>
+        <v>-21.54734232143436</v>
       </c>
     </row>
     <row r="24">
@@ -7092,7 +7144,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-28.27355504199464</v>
+        <v>-21.8564212765997</v>
       </c>
     </row>
     <row r="25">
@@ -7100,7 +7152,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-28.76592191128936</v>
+        <v>-22.09189598153702</v>
       </c>
     </row>
     <row r="26">
@@ -7108,7 +7160,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-28.84631899149043</v>
+        <v>-21.37892782936232</v>
       </c>
     </row>
     <row r="27">
@@ -7116,7 +7168,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-28.78267742812367</v>
+        <v>-21.9445133333941</v>
       </c>
     </row>
     <row r="28">
@@ -7124,7 +7176,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-28.67810862820451</v>
+        <v>-22.2652186255449</v>
       </c>
     </row>
     <row r="29">
@@ -7132,7 +7184,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-28.72399194464762</v>
+        <v>-22.90964208197746</v>
       </c>
     </row>
     <row r="30">
@@ -7140,7 +7192,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-28.72868114971647</v>
+        <v>-22.62627530151197</v>
       </c>
     </row>
     <row r="31">
@@ -7148,7 +7200,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-28.74247278179576</v>
+        <v>-22.69003354836862</v>
       </c>
     </row>
     <row r="32">
@@ -7156,7 +7208,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-28.74247830087888</v>
+        <v>-22.25198197405746</v>
       </c>
     </row>
     <row r="33">
@@ -7164,7 +7216,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-28.98672468644337</v>
+        <v>-22.59029882558433</v>
       </c>
     </row>
     <row r="34">
@@ -7172,7 +7224,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-28.98099834121491</v>
+        <v>-23.22272939970688</v>
       </c>
     </row>
     <row r="35">
@@ -7180,7 +7232,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-28.91792125648373</v>
+        <v>-22.32365950014719</v>
       </c>
     </row>
     <row r="36">
@@ -7188,7 +7240,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-29.28185464406815</v>
+        <v>-22.40053500532562</v>
       </c>
     </row>
     <row r="37">
@@ -7196,7 +7248,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-29.2516764134102</v>
+        <v>-22.86622559155558</v>
       </c>
     </row>
     <row r="38">
@@ -7204,7 +7256,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-29.21142652752303</v>
+        <v>-22.85777330712145</v>
       </c>
     </row>
     <row r="39">
@@ -7212,7 +7264,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-29.30142348412843</v>
+        <v>-22.6709683608634</v>
       </c>
     </row>
     <row r="40">
@@ -7220,7 +7272,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-29.3110824018031</v>
+        <v>-22.92110375949572</v>
       </c>
     </row>
     <row r="41">
@@ -7228,7 +7280,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-29.33324891274767</v>
+        <v>-22.06964852525384</v>
       </c>
     </row>
     <row r="42">
@@ -7236,7 +7288,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-29.32189630182891</v>
+        <v>-21.88606899394292</v>
       </c>
     </row>
     <row r="43">
@@ -7244,7 +7296,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-29.37513171074665</v>
+        <v>-21.89753770355039</v>
       </c>
     </row>
     <row r="44">
@@ -7252,7 +7304,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-29.36350182441968</v>
+        <v>-22.90097351316031</v>
       </c>
     </row>
     <row r="45">
@@ -7260,7 +7312,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-29.34373326388776</v>
+        <v>-22.50366655115954</v>
       </c>
     </row>
     <row r="46">
@@ -7268,7 +7320,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-29.35224021540707</v>
+        <v>-22.07600985999346</v>
       </c>
     </row>
     <row r="47">
@@ -7276,7 +7328,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-29.32633352289127</v>
+        <v>-22.89873187503245</v>
       </c>
     </row>
     <row r="48">
@@ -7284,7 +7336,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-29.37920457711819</v>
+        <v>-22.55961205727628</v>
       </c>
     </row>
     <row r="49">
@@ -7292,7 +7344,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-29.38808078322907</v>
+        <v>-22.3827062599246</v>
       </c>
     </row>
     <row r="50">
@@ -7300,7 +7352,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-29.37355133636889</v>
+        <v>-21.82476827640278</v>
       </c>
     </row>
     <row r="51">
@@ -7308,7 +7360,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-29.39454852361788</v>
+        <v>-21.82981364929921</v>
       </c>
     </row>
     <row r="52">
@@ -7316,7 +7368,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-29.40266771419754</v>
+        <v>-21.86366307888837</v>
       </c>
     </row>
     <row r="53">
@@ -7324,7 +7376,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-29.38893571549524</v>
+        <v>-22.21007449288331</v>
       </c>
     </row>
     <row r="54">
@@ -7332,7 +7384,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-29.34528533076744</v>
+        <v>-22.78653853502828</v>
       </c>
     </row>
     <row r="55">
@@ -7340,7 +7392,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-29.32299290093111</v>
+        <v>-22.46547340777932</v>
       </c>
     </row>
     <row r="56">
@@ -7348,7 +7400,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-29.32298782810927</v>
+        <v>-22.02383409199091</v>
       </c>
     </row>
     <row r="57">
@@ -7356,7 +7408,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-29.35045974610803</v>
+        <v>-21.84084230721952</v>
       </c>
     </row>
     <row r="58">
@@ -7364,7 +7416,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-29.36664184831499</v>
+        <v>-22.31571712693885</v>
       </c>
     </row>
     <row r="59">
@@ -7372,7 +7424,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-29.34501895035651</v>
+        <v>-21.86245749716389</v>
       </c>
     </row>
     <row r="60">
@@ -7380,7 +7432,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-29.29010184838472</v>
+        <v>-21.80638595158192</v>
       </c>
     </row>
     <row r="61">
@@ -7388,7 +7440,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-29.28374361656204</v>
+        <v>-21.60245519476019</v>
       </c>
     </row>
     <row r="62">
@@ -7396,7 +7448,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-29.29105995545562</v>
+        <v>-21.61304802804388</v>
       </c>
     </row>
     <row r="63">
@@ -7404,7 +7456,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-29.0475736129563</v>
+        <v>-21.71941404624912</v>
       </c>
     </row>
     <row r="64">
@@ -7412,7 +7464,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-29.05329369523827</v>
+        <v>-21.59776426992642</v>
       </c>
     </row>
     <row r="65">
@@ -7420,7 +7472,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-28.99845943447324</v>
+        <v>-21.69491295479099</v>
       </c>
     </row>
     <row r="66">
@@ -7428,7 +7480,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-28.81929285368179</v>
+        <v>-21.56529525274477</v>
       </c>
     </row>
     <row r="67">
@@ -7436,7 +7488,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-28.83207116188937</v>
+        <v>-21.604630933584</v>
       </c>
     </row>
     <row r="68">
@@ -7444,7 +7496,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-28.83129938384612</v>
+        <v>-21.53662232884356</v>
       </c>
     </row>
     <row r="69">
@@ -7452,7 +7504,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-28.78789359508969</v>
+        <v>-21.61812562203338</v>
       </c>
     </row>
     <row r="70">
@@ -7460,7 +7512,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-28.78501686140551</v>
+        <v>-21.59639595574343</v>
       </c>
     </row>
     <row r="71">
@@ -7468,7 +7520,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-28.78948641988199</v>
+        <v>-21.6285022867378</v>
       </c>
     </row>
     <row r="72">
@@ -7476,7 +7528,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-28.78356723464287</v>
+        <v>-22.76922346852428</v>
       </c>
     </row>
     <row r="73">
@@ -7484,7 +7536,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-28.78901714752017</v>
+        <v>-22.74823680978128</v>
       </c>
     </row>
     <row r="74">
@@ -7492,7 +7544,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-28.79316572393525</v>
+        <v>-22.7424149979427</v>
       </c>
     </row>
     <row r="75">
@@ -7500,7 +7552,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-28.78610802129587</v>
+        <v>-22.55567110814252</v>
       </c>
     </row>
     <row r="76">
@@ -7508,7 +7560,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-28.79047840010653</v>
+        <v>-22.55489304402235</v>
       </c>
     </row>
     <row r="77">
@@ -7516,7 +7568,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-28.7916649351575</v>
+        <v>-22.56577385925267</v>
       </c>
     </row>
     <row r="78">
@@ -7524,7 +7576,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-28.77512565599049</v>
+        <v>-22.5068923664839</v>
       </c>
     </row>
     <row r="79">
@@ -7532,7 +7584,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-28.77874940106511</v>
+        <v>-22.58836477142525</v>
       </c>
     </row>
     <row r="80">
@@ -7540,7 +7592,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-28.77367160220719</v>
+        <v>-22.56056996649999</v>
       </c>
     </row>
     <row r="81">
@@ -7548,7 +7600,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-28.7927498835368</v>
+        <v>-21.88005107954871</v>
       </c>
     </row>
     <row r="82">
@@ -7556,7 +7608,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-28.78134776145072</v>
+        <v>-22.13620161578974</v>
       </c>
     </row>
     <row r="83">
@@ -7564,7 +7616,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-28.79096476070584</v>
+        <v>-22.29104476383034</v>
       </c>
     </row>
     <row r="84">
@@ -7572,7 +7624,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-28.7824744755534</v>
+        <v>-21.3684176327947</v>
       </c>
     </row>
     <row r="85">
@@ -7580,7 +7632,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-28.78026802364041</v>
+        <v>-21.40127079205245</v>
       </c>
     </row>
     <row r="86">
@@ -7588,7 +7640,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-28.78140862305737</v>
+        <v>-21.37920112354074</v>
       </c>
     </row>
     <row r="87">
@@ -7596,7 +7648,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-28.78461864038055</v>
+        <v>-21.41437991917866</v>
       </c>
     </row>
     <row r="88">
@@ -7604,7 +7656,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-28.78463613651998</v>
+        <v>-21.38547423705377</v>
       </c>
     </row>
     <row r="89">
@@ -7612,7 +7664,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-28.77623146563627</v>
+        <v>-21.39062204932501</v>
       </c>
     </row>
     <row r="90">
@@ -7620,7 +7672,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-28.7825169835809</v>
+        <v>-21.38709843421132</v>
       </c>
     </row>
     <row r="91">
@@ -7628,7 +7680,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-28.78028148319361</v>
+        <v>-21.36055208676961</v>
       </c>
     </row>
     <row r="92">
@@ -7636,7 +7688,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-28.79129654500461</v>
+        <v>-21.35886552394168</v>
       </c>
     </row>
     <row r="93">
@@ -7644,7 +7696,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-28.77218236635677</v>
+        <v>-21.33878627483996</v>
       </c>
     </row>
     <row r="94">
@@ -7652,7 +7704,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-28.77841027164101</v>
+        <v>-21.37961354151817</v>
       </c>
     </row>
     <row r="95">
@@ -7660,7 +7712,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-28.76881828644922</v>
+        <v>-21.34051356179571</v>
       </c>
     </row>
     <row r="96">
@@ -7668,7 +7720,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-28.77367469745836</v>
+        <v>-21.30719607015953</v>
       </c>
     </row>
     <row r="97">
@@ -7676,7 +7728,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-28.77732416522544</v>
+        <v>-21.2801591361078</v>
       </c>
     </row>
     <row r="98">
@@ -7684,7 +7736,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-28.77288519886046</v>
+        <v>-21.31334054452823</v>
       </c>
     </row>
     <row r="99">
@@ -7692,7 +7744,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-28.79538555547587</v>
+        <v>-21.28803450507014</v>
       </c>
     </row>
     <row r="100">
@@ -7700,7 +7752,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-28.79192139024809</v>
+        <v>-21.37934445388808</v>
       </c>
     </row>
     <row r="101">
@@ -7708,7 +7760,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-28.79493930715502</v>
+        <v>-21.39427177588116</v>
       </c>
     </row>
     <row r="102">
@@ -7716,7 +7768,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-28.83039796687365</v>
+        <v>-21.29694706267617</v>
       </c>
     </row>
     <row r="103">
@@ -7724,7 +7776,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-28.87618668433858</v>
+        <v>-21.83133479445403</v>
       </c>
     </row>
     <row r="104">
@@ -7732,7 +7784,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-29.19269560381704</v>
+        <v>-22.03444567847674</v>
       </c>
     </row>
     <row r="105">
@@ -7740,7 +7792,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-28.93835603778274</v>
+        <v>-21.6017507083722</v>
       </c>
     </row>
     <row r="106">
@@ -7748,7 +7800,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-28.79684874270331</v>
+        <v>-21.55392197024912</v>
       </c>
     </row>
     <row r="107">
@@ -7756,7 +7808,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-28.79390962414888</v>
+        <v>-21.33976034705467</v>
       </c>
     </row>
     <row r="108">
@@ -7764,7 +7816,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-28.80258752519892</v>
+        <v>-21.5709123672039</v>
       </c>
     </row>
     <row r="109">
@@ -7772,7 +7824,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-28.79204584382901</v>
+        <v>-21.42799422763412</v>
       </c>
     </row>
     <row r="110">
@@ -7780,7 +7832,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-28.79319128509879</v>
+        <v>-21.33329411296621</v>
       </c>
     </row>
     <row r="111">
@@ -7788,7 +7840,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-28.80608826776181</v>
+        <v>-21.43549026729678</v>
       </c>
     </row>
     <row r="112">
@@ -7796,7 +7848,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-28.80000388654245</v>
+        <v>-21.47609814688268</v>
       </c>
     </row>
     <row r="113">
@@ -7804,7 +7856,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-28.80499114928756</v>
+        <v>-21.47613268300888</v>
       </c>
     </row>
     <row r="114">
@@ -7812,7 +7864,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-28.82741336174045</v>
+        <v>-21.70753605075653</v>
       </c>
     </row>
     <row r="115">
@@ -7820,7 +7872,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-28.82408808361691</v>
+        <v>-22.48478562603643</v>
       </c>
     </row>
     <row r="116">
@@ -7828,7 +7880,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-28.82522262412907</v>
+        <v>-21.58890341878404</v>
       </c>
     </row>
     <row r="117">
@@ -7836,7 +7888,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-28.73230777979199</v>
+        <v>-21.34614548264735</v>
       </c>
     </row>
     <row r="118">
@@ -7844,7 +7896,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-28.73231298079151</v>
+        <v>-21.51325986806496</v>
       </c>
     </row>
     <row r="119">
@@ -7852,7 +7904,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-28.73000813146015</v>
+        <v>-22.25863835940475</v>
       </c>
     </row>
     <row r="120">
@@ -7860,7 +7912,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-28.70439354178361</v>
+        <v>-21.73513106746559</v>
       </c>
     </row>
     <row r="121">
@@ -7868,7 +7920,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-28.72706636838888</v>
+        <v>-21.68869904712986</v>
       </c>
     </row>
     <row r="122">
@@ -7876,7 +7928,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-28.70440230377594</v>
+        <v>-21.6769306684736</v>
       </c>
     </row>
     <row r="123">
@@ -7884,7 +7936,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-28.41162585183965</v>
+        <v>-22.05619654972072</v>
       </c>
     </row>
     <row r="124">
@@ -7892,7 +7944,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-28.40702396462154</v>
+        <v>-21.65848252891333</v>
       </c>
     </row>
     <row r="125">
@@ -7900,7 +7952,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-28.41158384587087</v>
+        <v>-21.49224046935406</v>
       </c>
     </row>
     <row r="126">
@@ -7908,7 +7960,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-28.0771292586078</v>
+        <v>-20.32373507958656</v>
       </c>
     </row>
     <row r="127">
@@ -7916,7 +7968,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-28.07732884517547</v>
+        <v>-20.5210151942653</v>
       </c>
     </row>
     <row r="128">
@@ -7924,7 +7976,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-28.11475899136004</v>
+        <v>-20.35951289782846</v>
       </c>
     </row>
     <row r="129">
@@ -7932,7 +7984,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-27.78822940971734</v>
+        <v>-21.28357509004829</v>
       </c>
     </row>
     <row r="130">
@@ -7940,7 +7992,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-27.797030634046</v>
+        <v>-20.47071177171317</v>
       </c>
     </row>
     <row r="131">
@@ -7948,7 +8000,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-27.79704468295126</v>
+        <v>-21.29869832385531</v>
       </c>
     </row>
     <row r="132">
@@ -7956,7 +8008,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-27.29760704431736</v>
+        <v>-19.85643627539594</v>
       </c>
     </row>
     <row r="133">
@@ -7964,7 +8016,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-27.30463727232232</v>
+        <v>-19.8840844613199</v>
       </c>
     </row>
     <row r="134">
@@ -7972,7 +8024,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-27.3308574143195</v>
+        <v>-19.88411612082344</v>
       </c>
     </row>
     <row r="135">
@@ -7980,7 +8032,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-27.15403700161553</v>
+        <v>-19.63969096730514</v>
       </c>
     </row>
     <row r="136">
@@ -7988,7 +8040,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-27.16639200599406</v>
+        <v>-19.52902376249884</v>
       </c>
     </row>
     <row r="137">
@@ -7996,7 +8048,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-27.17891826566409</v>
+        <v>-19.58750546922471</v>
       </c>
     </row>
     <row r="138">
@@ -8004,7 +8056,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-26.86035036367884</v>
+        <v>-19.27375803427087</v>
       </c>
     </row>
     <row r="139">
@@ -8012,7 +8064,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-27.52408254510257</v>
+        <v>-19.32405837976789</v>
       </c>
     </row>
     <row r="140">
@@ -8020,7 +8072,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-27.95027420956012</v>
+        <v>-19.77585747045164</v>
       </c>
     </row>
     <row r="141">
@@ -8028,7 +8080,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-27.34415440583597</v>
+        <v>-19.60482894694632</v>
       </c>
     </row>
     <row r="142">
@@ -8036,7 +8088,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-27.09493648108116</v>
+        <v>-19.32196001974001</v>
       </c>
     </row>
     <row r="143">
@@ -8044,7 +8096,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-27.05261075131857</v>
+        <v>-19.31197210081423</v>
       </c>
     </row>
     <row r="144">
@@ -8052,7 +8104,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-26.88159775176823</v>
+        <v>-19.0303444407863</v>
       </c>
     </row>
     <row r="145">
@@ -8060,7 +8112,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-26.84389805936047</v>
+        <v>-19.75725897894513</v>
       </c>
     </row>
     <row r="146">
